--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F39E683-2EDB-4330-AD00-4FEB026BE11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED82CA5-7DE7-4F0A-A7E3-EF0832EAEB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32535" yWindow="-12390" windowWidth="17250" windowHeight="8865" activeTab="1" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,11 +155,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zombies Rule The World(가제) 기획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2D 모바일 시뮬레이션 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombies Rule The World 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유전자 변형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가별로 특징이 있음(기후, 인구 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 국가에서 첫 감염자 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스 특성이 적용된 상태에서 전염됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임알고리즘 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스 특성 분류 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 기준(감염률로 지정하거나 랜덤하게)이 지나면 바이러스가 발견되고 치료제 개발이 시작됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제개발은 바이러스 특성 중 유전자 변형 분류의 특성들이 적용됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 개발이 일정 기준이 넘어가면 감염자가 비감염자로 바뀜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감염자 혹은 비감염자가 100%가 되면 게임이 끝남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -715,7 +790,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -763,6 +838,24 @@
       <c r="B6" s="15"/>
       <c r="C6" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="15">
+        <v>221108</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8327FA-0CC1-4EEE-A19D-060C2D4A29DA}">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -798,7 +891,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -853,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361D0E1C-38C8-4F39-9D1C-33911E27416C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -886,15 +979,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791336A-D98C-4D41-919D-44FAB4E982D2}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -905,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -936,27 +1072,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681257C2-639B-4570-B3EC-51C6606193A1}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED82CA5-7DE7-4F0A-A7E3-EF0832EAEB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0942427-13D3-4FB2-92CC-0328DFAEEAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-6915" yWindow="-18405" windowWidth="17250" windowHeight="8865" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,162 @@
   </si>
   <si>
     <t>감염자 혹은 비감염자가 100%가 되면 게임이 끝남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 설명 및 에셋 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 게임 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 이어하기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/vfx/shaders/earth-rendering-free-54914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/gui/sci-fi-gui-skin-15606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임 미리보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 없음, 천천히 돌아가는 모션효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 저장되어있던 게임을 불러오고 불러와진 게임을 시작함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 설정화면으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 시작 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 인게임 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 링크, 폰트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombies Rule the World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이어 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작화면 UI 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 1.2 인게임화면으로 넘어감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +435,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -300,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -393,6 +556,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -402,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,12 +648,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,6 +699,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5029451</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>207646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330153EE-C0C9-56C8-09BD-81B65C55CB58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1581151"/>
+          <a:ext cx="4962776" cy="2796540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -789,11 +1061,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -847,15 +1119,26 @@
       <c r="B7" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
+        <v>221112</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1039,21 +1322,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.69921875" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1061,12 +1354,273 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D10:D12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{7C384CFC-C7AC-4EDB-8470-0C4C5F05EB80}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{0A9D12D0-77E0-4FE5-82B2-6CF732D3D0F3}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{01DC72D4-2FF5-47C5-8FDD-2B4DD110214A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0942427-13D3-4FB2-92CC-0328DFAEEAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9AFB2B-656A-4F6A-B50E-A9BE1850FF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6915" yWindow="-18405" windowWidth="17250" windowHeight="8865" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,14 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요소들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에셋 링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>효과 없음, 천천히 돌아가는 모션효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.2 인게임 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">int </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,11 +371,401 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시작화면 UI 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누르면 1.2 인게임화면으로 넘어감</t>
+    <t>시작화면 에셋 링크 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작화면 UI 테이블 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마 프레임 크기 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소 번호는 피그마에 comment로 남겨둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세계 감염률 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 그래프 퍼센트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세계 감염률 그래프 퍼센트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 아이콘 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 아이콘 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유전자 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유전자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정(찾는 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search results for Zombie - Flaticon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search results for Cure - Flaticon</t>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search results for Gene - Flaticon</t>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 2.1 인게임화면으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 인게임 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 3.1 설정 화면으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 개발 현황을 보여줌, 파란색 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세계 감염률 현황을 보여줌, 빨간색 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 그래프의 퍼센테이지 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세계 감염률 그래프의 퍼센테이지 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 누른 나라의 Selected Country 프레임으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 2.2 바이러스 화면으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 2.3 치료제 화면으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 Gene 프레임으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 부터 시작해 X분 당 +1이 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worldmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure_Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure_Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_Graph_World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure_Percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_Percentage_World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure_Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene_Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene_Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days_Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{00}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 시작화면 배경 지구 사진으로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 Default 프레임 UI 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감염자 비율 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존자 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존자 비율 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 국가 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자가격리 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공항 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항구 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple Button Set 02 | 2D Icons | Unity Asset Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가정보 버튼(+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search results for Alive - Flaticon</t>
+  </si>
+  <si>
+    <t>Search results for Quarantine - Flaticon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search results for Airport - Flaticon</t>
+  </si>
+  <si>
+    <t>Anchor Icons &amp; Symbols (flaticon.com)</t>
+  </si>
+  <si>
+    <t>배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search results for X - Flaticon</t>
+  </si>
+  <si>
+    <t>하단바 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 국가 이름 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 Country info 프레임으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 국가의 감염자 비율을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 국가의 생존자 비율을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평시/국가재난/무정부상태 등 국가의 상태 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 12번의 X표시가 있다가 자가격리 제도가 실시되면 X표시가 없어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공항 폐쇄시 X표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항구 폐쇄시 X표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9, 10, 11번과 함께 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country_Bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country_infoButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_Graph_Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survivor_Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survivor_Graph_Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country_State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quarantine_Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airport_Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harbor_Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 Country Selected 프레임 UI 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마 Ingame 페이지의 Default, Country Selected, News Pop-up 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +820,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -463,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -589,6 +976,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -598,7 +996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,36 +1049,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,15 +1131,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5029451</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>207646</xdr:rowOff>
+      <xdr:colOff>5018021</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -737,8 +1162,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1590675" y="1581151"/>
-          <a:ext cx="4962776" cy="2796540"/>
+          <a:off x="1579245" y="1573531"/>
+          <a:ext cx="4964681" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5067301</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913D4603-A49D-8DBD-993F-B20F742CF040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546861" y="5105400"/>
+          <a:ext cx="5044440" cy="2829454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2467791</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2645BCE3-958A-9251-FA60-0716B97BBDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296401" y="1988820"/>
+          <a:ext cx="2476499" cy="1373683"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21774</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5061857</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>26535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0880E0-85E9-5470-DDF9-D2DE7289DF6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1545774" y="9448802"/>
+          <a:ext cx="5040083" cy="2835047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1047,25 +1604,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.8984375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="16"/>
+    <col min="2" max="2" width="8.796875" style="27"/>
     <col min="3" max="3" width="76.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -1091,7 +1648,7 @@
       <c r="A4" s="15">
         <v>221108</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1100,14 +1657,14 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1673,7 @@
       <c r="A7" s="15">
         <v>221108</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="26">
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -1125,7 +1682,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="17" t="s">
         <v>43</v>
       </c>
@@ -1134,11 +1691,57 @@
       <c r="A9" s="15">
         <v>221112</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="26">
         <v>1.2</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
+        <v>221114</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="17" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1264,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791336A-D98C-4D41-919D-44FAB4E982D2}">
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1322,305 +1925,1056 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.69921875" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.5" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" customWidth="1"/>
+    <col min="7" max="7" width="58.69921875" customWidth="1"/>
+    <col min="10" max="10" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="5" t="s">
+      <c r="G11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="K11" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="K12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="5">
-        <v>3</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="5">
-        <v>4</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="7" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="G25" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="25">
+        <v>6</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="C26" s="25">
+        <v>2</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="25">
+        <v>7</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="C27" s="25">
+        <v>3</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="25">
+        <v>8</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="C28" s="25">
+        <v>4</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="25">
+        <v>9</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="C29" s="25">
+        <v>5</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="25">
+        <v>10</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="18"/>
+      <c r="C30" s="25">
+        <v>6</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="25">
+        <v>11</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="C31" s="25">
+        <v>7</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="25">
+        <v>12</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="18"/>
+      <c r="C32" s="25">
+        <v>8</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="25">
+        <v>13</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
+      <c r="C33" s="25">
+        <v>9</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="25">
+        <v>14</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="C34" s="25">
+        <v>10</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="25">
+        <v>15</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="18"/>
+      <c r="C35" s="25">
+        <v>11</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="25">
+        <v>16</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="18"/>
+      <c r="C36" s="25">
+        <v>12</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="25">
+        <v>17</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="18"/>
+      <c r="C37" s="25">
+        <v>13</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="25">
+        <v>18</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="25">
+        <v>14</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="25">
+        <v>19</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="25">
+        <v>20</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="17">
+        <v>2</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="25">
+        <v>21</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="17">
+        <v>3</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" s="25">
+        <v>22</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="17">
+        <v>4</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="25">
+        <v>9</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="17">
+        <v>5</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="17">
+        <v>23</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="17">
+        <v>6</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="25">
+        <v>24</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="17">
+        <v>7</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" s="25">
+        <v>25</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="17">
+        <v>8</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I46" s="25">
+        <v>26</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="17">
+        <v>9</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I47" s="25">
+        <v>27</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K47" s="25"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="17">
+        <v>10</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" s="25">
+        <v>28</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="17">
+        <v>11</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I49" s="25">
+        <v>29</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="17">
+        <v>12</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" s="25">
+        <v>30</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D10:D12"/>
+  <mergeCells count="2">
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{7C384CFC-C7AC-4EDB-8470-0C4C5F05EB80}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{0A9D12D0-77E0-4FE5-82B2-6CF732D3D0F3}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{01DC72D4-2FF5-47C5-8FDD-2B4DD110214A}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{0A9D12D0-77E0-4FE5-82B2-6CF732D3D0F3}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{01DC72D4-2FF5-47C5-8FDD-2B4DD110214A}"/>
+    <hyperlink ref="E25" r:id="rId4" display="https://assetstore.unity.com/packages/2d/gui/icons/simple-button-set-02-184903" xr:uid="{4937E95A-A7D8-4A9E-BEC0-43B84B4E931E}"/>
+    <hyperlink ref="E28" r:id="rId5" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{508BED06-8CC4-4CFB-82B5-41294DF53852}"/>
+    <hyperlink ref="E27" r:id="rId6" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{339BAA03-FDD1-4C69-A3C4-A1EE2E23EAD7}"/>
+    <hyperlink ref="E29" r:id="rId7" xr:uid="{5CB6891C-0037-4D8C-A9FB-91674DC7C3E1}"/>
+    <hyperlink ref="E33" r:id="rId8" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{1AB1FE39-2124-4AA9-A3AD-C1A873988D11}"/>
+    <hyperlink ref="E34" r:id="rId9" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{53E9D1DE-3D6F-40D6-98C4-EF74613F5C7D}"/>
+    <hyperlink ref="E35" r:id="rId10" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CE3152C4-A4DF-4962-B92D-1A8473206586}"/>
+    <hyperlink ref="E39" r:id="rId11" xr:uid="{1D947AC2-3B5B-4175-BC31-F2EE7AC75A9E}"/>
+    <hyperlink ref="E41" r:id="rId12" xr:uid="{13E32B7A-5D28-4BFF-8D76-085D66C1CE4A}"/>
+    <hyperlink ref="E42" r:id="rId13" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{EA9D244A-0B95-45DF-BE1B-201135F96F6A}"/>
+    <hyperlink ref="E43" r:id="rId14" xr:uid="{E139278C-A8E0-4967-BA8D-FC647AA69112}"/>
+    <hyperlink ref="E45" r:id="rId15" xr:uid="{EDB16083-B881-45D7-83EE-C0085B0E0428}"/>
+    <hyperlink ref="E44" r:id="rId16" display="https://www.flaticon.com/free-icon/cardiology_1863303?term=alive&amp;page=1&amp;position=14&amp;page=1&amp;position=14&amp;related_id=1863303&amp;origin=search" xr:uid="{43FA66B1-405D-455F-B5C8-E786B40A78AA}"/>
+    <hyperlink ref="E47" r:id="rId17" display="https://www.flaticon.com/free-icon/stay-at-home_3096566?term=quarantine&amp;page=1&amp;position=64&amp;page=1&amp;position=64&amp;related_id=3096566&amp;origin=search" xr:uid="{2993A694-58DD-4815-8C4E-B4F395FF4B12}"/>
+    <hyperlink ref="E48" r:id="rId18" display="https://www.flaticon.com/free-icon/plane_8238469?term=airport&amp;page=1&amp;position=58&amp;page=1&amp;position=58&amp;related_id=8238469&amp;origin=search" xr:uid="{4A48EF3E-3034-40E6-BDD5-4475619FE5E7}"/>
+    <hyperlink ref="E49" r:id="rId19" display="https://www.flaticon.com/free-icon/anchor_3001032?related_id=3001032&amp;origin=tag" xr:uid="{EFE78EC9-903A-4171-B530-9CD42E737618}"/>
+    <hyperlink ref="E50" r:id="rId20" display="https://www.flaticon.com/free-icon/close_2997911?term=x&amp;page=1&amp;position=6&amp;page=1&amp;position=6&amp;related_id=2997911&amp;origin=search" xr:uid="{03778FEC-295D-4F80-9F55-85F776B020FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9AFB2B-656A-4F6A-B50E-A9BE1850FF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63030171-65A0-4272-8EA4-BD8E99E681E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-6915" yWindow="-18405" windowWidth="17250" windowHeight="8865" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="208">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,106 @@
   </si>
   <si>
     <t>피그마 Ingame 페이지의 Default, Country Selected, News Pop-up 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News Pop-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 팝업 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스의 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 상세 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News_Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가정보 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋에서 +표시 45도로 기울여서 쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 국가정보 닫음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가정보 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country_info_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close_Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 News Pop-Up 프레임 UI 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마 Ingame 페이지의 Country info 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 Country info 프레임 UI 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +1096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,6 +1191,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1105,7 +1211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,9 +1243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5018021</xdr:colOff>
+      <xdr:colOff>5008496</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>160021</xdr:rowOff>
+      <xdr:rowOff>167641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1176,14 +1282,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22861</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5067301</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>200554</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>210079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1225,7 +1331,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2467791</xdr:colOff>
+      <xdr:colOff>2460171</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2083</xdr:rowOff>
     </xdr:to>
@@ -1264,14 +1370,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>21774</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>21773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5061857</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>26535</xdr:rowOff>
+      <xdr:colOff>5050427</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>22725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1296,6 +1402,99 @@
         <a:xfrm>
           <a:off x="1545774" y="9448802"/>
           <a:ext cx="5040083" cy="2835047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>39423</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5044440</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>210588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75210B0B-12DC-E9D0-3791-1F0692CD3AFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1563423" y="12584430"/>
+          <a:ext cx="5008827" cy="2803293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47046</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5050151</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>208683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6491A8E-09D2-01C1-FCCA-1E3C83BE95D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571046" y="14116050"/>
+          <a:ext cx="4993580" cy="2803293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1604,25 +1803,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" style="16" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="27"/>
     <col min="3" max="3" width="76.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -1719,7 +1918,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="33" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1742,6 +1941,31 @@
       <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="15">
+        <v>221119</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="17" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1751,7 +1975,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B4" numberStoredAsText="1"/>
+    <ignoredError sqref="B4 B16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1925,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1939,7 +2163,7 @@
     <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.5" customWidth="1"/>
     <col min="6" max="6" width="7.09765625" customWidth="1"/>
-    <col min="7" max="7" width="58.69921875" customWidth="1"/>
+    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2073,7 +2297,7 @@
       <c r="D11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="35" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="21" t="s">
@@ -2099,7 +2323,7 @@
       <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="22" t="s">
         <v>64</v>
       </c>
@@ -2123,7 +2347,7 @@
       <c r="D13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="22" t="s">
         <v>64</v>
       </c>
@@ -2150,260 +2374,362 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
+      <c r="A18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
+      <c r="A19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="25">
+        <v>6</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="C20" s="25">
+        <v>2</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="25">
+        <v>7</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="18"/>
+      <c r="C21" s="25">
+        <v>3</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="25">
+        <v>8</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="C22" s="25">
+        <v>4</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="25">
+        <v>9</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>110</v>
-      </c>
+      <c r="A23" s="18"/>
+      <c r="C23" s="25">
+        <v>5</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="25">
+        <v>10</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>66</v>
+      <c r="A24" s="18"/>
+      <c r="C24" s="25">
+        <v>6</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="25">
+        <v>11</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>68</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="A25" s="18"/>
       <c r="C25" s="25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>149</v>
+        <v>94</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I25" s="25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="C26" s="25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="25">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" s="25"/>
+        <v>128</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="18"/>
       <c r="C27" s="25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I27" s="25">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="C28" s="25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="I28" s="25">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="C29" s="25">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>54</v>
+        <v>98</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I29" s="25">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="C30" s="25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="35"/>
+        <v>99</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F30" s="25" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I30" s="25">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="K30" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="C31" s="25">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>105</v>
@@ -2412,25 +2738,26 @@
         <v>71</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="I31" s="25">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="25">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>105</v>
@@ -2439,200 +2766,201 @@
         <v>71</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I32" s="25">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
-      <c r="C33" s="25">
-        <v>9</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>117</v>
+      <c r="A33" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="I33" s="25">
-        <v>14</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>129</v>
+        <v>20</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="18"/>
-      <c r="C34" s="25">
-        <v>10</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>118</v>
+      <c r="B34" s="18"/>
+      <c r="C34" s="17">
+        <v>2</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="I34" s="25">
-        <v>15</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="K34" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="18"/>
-      <c r="C35" s="25">
-        <v>11</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="25" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="25" t="s">
-        <v>119</v>
+      <c r="G35" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="I35" s="25">
-        <v>16</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
-      <c r="C36" s="25">
-        <v>12</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>119</v>
+      <c r="B36" s="18"/>
+      <c r="C36" s="17">
+        <v>4</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="I36" s="25">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K36" s="25"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
-      <c r="C37" s="25">
-        <v>13</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="25" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="17">
+        <v>5</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="17">
+        <v>23</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="25"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="17">
+        <v>6</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="25">
-        <v>18</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="25">
-        <v>14</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>120</v>
-      </c>
       <c r="I38" s="25">
-        <v>19</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="K38" s="25" t="s">
-        <v>134</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" s="25"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="30"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I39" s="25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K39" s="25"/>
     </row>
@@ -2640,53 +2968,53 @@
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>71</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I40" s="25">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>146</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I41" s="25">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K41" s="25"/>
     </row>
@@ -2694,25 +3022,25 @@
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>107</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="I42" s="25">
-        <v>9</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>124</v>
+        <v>28</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="K42" s="25"/>
     </row>
@@ -2720,25 +3048,25 @@
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="17">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>54</v>
+        <v>148</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="I43" s="17">
-        <v>23</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="I43" s="25">
+        <v>29</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="K43" s="25"/>
     </row>
@@ -2746,235 +3074,447 @@
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>107</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="I44" s="25">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K44" s="25"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
-      <c r="C45" s="17">
-        <v>7</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="29" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="17">
+        <v>1</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="I45" s="25">
-        <v>25</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="K45" s="25"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="17">
-        <v>8</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I46" s="25">
-        <v>26</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="K46" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="17">
-        <v>9</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>152</v>
-      </c>
       <c r="F47" s="17" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="I47" s="25">
-        <v>27</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="K47" s="25"/>
+        <v>188</v>
+      </c>
+      <c r="I47" s="38">
+        <v>31</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>153</v>
+        <v>186</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="I48" s="25">
-        <v>28</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K48" s="25"/>
+        <v>72</v>
+      </c>
+      <c r="I48" s="38">
+        <v>32</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>154</v>
+        <v>187</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I49" s="25">
-        <v>29</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="K49" s="25"/>
+        <v>189</v>
+      </c>
+      <c r="I49" s="38">
+        <v>33</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>157</v>
+        <v>185</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="I50" s="25">
-        <v>30</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K50" s="25"/>
+        <v>190</v>
+      </c>
+      <c r="I50" s="38">
+        <v>34</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="I51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="32">
+        <v>1</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I60" s="32">
+        <v>35</v>
+      </c>
+      <c r="J60" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="K60" s="32"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="32">
+        <v>2</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="I61" s="32">
+        <v>36</v>
+      </c>
+      <c r="J61" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K61" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="32">
+        <v>3</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="I62" s="32">
+        <v>37</v>
+      </c>
+      <c r="J62" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="K62" s="32"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{7C384CFC-C7AC-4EDB-8470-0C4C5F05EB80}"/>
     <hyperlink ref="E9" r:id="rId2" xr:uid="{0A9D12D0-77E0-4FE5-82B2-6CF732D3D0F3}"/>
     <hyperlink ref="E11" r:id="rId3" xr:uid="{01DC72D4-2FF5-47C5-8FDD-2B4DD110214A}"/>
-    <hyperlink ref="E25" r:id="rId4" display="https://assetstore.unity.com/packages/2d/gui/icons/simple-button-set-02-184903" xr:uid="{4937E95A-A7D8-4A9E-BEC0-43B84B4E931E}"/>
-    <hyperlink ref="E28" r:id="rId5" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{508BED06-8CC4-4CFB-82B5-41294DF53852}"/>
-    <hyperlink ref="E27" r:id="rId6" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{339BAA03-FDD1-4C69-A3C4-A1EE2E23EAD7}"/>
-    <hyperlink ref="E29" r:id="rId7" xr:uid="{5CB6891C-0037-4D8C-A9FB-91674DC7C3E1}"/>
-    <hyperlink ref="E33" r:id="rId8" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{1AB1FE39-2124-4AA9-A3AD-C1A873988D11}"/>
-    <hyperlink ref="E34" r:id="rId9" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{53E9D1DE-3D6F-40D6-98C4-EF74613F5C7D}"/>
-    <hyperlink ref="E35" r:id="rId10" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CE3152C4-A4DF-4962-B92D-1A8473206586}"/>
-    <hyperlink ref="E39" r:id="rId11" xr:uid="{1D947AC2-3B5B-4175-BC31-F2EE7AC75A9E}"/>
-    <hyperlink ref="E41" r:id="rId12" xr:uid="{13E32B7A-5D28-4BFF-8D76-085D66C1CE4A}"/>
-    <hyperlink ref="E42" r:id="rId13" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{EA9D244A-0B95-45DF-BE1B-201135F96F6A}"/>
-    <hyperlink ref="E43" r:id="rId14" xr:uid="{E139278C-A8E0-4967-BA8D-FC647AA69112}"/>
-    <hyperlink ref="E45" r:id="rId15" xr:uid="{EDB16083-B881-45D7-83EE-C0085B0E0428}"/>
-    <hyperlink ref="E44" r:id="rId16" display="https://www.flaticon.com/free-icon/cardiology_1863303?term=alive&amp;page=1&amp;position=14&amp;page=1&amp;position=14&amp;related_id=1863303&amp;origin=search" xr:uid="{43FA66B1-405D-455F-B5C8-E786B40A78AA}"/>
-    <hyperlink ref="E47" r:id="rId17" display="https://www.flaticon.com/free-icon/stay-at-home_3096566?term=quarantine&amp;page=1&amp;position=64&amp;page=1&amp;position=64&amp;related_id=3096566&amp;origin=search" xr:uid="{2993A694-58DD-4815-8C4E-B4F395FF4B12}"/>
-    <hyperlink ref="E48" r:id="rId18" display="https://www.flaticon.com/free-icon/plane_8238469?term=airport&amp;page=1&amp;position=58&amp;page=1&amp;position=58&amp;related_id=8238469&amp;origin=search" xr:uid="{4A48EF3E-3034-40E6-BDD5-4475619FE5E7}"/>
-    <hyperlink ref="E49" r:id="rId19" display="https://www.flaticon.com/free-icon/anchor_3001032?related_id=3001032&amp;origin=tag" xr:uid="{EFE78EC9-903A-4171-B530-9CD42E737618}"/>
-    <hyperlink ref="E50" r:id="rId20" display="https://www.flaticon.com/free-icon/close_2997911?term=x&amp;page=1&amp;position=6&amp;page=1&amp;position=6&amp;related_id=2997911&amp;origin=search" xr:uid="{03778FEC-295D-4F80-9F55-85F776B020FB}"/>
+    <hyperlink ref="E19" r:id="rId4" display="https://assetstore.unity.com/packages/2d/gui/icons/simple-button-set-02-184903" xr:uid="{4937E95A-A7D8-4A9E-BEC0-43B84B4E931E}"/>
+    <hyperlink ref="E22" r:id="rId5" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{508BED06-8CC4-4CFB-82B5-41294DF53852}"/>
+    <hyperlink ref="E21" r:id="rId6" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{339BAA03-FDD1-4C69-A3C4-A1EE2E23EAD7}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{5CB6891C-0037-4D8C-A9FB-91674DC7C3E1}"/>
+    <hyperlink ref="E27" r:id="rId8" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{1AB1FE39-2124-4AA9-A3AD-C1A873988D11}"/>
+    <hyperlink ref="E28" r:id="rId9" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{53E9D1DE-3D6F-40D6-98C4-EF74613F5C7D}"/>
+    <hyperlink ref="E29" r:id="rId10" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CE3152C4-A4DF-4962-B92D-1A8473206586}"/>
+    <hyperlink ref="E33" r:id="rId11" xr:uid="{1D947AC2-3B5B-4175-BC31-F2EE7AC75A9E}"/>
+    <hyperlink ref="E35" r:id="rId12" xr:uid="{13E32B7A-5D28-4BFF-8D76-085D66C1CE4A}"/>
+    <hyperlink ref="E36" r:id="rId13" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{EA9D244A-0B95-45DF-BE1B-201135F96F6A}"/>
+    <hyperlink ref="E37" r:id="rId14" xr:uid="{E139278C-A8E0-4967-BA8D-FC647AA69112}"/>
+    <hyperlink ref="E39" r:id="rId15" xr:uid="{EDB16083-B881-45D7-83EE-C0085B0E0428}"/>
+    <hyperlink ref="E38" r:id="rId16" display="https://www.flaticon.com/free-icon/cardiology_1863303?term=alive&amp;page=1&amp;position=14&amp;page=1&amp;position=14&amp;related_id=1863303&amp;origin=search" xr:uid="{43FA66B1-405D-455F-B5C8-E786B40A78AA}"/>
+    <hyperlink ref="E41" r:id="rId17" display="https://www.flaticon.com/free-icon/stay-at-home_3096566?term=quarantine&amp;page=1&amp;position=64&amp;page=1&amp;position=64&amp;related_id=3096566&amp;origin=search" xr:uid="{2993A694-58DD-4815-8C4E-B4F395FF4B12}"/>
+    <hyperlink ref="E42" r:id="rId18" display="https://www.flaticon.com/free-icon/plane_8238469?term=airport&amp;page=1&amp;position=58&amp;page=1&amp;position=58&amp;related_id=8238469&amp;origin=search" xr:uid="{4A48EF3E-3034-40E6-BDD5-4475619FE5E7}"/>
+    <hyperlink ref="E43" r:id="rId19" display="https://www.flaticon.com/free-icon/anchor_3001032?related_id=3001032&amp;origin=tag" xr:uid="{EFE78EC9-903A-4171-B530-9CD42E737618}"/>
+    <hyperlink ref="E44" r:id="rId20" display="https://www.flaticon.com/free-icon/close_2997911?term=x&amp;page=1&amp;position=6&amp;page=1&amp;position=6&amp;related_id=2997911&amp;origin=search" xr:uid="{03778FEC-295D-4F80-9F55-85F776B020FB}"/>
+    <hyperlink ref="E47" r:id="rId21" xr:uid="{D11AB1F0-9C43-4266-87A4-780C04576352}"/>
+    <hyperlink ref="E62" r:id="rId22" xr:uid="{7096442D-53A7-4A86-968B-10DD156BF3F2}"/>
+    <hyperlink ref="E60" r:id="rId23" xr:uid="{6E4A20A0-493C-4DB6-9FBB-03550309BABE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63030171-65A0-4272-8EA4-BD8E99E681E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B513E1E2-3E52-410C-95BE-4CEFBB10BA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6915" yWindow="-18405" windowWidth="17250" windowHeight="8865" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-11445" yWindow="-21720" windowWidth="51840" windowHeight="21840" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="279">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1 시작 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">int </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,18 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누르면 2.1 인게임화면으로 넘어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 인게임 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누르면 3.1 설정 화면으로 넘어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>치료제 개발 현황을 보여줌, 파란색 그래프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,18 +493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누르면 2.2 바이러스 화면으로 넘어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누르면 2.3 치료제 화면으로 넘어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누르면 Gene 프레임으로 넘어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01 부터 시작해 X분 당 +1이 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -866,6 +838,357 @@
   </si>
   <si>
     <t>인게임 Country info 프레임 UI 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 Gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 2.1 Start로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 3.1 Setting으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 2.2 Gen으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 2.3 Gen으로 넘어감</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>누르면 Gene 프레임으로 넘어감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 효과 없음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">누르면 Gene 프레임으로 넘어감 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>현재 축적한 유전자 수 표시</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 화면 이름 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Ingame Default프레임 10,11 설명 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 Ingame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유전자 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 스크롤 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염성 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염성 항목 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염성 항목 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체를 X라고 놓고 현재 갖고있는 유전자의 비율을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 갖고 있는 유전자의 수 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 없음 항목 스크롤할 때 항목 표시 범위임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상하로 스크롤 하여 항목 전체가 보일 수 있도록 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 Selected 프레임으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상 제목 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상 설명 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염성 항목 제목 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염성 항목 설명 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이 제목 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이 설명 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택창 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 항목의 제목 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 항목의 설명 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 아무 효과 없이 Default 화면으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 유전자 수+"유전자를 사용하여 위 항목을 구매하시겠습니까?" 텍스트 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 유전자 수가 소모되고 Default 화면에서 항목 배경이 더 진한 배경으로 바뀜, 더 이상 선택 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene_Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gen_Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symptom_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symptom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Scroll_Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Scrollbar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symptom_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contagious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contagious_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contagious_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transition_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transition_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected_Item_Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel_Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase_Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{00}+유전자를 사용하여 위 항목을 구매하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마 Gen 페이지의 Default, Selected 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gen Default, Selected 프레임 UI 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +1196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +1249,14 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1096,7 +1427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,6 +1530,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,7 +1551,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5008496</xdr:colOff>
+      <xdr:colOff>5012306</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>167641</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1289,7 +1629,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>5067301</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>210079</xdr:rowOff>
+      <xdr:rowOff>206269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1330,8 +1670,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2460171</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2456360</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2083</xdr:rowOff>
     </xdr:to>
@@ -1375,9 +1715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5050427</xdr:colOff>
+      <xdr:colOff>5046617</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>22725</xdr:rowOff>
+      <xdr:rowOff>18915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1419,9 +1759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5044440</xdr:colOff>
+      <xdr:colOff>5048250</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>210588</xdr:rowOff>
+      <xdr:rowOff>206778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1463,9 +1803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5050151</xdr:colOff>
+      <xdr:colOff>5046341</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>208683</xdr:rowOff>
+      <xdr:rowOff>212493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1495,6 +1835,99 @@
         <a:xfrm>
           <a:off x="1571046" y="14116050"/>
           <a:ext cx="4993580" cy="2803293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>39141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5068429</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>41909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDDE91F-2296-AF0B-FF40-1C1391754FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1558290" y="17622291"/>
+          <a:ext cx="5034139" cy="2850743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35060</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>26324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5047907</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>206692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321AF6D7-53F9-C0B4-041A-76CBC1EFF64F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1559060" y="23157420"/>
+          <a:ext cx="5016657" cy="2821870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1803,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1817,11 +2250,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -1894,14 +2327,14 @@
         <v>1.2</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="26"/>
       <c r="C10" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -1912,35 +2345,35 @@
         <v>1.3</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="26"/>
       <c r="C14" s="17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -1948,24 +2381,56 @@
         <v>221119</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="26"/>
       <c r="C17" s="17" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="26"/>
       <c r="C18" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="15">
+        <v>221125</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="17" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2149,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2161,11 +2626,11 @@
     <col min="2" max="2" width="66.69921875" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.5" customWidth="1"/>
-    <col min="6" max="6" width="7.09765625" customWidth="1"/>
-    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="92.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -2188,12 +2653,12 @@
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -2204,13 +2669,13 @@
         <v>58</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>62</v>
@@ -2219,13 +2684,13 @@
         <v>56</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -2235,23 +2700,23 @@
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -2274,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -2297,23 +2762,23 @@
       <c r="D11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="38" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -2323,7 +2788,7 @@
       <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="22" t="s">
         <v>64</v>
       </c>
@@ -2334,10 +2799,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -2347,7 +2812,7 @@
       <c r="D13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="22" t="s">
         <v>64</v>
       </c>
@@ -2358,10 +2823,10 @@
         <v>5</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -2384,7 +2849,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -2396,10 +2861,10 @@
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>62</v>
@@ -2408,18 +2873,18 @@
         <v>56</v>
       </c>
       <c r="I18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="K18" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="25">
         <v>1</v>
@@ -2428,19 +2893,19 @@
         <v>52</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="I19" s="25">
         <v>6</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K19" s="25"/>
     </row>
@@ -2450,22 +2915,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I20" s="25">
         <v>7</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K20" s="25"/>
     </row>
@@ -2475,22 +2940,22 @@
         <v>3</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="25">
         <v>8</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K21" s="25"/>
     </row>
@@ -2500,22 +2965,22 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="25">
         <v>9</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K22" s="25"/>
     </row>
@@ -2525,22 +2990,22 @@
         <v>5</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="I23" s="25">
         <v>10</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K23" s="25"/>
     </row>
@@ -2550,20 +3015,20 @@
         <v>6</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="37"/>
+        <v>92</v>
+      </c>
+      <c r="E24" s="40"/>
       <c r="F24" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I24" s="25">
         <v>11</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K24" s="25"/>
     </row>
@@ -2573,25 +3038,25 @@
         <v>7</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I25" s="25">
         <v>12</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -2600,25 +3065,25 @@
         <v>8</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I26" s="25">
         <v>13</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -2627,22 +3092,22 @@
         <v>9</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="I27" s="25">
         <v>14</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K27" s="25"/>
     </row>
@@ -2652,22 +3117,22 @@
         <v>10</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>118</v>
+      <c r="G28" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="I28" s="25">
         <v>15</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K28" s="25"/>
     </row>
@@ -2677,22 +3142,22 @@
         <v>11</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>119</v>
+      <c r="G29" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="I29" s="25">
         <v>16</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K29" s="25"/>
     </row>
@@ -2702,25 +3167,25 @@
         <v>12</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>119</v>
+        <v>70</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="I30" s="25">
         <v>17</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -2729,25 +3194,25 @@
         <v>13</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="I31" s="25">
         <v>18</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -2757,52 +3222,52 @@
         <v>14</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I32" s="25">
         <v>19</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="17">
         <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I33" s="25">
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K33" s="25"/>
     </row>
@@ -2813,25 +3278,25 @@
         <v>2</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I34" s="25">
         <v>21</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -2841,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>54</v>
@@ -2850,13 +3315,13 @@
         <v>64</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I35" s="25">
         <v>22</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K35" s="25"/>
     </row>
@@ -2867,22 +3332,22 @@
         <v>4</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I36" s="25">
         <v>9</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K36" s="25"/>
     </row>
@@ -2893,22 +3358,22 @@
         <v>5</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I37" s="17">
         <v>23</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K37" s="25"/>
     </row>
@@ -2919,22 +3384,22 @@
         <v>6</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I38" s="25">
         <v>24</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K38" s="25"/>
     </row>
@@ -2945,22 +3410,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I39" s="25">
         <v>25</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K39" s="25"/>
     </row>
@@ -2971,25 +3436,25 @@
         <v>8</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I40" s="25">
         <v>26</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -2999,22 +3464,22 @@
         <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I41" s="25">
         <v>27</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K41" s="25"/>
     </row>
@@ -3025,22 +3490,22 @@
         <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I42" s="25">
         <v>28</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K42" s="25"/>
     </row>
@@ -3051,22 +3516,22 @@
         <v>11</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I43" s="25">
         <v>29</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K43" s="25"/>
     </row>
@@ -3077,22 +3542,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I44" s="25">
         <v>30</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K44" s="25"/>
     </row>
@@ -3117,31 +3582,31 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="17">
         <v>1</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="I47" s="38">
+        <v>181</v>
+      </c>
+      <c r="I47" s="34">
         <v>31</v>
       </c>
-      <c r="J47" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="K47" s="38"/>
+      <c r="J47" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="18"/>
@@ -3150,25 +3615,25 @@
         <v>2</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I48" s="38">
+      <c r="I48" s="34">
         <v>32</v>
       </c>
-      <c r="J48" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="K48" s="38" t="s">
-        <v>186</v>
+      <c r="J48" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="K48" s="34" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -3178,25 +3643,25 @@
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="I49" s="38">
+        <v>182</v>
+      </c>
+      <c r="I49" s="34">
         <v>33</v>
       </c>
-      <c r="J49" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="K49" s="38" t="s">
-        <v>187</v>
+      <c r="J49" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -3206,25 +3671,25 @@
         <v>4</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="I50" s="38">
+        <v>183</v>
+      </c>
+      <c r="I50" s="34">
         <v>34</v>
       </c>
-      <c r="J50" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>185</v>
+      <c r="J50" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -3310,29 +3775,29 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="30" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="32">
         <v>1</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I60" s="32">
         <v>35</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K60" s="32"/>
     </row>
@@ -3343,25 +3808,25 @@
         <v>2</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I61" s="32">
         <v>36</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -3371,7 +3836,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>54</v>
@@ -3380,13 +3845,13 @@
         <v>64</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I62" s="32">
         <v>37</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K62" s="32"/>
     </row>
@@ -3398,7 +3863,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -3410,7 +3875,7 @@
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="32"/>
@@ -3419,7 +3884,7 @@
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="32"/>
@@ -3428,7 +3893,7 @@
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="32"/>
@@ -3437,7 +3902,7 @@
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="32"/>
@@ -3446,7 +3911,7 @@
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="32"/>
@@ -3455,7 +3920,7 @@
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="32"/>
@@ -3464,7 +3929,7 @@
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="32"/>
@@ -3473,7 +3938,7 @@
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="32"/>
@@ -3481,6 +3946,937 @@
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J75" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K75" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="36">
+        <v>1</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76" s="36">
+        <v>38</v>
+      </c>
+      <c r="J76" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="K76" s="36"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="19"/>
+      <c r="C77" s="36">
+        <v>2</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77" s="36">
+        <v>16</v>
+      </c>
+      <c r="J77" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="K77" s="36"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="19"/>
+      <c r="C78" s="36">
+        <v>3</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="I78" s="36">
+        <v>39</v>
+      </c>
+      <c r="J78" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="K78" s="36"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" s="19"/>
+      <c r="C79" s="36">
+        <v>4</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I79" s="36">
+        <v>17</v>
+      </c>
+      <c r="J79" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="K79" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" s="19"/>
+      <c r="C80" s="36">
+        <v>5</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80" s="17">
+        <v>40</v>
+      </c>
+      <c r="J80" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="K80" s="36"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="19"/>
+      <c r="C81" s="36">
+        <v>6</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I81" s="17">
+        <v>41</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="K81" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="19"/>
+      <c r="C82" s="36">
+        <v>7</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I82" s="17">
+        <v>42</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K82" s="36"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="19"/>
+      <c r="C83" s="36">
+        <v>8</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I83" s="17">
+        <v>43</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="K83" s="36"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="19"/>
+      <c r="C84" s="36">
+        <v>9</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I84" s="17">
+        <v>44</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="K84" s="36"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="19"/>
+      <c r="C85" s="36">
+        <v>10</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="I85" s="17">
+        <v>45</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K85" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="19"/>
+      <c r="C86" s="36">
+        <v>11</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G86" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="I86" s="17">
+        <v>46</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="K86" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="19"/>
+      <c r="C87" s="36">
+        <v>12</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87" s="17">
+        <v>40</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="K87" s="36"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="19"/>
+      <c r="C88" s="36">
+        <v>13</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I88" s="17">
+        <v>47</v>
+      </c>
+      <c r="J88" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="K88" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="19"/>
+      <c r="C89" s="36">
+        <v>14</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I89" s="17">
+        <v>42</v>
+      </c>
+      <c r="J89" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K89" s="36"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="19"/>
+      <c r="C90" s="36">
+        <v>15</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I90" s="17">
+        <v>43</v>
+      </c>
+      <c r="J90" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="K90" s="36"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="19"/>
+      <c r="C91" s="36">
+        <v>16</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E91" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I91" s="17">
+        <v>44</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="K91" s="36"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="19"/>
+      <c r="C92" s="36">
+        <v>17</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G92" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="I92" s="17">
+        <v>48</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K92" s="36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="19"/>
+      <c r="C93" s="36">
+        <v>18</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="I93" s="17">
+        <v>49</v>
+      </c>
+      <c r="J93" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="K93" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="19"/>
+      <c r="C94" s="36">
+        <v>19</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G94" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94" s="17">
+        <v>40</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="K94" s="36"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="19"/>
+      <c r="C95" s="36">
+        <v>20</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95" s="17">
+        <v>50</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="K95" s="36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="19"/>
+      <c r="C96" s="36">
+        <v>21</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I96" s="17">
+        <v>42</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K96" s="36"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="19"/>
+      <c r="C97" s="36">
+        <v>22</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F97" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="G97" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I97" s="17">
+        <v>43</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="K97" s="36"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="19"/>
+      <c r="C98" s="36">
+        <v>23</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E98" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I98" s="17">
+        <v>44</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="K98" s="36"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="19"/>
+      <c r="C99" s="36">
+        <v>24</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G99" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I99" s="17">
+        <v>51</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="K99" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="4"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="36">
+        <v>25</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F100" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="I100" s="17">
+        <v>52</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="K100" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" s="30"/>
+      <c r="C101" s="17">
+        <v>1</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E101" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101" s="17">
+        <v>53</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="K101" s="36"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="19"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="17">
+        <v>2</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102" s="17">
+        <v>54</v>
+      </c>
+      <c r="J102" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="K102" s="36"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="19"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="17">
+        <v>3</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E103" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="I103" s="17">
+        <v>55</v>
+      </c>
+      <c r="J103" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="K103" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="19"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="17">
+        <v>4</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E104" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="I104" s="17">
+        <v>56</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="19"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="17">
+        <v>5</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="I105" s="17">
+        <v>57</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="K105" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="19"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="17">
+        <v>6</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I106" s="17">
+        <v>58</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="K106" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="19"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="17">
+        <v>7</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E107" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="I107" s="17">
+        <v>59</v>
+      </c>
+      <c r="J107" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="K107" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="19"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="36"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109" s="19"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="36"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" s="19"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="19"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="19"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A113" s="4"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3512,9 +4908,25 @@
     <hyperlink ref="E47" r:id="rId21" xr:uid="{D11AB1F0-9C43-4266-87A4-780C04576352}"/>
     <hyperlink ref="E62" r:id="rId22" xr:uid="{7096442D-53A7-4A86-968B-10DD156BF3F2}"/>
     <hyperlink ref="E60" r:id="rId23" xr:uid="{6E4A20A0-493C-4DB6-9FBB-03550309BABE}"/>
+    <hyperlink ref="E77" r:id="rId24" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
+    <hyperlink ref="E76" r:id="rId25" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{2A515017-976B-4F0C-B86D-DF191890E484}"/>
+    <hyperlink ref="E78" r:id="rId26" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{13636D9C-5391-4AAD-8163-0007F180053E}"/>
+    <hyperlink ref="E80" r:id="rId27" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{A1837C9A-E97B-42A3-8138-F448087E925D}"/>
+    <hyperlink ref="E83" r:id="rId28" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{04C7053B-C71F-42D9-A3FB-E90E1D07C3AA}"/>
+    <hyperlink ref="E84" r:id="rId29" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CFE80A8F-127E-43A4-94B6-81618A252493}"/>
+    <hyperlink ref="E87" r:id="rId30" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{2E18896B-7683-43E7-AF70-04B262EA028D}"/>
+    <hyperlink ref="E90" r:id="rId31" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{72A59F81-23E3-4127-8A48-E00226250685}"/>
+    <hyperlink ref="E91" r:id="rId32" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CFBBA13E-6DE7-4E0E-A53B-05395D98C21D}"/>
+    <hyperlink ref="E94" r:id="rId33" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{A6818C8A-D7C1-4E9F-9C75-041929FB91C6}"/>
+    <hyperlink ref="E97" r:id="rId34" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{36A0C9B4-1741-4EA9-B86F-4036A4EF2CC9}"/>
+    <hyperlink ref="E98" r:id="rId35" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CEEF8C83-A6DA-48D9-AE75-88829DA84BDB}"/>
+    <hyperlink ref="E101" r:id="rId36" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{86699C30-BDB3-4F87-ADC8-28B9522F608A}"/>
+    <hyperlink ref="E102" r:id="rId37" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{53D3C960-53B2-48DF-8551-C560342F6917}"/>
+    <hyperlink ref="E106" r:id="rId38" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{20E18D9F-1857-4151-9871-A52227DD012A}"/>
+    <hyperlink ref="E107" r:id="rId39" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{892E61D3-405E-4A80-ABCD-4AC917DCD3D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B513E1E2-3E52-410C-95BE-4CEFBB10BA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277568E8-273A-49B5-A5EF-9235453D211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11445" yWindow="-21720" windowWidth="51840" windowHeight="21840" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-6915" yWindow="-18405" windowWidth="17250" windowHeight="8865" activeTab="6" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="인게임 알고리즘" sheetId="6" r:id="rId4"/>
     <sheet name="UI" sheetId="5" r:id="rId5"/>
     <sheet name="바이러스 특성" sheetId="2" r:id="rId6"/>
+    <sheet name="환경 특성" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="341">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유전자 변형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그 국가에서 첫 감염자 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바이러스 특성이 적용된 상태에서 전염됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,10 +433,6 @@
   </si>
   <si>
     <t>일 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정(찾는 중)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1191,12 +1176,285 @@
     <t>Gen Default, Selected 프레임 UI 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>치료제 개발 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙별로 특징이 있음(문화, 기후 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙별 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북유럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남유럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오세아니아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남아메리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북아시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동남아시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남아시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙아시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서아시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙아프리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북아프리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남아프리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동유럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서유럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북아메리카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건조하고 사막이 많음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사바나 초원과 열대우림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막과 열대우림의 수렴지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한랭한 기온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고온건조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일년 내내 따듯함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연교차가 큼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜렷한 사계절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춥고 건조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덥고 습함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덥고 건조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사계절 내내 건조함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고온다습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춥고 습함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 대륙에서 첫 감염자 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘의 대륙별 특징 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Free Blank World Map in SVG - Resources | Simplemaps.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인 필요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계지도 에셋 찾음&lt;-개발 측 확인 필요함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 특성 탭 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마약이 청소년들 사이에서 유행해 좀비 초기증상과 구분할 수 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부에서는 자가격리를 권고했지만 돌아다니는 것은 개인의 자유임을 지지하는 운동이 전세계적으로 확산되고 있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈이 붉어지고 증상이 노출되기 쉽습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격성 증가1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격성 증가2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격성 증가3</t>
+  </si>
+  <si>
+    <t>일상생활에서 공격성을 내비칩니다 증상이 노출되기 쉽지 않습니다</t>
+  </si>
+  <si>
+    <t>일상생활이 불가능해집니다 증상이 노출되기 쉽습니다</t>
+  </si>
+  <si>
+    <t>굶주린 맹수와 같은 수준의 공격성을 갖게 됩니다 증상이 노출됩니다</t>
+  </si>
+  <si>
+    <t>속도 증가1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 증가2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 증가3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소보다 에너지가 넘치고 피곤함을 못느낍니다 증상이 노출되기 쉽지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능 저하1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능 저하2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부 반점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리 민감도 증가1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리 민감도 증가2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛 민감도 감소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛 민감도 감소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛 민감도 감소3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스  특성 러프안 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1255,6 +1513,31 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1427,7 +1710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,6 +1822,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,7 +1840,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,6 +1874,341 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26669</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AF3F87-BE1F-3A29-4EEE-BEDCF38B78CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15428594" y="1314450"/>
+          <a:ext cx="2935605" cy="3673484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>606046</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4734DB-E3F5-43DB-17A4-08AFDB4E3670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18392775" y="1285875"/>
+          <a:ext cx="2949196" cy="4397122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>129840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>131761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EB6009-4DB6-6318-C942-04574E381579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21402675" y="1314450"/>
+          <a:ext cx="3467400" cy="3650296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293658E0-B286-A609-794D-C229F599EC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25031700" y="1552575"/>
+          <a:ext cx="2838450" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA80B4A7-7624-C9EF-2A29-50F76A3411DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28148280" y="1546860"/>
+          <a:ext cx="2857500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B52C79B-2417-22A9-F554-E19EE0041767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="26555700" y="4143375"/>
+          <a:ext cx="2838450" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>55245</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -1583,9 +2216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5012306</xdr:colOff>
+      <xdr:colOff>5008496</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>167641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1629,7 +2262,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>5067301</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>206269</xdr:rowOff>
+      <xdr:rowOff>210079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1670,8 +2303,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2456360</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2460171</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2083</xdr:rowOff>
     </xdr:to>
@@ -1715,9 +2348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5046617</xdr:colOff>
+      <xdr:colOff>5050427</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>18915</xdr:rowOff>
+      <xdr:rowOff>22725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1759,9 +2392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5048250</xdr:colOff>
+      <xdr:colOff>5044440</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>206778</xdr:rowOff>
+      <xdr:rowOff>210588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1803,9 +2436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5046341</xdr:colOff>
+      <xdr:colOff>5050151</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>212493</xdr:rowOff>
+      <xdr:rowOff>208683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1896,9 +2529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5047907</xdr:colOff>
+      <xdr:colOff>5051717</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>206692</xdr:rowOff>
+      <xdr:rowOff>210502</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2236,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2250,11 +2883,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -2309,14 +2942,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="26"/>
       <c r="C8" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -2327,14 +2960,14 @@
         <v>1.2</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="26"/>
       <c r="C10" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -2345,35 +2978,35 @@
         <v>1.3</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="26"/>
       <c r="C14" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -2381,24 +3014,24 @@
         <v>221119</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="26"/>
       <c r="C17" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="26"/>
       <c r="C18" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -2406,31 +3039,63 @@
         <v>221125</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="26"/>
       <c r="C20" s="17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
       <c r="B21" s="26"/>
       <c r="C21" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="15">
+        <v>221126</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="15"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="17" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +3187,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2554,61 +3219,310 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791336A-D98C-4D41-919D-44FAB4E982D2}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="89.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="D8" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="D9" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="37">
+        <v>-3</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="37">
+        <v>3</v>
+      </c>
+      <c r="G10" s="37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="37">
+        <v>2</v>
+      </c>
+      <c r="G11" s="37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>47</v>
+      <c r="D12" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D13" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D14" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="37">
+        <v>1</v>
+      </c>
+      <c r="G14" s="37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D15" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="37">
+        <v>-2</v>
+      </c>
+      <c r="G15" s="37">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D16" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="37">
+        <v>3</v>
+      </c>
+      <c r="G16" s="37">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D17" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="37">
+        <v>1</v>
+      </c>
+      <c r="G17" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D18" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="37">
+        <v>3</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D19" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="37">
+        <v>2</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D20" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D21" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="37">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D22" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="37">
+        <v>2</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D23" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="37">
+        <v>3</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2616,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2626,8 +3540,8 @@
     <col min="2" max="2" width="66.69921875" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="73.5" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="92.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49" bestFit="1" customWidth="1"/>
@@ -2650,73 +3564,73 @@
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -2724,22 +3638,22 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -2760,25 +3674,25 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -2786,23 +3700,23 @@
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="39"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="41"/>
       <c r="F12" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I12" s="5">
         <v>4</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -2810,23 +3724,23 @@
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="E13" s="41"/>
       <c r="F13" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I13" s="5">
         <v>5</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -2849,63 +3763,63 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>65</v>
-      </c>
       <c r="J18" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" s="25">
         <v>1</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I19" s="25">
         <v>6</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K19" s="25"/>
     </row>
@@ -2915,22 +3829,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I20" s="25">
         <v>7</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K20" s="25"/>
     </row>
@@ -2940,22 +3854,22 @@
         <v>3</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I21" s="25">
         <v>8</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K21" s="25"/>
     </row>
@@ -2965,22 +3879,22 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>106</v>
-      </c>
       <c r="G22" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I22" s="25">
         <v>9</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K22" s="25"/>
     </row>
@@ -2990,22 +3904,22 @@
         <v>5</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>54</v>
+        <v>88</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I23" s="25">
         <v>10</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K23" s="25"/>
     </row>
@@ -3015,20 +3929,20 @@
         <v>6</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="E24" s="42"/>
       <c r="F24" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I24" s="25">
         <v>11</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K24" s="25"/>
     </row>
@@ -3038,25 +3952,25 @@
         <v>7</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I25" s="25">
         <v>12</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -3065,25 +3979,25 @@
         <v>8</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I26" s="25">
         <v>13</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -3092,22 +4006,22 @@
         <v>9</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I27" s="25">
         <v>14</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K27" s="25"/>
     </row>
@@ -3117,22 +4031,22 @@
         <v>10</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I28" s="25">
         <v>15</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K28" s="25"/>
     </row>
@@ -3142,22 +4056,22 @@
         <v>11</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I29" s="25">
         <v>16</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K29" s="25"/>
     </row>
@@ -3167,25 +4081,25 @@
         <v>12</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I30" s="25">
         <v>17</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -3194,25 +4108,25 @@
         <v>13</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I31" s="25">
         <v>18</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -3222,52 +4136,52 @@
         <v>14</v>
       </c>
       <c r="D32" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>104</v>
-      </c>
       <c r="F32" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I32" s="25">
         <v>19</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="17">
         <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I33" s="25">
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K33" s="25"/>
     </row>
@@ -3278,25 +4192,25 @@
         <v>2</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I34" s="25">
         <v>21</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -3306,22 +4220,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I35" s="25">
         <v>22</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K35" s="25"/>
     </row>
@@ -3332,22 +4246,22 @@
         <v>4</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="G36" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I36" s="25">
         <v>9</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K36" s="25"/>
     </row>
@@ -3358,22 +4272,22 @@
         <v>5</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I37" s="17">
         <v>23</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K37" s="25"/>
     </row>
@@ -3384,22 +4298,22 @@
         <v>6</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I38" s="25">
         <v>24</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K38" s="25"/>
     </row>
@@ -3410,22 +4324,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I39" s="25">
         <v>25</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K39" s="25"/>
     </row>
@@ -3436,25 +4350,25 @@
         <v>8</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I40" s="25">
         <v>26</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -3464,22 +4378,22 @@
         <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I41" s="25">
         <v>27</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K41" s="25"/>
     </row>
@@ -3490,22 +4404,22 @@
         <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I42" s="25">
         <v>28</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K42" s="25"/>
     </row>
@@ -3516,22 +4430,22 @@
         <v>11</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I43" s="25">
         <v>29</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K43" s="25"/>
     </row>
@@ -3542,22 +4456,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I44" s="25">
         <v>30</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K44" s="25"/>
     </row>
@@ -3582,29 +4496,29 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="17">
         <v>1</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="I47" s="34">
         <v>31</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K47" s="34"/>
     </row>
@@ -3615,25 +4529,25 @@
         <v>2</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I48" s="34">
         <v>32</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -3643,25 +4557,25 @@
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I49" s="34">
         <v>33</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -3671,25 +4585,25 @@
         <v>4</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I50" s="34">
         <v>34</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -3775,29 +4689,29 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="32">
         <v>1</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I60" s="32">
         <v>35</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K60" s="32"/>
     </row>
@@ -3808,25 +4722,25 @@
         <v>2</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I61" s="32">
         <v>36</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -3836,22 +4750,22 @@
         <v>3</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I62" s="32">
         <v>37</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K62" s="32"/>
     </row>
@@ -3863,7 +4777,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -3949,63 +4863,63 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I75" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G75" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>65</v>
-      </c>
       <c r="J75" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K75" s="36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C76" s="36">
         <v>1</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I76" s="36">
         <v>38</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K76" s="36"/>
     </row>
@@ -4015,22 +4929,22 @@
         <v>2</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I77" s="36">
         <v>16</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K77" s="36"/>
     </row>
@@ -4040,22 +4954,22 @@
         <v>3</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I78" s="36">
         <v>39</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K78" s="36"/>
     </row>
@@ -4065,25 +4979,25 @@
         <v>4</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I79" s="36">
         <v>17</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -4092,22 +5006,22 @@
         <v>5</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I80" s="17">
         <v>40</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K80" s="36"/>
     </row>
@@ -4117,25 +5031,25 @@
         <v>6</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I81" s="17">
         <v>41</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K81" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
@@ -4144,22 +5058,22 @@
         <v>7</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I82" s="17">
         <v>42</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K82" s="36"/>
     </row>
@@ -4169,22 +5083,22 @@
         <v>8</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I83" s="17">
         <v>43</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K83" s="36"/>
     </row>
@@ -4194,22 +5108,22 @@
         <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F84" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I84" s="17">
         <v>44</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K84" s="36"/>
     </row>
@@ -4219,25 +5133,25 @@
         <v>10</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E85" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F85" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I85" s="17">
         <v>45</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -4246,25 +5160,25 @@
         <v>11</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E86" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I86" s="17">
         <v>46</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -4273,22 +5187,22 @@
         <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F87" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G87" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I87" s="17">
         <v>40</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K87" s="36"/>
     </row>
@@ -4298,25 +5212,25 @@
         <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F88" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I88" s="17">
         <v>47</v>
       </c>
-      <c r="J88" s="41" t="s">
-        <v>260</v>
+      <c r="J88" s="38" t="s">
+        <v>256</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
@@ -4325,22 +5239,22 @@
         <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G89" s="36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I89" s="17">
         <v>42</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K89" s="36"/>
     </row>
@@ -4350,22 +5264,22 @@
         <v>15</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I90" s="17">
         <v>43</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K90" s="36"/>
     </row>
@@ -4375,22 +5289,22 @@
         <v>16</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F91" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I91" s="17">
         <v>44</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K91" s="36"/>
     </row>
@@ -4400,25 +5314,25 @@
         <v>17</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E92" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I92" s="17">
         <v>48</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -4427,25 +5341,25 @@
         <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E93" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F93" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G93" s="36" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I93" s="17">
         <v>49</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K93" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -4454,22 +5368,22 @@
         <v>19</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I94" s="17">
         <v>40</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K94" s="36"/>
     </row>
@@ -4479,25 +5393,25 @@
         <v>20</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E95" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I95" s="17">
         <v>50</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K95" s="36" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
@@ -4506,22 +5420,22 @@
         <v>21</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E96" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I96" s="17">
         <v>42</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K96" s="36"/>
     </row>
@@ -4531,22 +5445,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I97" s="17">
         <v>43</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K97" s="36"/>
     </row>
@@ -4556,22 +5470,22 @@
         <v>23</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I98" s="17">
         <v>44</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K98" s="36"/>
     </row>
@@ -4581,25 +5495,25 @@
         <v>24</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I99" s="17">
         <v>51</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
@@ -4609,52 +5523,52 @@
         <v>25</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I100" s="17">
         <v>52</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B101" s="30"/>
       <c r="C101" s="17">
         <v>1</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I101" s="17">
         <v>53</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K101" s="36"/>
     </row>
@@ -4665,22 +5579,22 @@
         <v>2</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I102" s="17">
         <v>54</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K102" s="36"/>
     </row>
@@ -4691,25 +5605,25 @@
         <v>3</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I103" s="17">
         <v>55</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
@@ -4719,25 +5633,25 @@
         <v>4</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I104" s="17">
         <v>56</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
@@ -4747,25 +5661,25 @@
         <v>5</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E105" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I105" s="17">
         <v>57</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K105" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
@@ -4775,25 +5689,25 @@
         <v>6</v>
       </c>
       <c r="D106" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E106" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G106" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>248</v>
       </c>
       <c r="I106" s="17">
         <v>58</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
@@ -4803,25 +5717,25 @@
         <v>7</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I107" s="17">
         <v>59</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
@@ -4924,67 +5838,208 @@
     <hyperlink ref="E102" r:id="rId37" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{53D3C960-53B2-48DF-8551-C560342F6917}"/>
     <hyperlink ref="E106" r:id="rId38" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{20E18D9F-1857-4151-9871-A52227DD012A}"/>
     <hyperlink ref="E107" r:id="rId39" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{892E61D3-405E-4A80-ABCD-4AC917DCD3D4}"/>
+    <hyperlink ref="E20" r:id="rId40" display="https://simplemaps.com/resources/svg-world" xr:uid="{1A07D5E6-633E-459C-A7B9-666BE7933A80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId40"/>
+  <drawing r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681257C2-639B-4570-B3EC-51C6606193A1}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F3AECC-2F8D-42AD-B1A0-07064297A236}">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>317</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>36</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277568E8-273A-49B5-A5EF-9235453D211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39EB31D-6D39-4C79-99D7-EFFF901C9E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6915" yWindow="-18405" windowWidth="17250" windowHeight="8865" activeTab="6" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
     <sheet name="전체 컨셉 및 스토리" sheetId="3" r:id="rId2"/>
-    <sheet name="전체 알고리즘" sheetId="4" r:id="rId3"/>
-    <sheet name="인게임 알고리즘" sheetId="6" r:id="rId4"/>
-    <sheet name="UI" sheetId="5" r:id="rId5"/>
-    <sheet name="바이러스 특성" sheetId="2" r:id="rId6"/>
-    <sheet name="환경 특성" sheetId="7" r:id="rId7"/>
+    <sheet name="인게임 알고리즘" sheetId="6" r:id="rId3"/>
+    <sheet name="UI" sheetId="5" r:id="rId4"/>
+    <sheet name="바이러스 특성" sheetId="2" r:id="rId5"/>
+    <sheet name="환경 특성" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="356">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,18 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 진행 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 게임 시작/저장된 게임 불러오기 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +168,6 @@
   </si>
   <si>
     <t>증상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1447,6 +1430,82 @@
   </si>
   <si>
     <t>바이러스  특성 러프안 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 알고리즘 탭 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 default 값은 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙별로 감염자 수 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감염자 수가 0인 대륙은 감염자가 생기지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감염률=감염자 수/대륙인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감염자 수가 0인 대륙은 한 대륙의 감염률이 10%가 넘으면 10%의 확률로 첫 감염자가 생김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감염자 수가 0이 아닌 대륙은 전염성 값을 확률로 하여 1초에 한 번씩 계산해서 감염자가 늚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산하는 시간 편집 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률 계산 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감염률이 100%가 된 대륙은 더 이상 감염자가 생기지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 대륙의 감염률이 100%가 되거나 0%가 되면 게임 종료됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염성, 치료제 개발 확률 두 가지의 기준이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 감염률 수정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 개발은 감염률이 10% 이상이 되면 치료제 개발 확률로 치료제 개발률이 0%에서 시작됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초에 한 번씩 치료제 개발 확률로 치료제 개발률이 +1%가 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초에 한 번씩 치료제 개발률로 전염성이 -1%가 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1710,7 +1769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1828,6 +1887,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1843,13 +1914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1874,13 +1939,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>26669</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>172094</xdr:rowOff>
@@ -1933,13 +1998,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>606046</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>209932</xdr:rowOff>
@@ -1977,13 +2042,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>129840</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>131761</xdr:rowOff>
@@ -2021,13 +2086,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2082,13 +2147,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
@@ -2143,13 +2208,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -2869,10 +2934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C28" sqref="A27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2883,18 +2948,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="A1" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -2924,14 +2989,14 @@
       <c r="A5" s="15"/>
       <c r="B5" s="26"/>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="26"/>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -2942,14 +3007,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="26"/>
       <c r="C8" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -2960,14 +3025,14 @@
         <v>1.2</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="26"/>
       <c r="C10" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -2978,35 +3043,35 @@
         <v>1.3</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="26"/>
       <c r="C14" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -3014,24 +3079,24 @@
         <v>221119</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="26"/>
       <c r="C17" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="26"/>
       <c r="C18" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -3039,31 +3104,31 @@
         <v>221125</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="26"/>
       <c r="C20" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
       <c r="B21" s="26"/>
       <c r="C21" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -3071,31 +3136,49 @@
         <v>221126</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="B24" s="26"/>
       <c r="C24" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="26"/>
       <c r="C25" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="26"/>
       <c r="C26" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="15">
+        <v>221127</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>340</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="17" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3214,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -3183,340 +3266,375 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361D0E1C-38C8-4F39-9D1C-33911E27416C}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791336A-D98C-4D41-919D-44FAB4E982D2}">
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791336A-D98C-4D41-919D-44FAB4E982D2}">
-  <dimension ref="A2:G23"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="89.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="2"/>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>274</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="39"/>
       <c r="E7" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>285</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="39"/>
       <c r="E8" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="37">
-        <v>0</v>
+        <v>281</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>300</v>
       </c>
       <c r="G8" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="37" t="s">
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="E9" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G9" s="37">
+        <v>-3</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="E10" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="37">
+        <v>3</v>
+      </c>
+      <c r="H10" s="37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="E11" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" s="37">
+        <v>2</v>
+      </c>
+      <c r="H11" s="37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="E12" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E13" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="37">
-        <v>-3</v>
-      </c>
-      <c r="G9" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="37">
-        <v>3</v>
-      </c>
-      <c r="G10" s="37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" s="37">
-        <v>2</v>
-      </c>
-      <c r="G11" s="37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="F12" s="37">
-        <v>1</v>
-      </c>
-      <c r="G12" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D13" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0</v>
+      <c r="F13" s="37" t="s">
+        <v>303</v>
       </c>
       <c r="G13" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D14" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="F14" s="37">
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="37">
         <v>1</v>
       </c>
-      <c r="G14" s="37">
+      <c r="H14" s="37">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D15" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="F15" s="37">
-        <v>-2</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>293</v>
       </c>
       <c r="G15" s="37">
         <v>-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D16" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" s="37">
+      <c r="H15" s="37">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="37">
         <v>3</v>
       </c>
-      <c r="G16" s="37">
+      <c r="H16" s="37">
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D17" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="F17" s="37">
-        <v>1</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>297</v>
       </c>
       <c r="G17" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D18" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" s="37">
+      <c r="H17" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="37">
         <v>3</v>
       </c>
-      <c r="G18" s="37">
+      <c r="H18" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D19" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="37">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="37">
         <v>2</v>
       </c>
-      <c r="G19" s="37">
+      <c r="H19" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D20" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="37" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0</v>
+      </c>
+      <c r="H20" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="37">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G22" s="37">
+        <v>2</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="F20" s="37">
+      <c r="G23" s="37">
+        <v>3</v>
+      </c>
+      <c r="H23" s="37">
         <v>0</v>
       </c>
-      <c r="G20" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D21" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21" s="37">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D22" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="F22" s="37">
-        <v>2</v>
-      </c>
-      <c r="G22" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D23" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="F23" s="37">
-        <v>3</v>
-      </c>
-      <c r="G23" s="37">
-        <v>0</v>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3526,7 +3644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
   <dimension ref="A1:K113"/>
   <sheetViews>
@@ -3549,88 +3667,88 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="K7" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -3638,22 +3756,22 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>50</v>
-      </c>
       <c r="F9" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -3674,25 +3792,25 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -3700,23 +3818,23 @@
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="41"/>
+        <v>44</v>
+      </c>
+      <c r="E12" s="45"/>
       <c r="F12" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I12" s="5">
         <v>4</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -3724,23 +3842,23 @@
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="41"/>
+        <v>45</v>
+      </c>
+      <c r="E13" s="45"/>
       <c r="F13" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I13" s="5">
         <v>5</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -3763,63 +3881,63 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>63</v>
-      </c>
       <c r="K18" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19" s="25">
         <v>1</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I19" s="25">
         <v>6</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="25"/>
     </row>
@@ -3829,22 +3947,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I20" s="25">
         <v>7</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K20" s="25"/>
     </row>
@@ -3854,22 +3972,22 @@
         <v>3</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I21" s="25">
         <v>8</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K21" s="25"/>
     </row>
@@ -3879,22 +3997,22 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>102</v>
-      </c>
       <c r="G22" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I22" s="25">
         <v>9</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K22" s="25"/>
     </row>
@@ -3904,22 +4022,22 @@
         <v>5</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>51</v>
+        <v>84</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>47</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I23" s="25">
         <v>10</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K23" s="25"/>
     </row>
@@ -3929,20 +4047,20 @@
         <v>6</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="42"/>
+        <v>85</v>
+      </c>
+      <c r="E24" s="46"/>
       <c r="F24" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I24" s="25">
         <v>11</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K24" s="25"/>
     </row>
@@ -3952,25 +4070,25 @@
         <v>7</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I25" s="25">
         <v>12</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -3979,25 +4097,25 @@
         <v>8</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I26" s="25">
         <v>13</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -4006,22 +4124,22 @@
         <v>9</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I27" s="25">
         <v>14</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K27" s="25"/>
     </row>
@@ -4031,22 +4149,22 @@
         <v>10</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I28" s="25">
         <v>15</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K28" s="25"/>
     </row>
@@ -4056,22 +4174,22 @@
         <v>11</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I29" s="25">
         <v>16</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K29" s="25"/>
     </row>
@@ -4081,25 +4199,25 @@
         <v>12</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I30" s="25">
         <v>17</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -4108,25 +4226,25 @@
         <v>13</v>
       </c>
       <c r="D31" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>100</v>
-      </c>
       <c r="F31" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I31" s="25">
         <v>18</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -4136,52 +4254,52 @@
         <v>14</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I32" s="25">
         <v>19</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="17">
         <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I33" s="25">
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K33" s="25"/>
     </row>
@@ -4192,25 +4310,25 @@
         <v>2</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I34" s="25">
         <v>21</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -4220,22 +4338,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I35" s="25">
         <v>22</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K35" s="25"/>
     </row>
@@ -4246,22 +4364,22 @@
         <v>4</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>102</v>
-      </c>
       <c r="G36" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I36" s="25">
         <v>9</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K36" s="25"/>
     </row>
@@ -4272,22 +4390,22 @@
         <v>5</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I37" s="17">
         <v>23</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K37" s="25"/>
     </row>
@@ -4298,22 +4416,22 @@
         <v>6</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I38" s="25">
         <v>24</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K38" s="25"/>
     </row>
@@ -4324,22 +4442,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I39" s="25">
         <v>25</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K39" s="25"/>
     </row>
@@ -4350,25 +4468,25 @@
         <v>8</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I40" s="25">
         <v>26</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -4378,22 +4496,22 @@
         <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I41" s="25">
         <v>27</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K41" s="25"/>
     </row>
@@ -4404,22 +4522,22 @@
         <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I42" s="25">
         <v>28</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K42" s="25"/>
     </row>
@@ -4430,22 +4548,22 @@
         <v>11</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I43" s="25">
         <v>29</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K43" s="25"/>
     </row>
@@ -4456,22 +4574,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I44" s="25">
         <v>30</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K44" s="25"/>
     </row>
@@ -4496,29 +4614,29 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="17">
         <v>1</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="I47" s="34">
         <v>31</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K47" s="34"/>
     </row>
@@ -4529,25 +4647,25 @@
         <v>2</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I48" s="34">
         <v>32</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -4557,25 +4675,25 @@
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I49" s="34">
         <v>33</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -4585,25 +4703,25 @@
         <v>4</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I50" s="34">
         <v>34</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -4689,29 +4807,29 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="32">
         <v>1</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I60" s="32">
         <v>35</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K60" s="32"/>
     </row>
@@ -4722,25 +4840,25 @@
         <v>2</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I61" s="32">
         <v>36</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -4750,22 +4868,22 @@
         <v>3</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I62" s="32">
         <v>37</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K62" s="32"/>
     </row>
@@ -4777,7 +4895,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -4863,63 +4981,63 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J75" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="J75" s="36" t="s">
-        <v>63</v>
-      </c>
       <c r="K75" s="36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C76" s="36">
         <v>1</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I76" s="36">
         <v>38</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K76" s="36"/>
     </row>
@@ -4929,22 +5047,22 @@
         <v>2</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I77" s="36">
         <v>16</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K77" s="36"/>
     </row>
@@ -4954,22 +5072,22 @@
         <v>3</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I78" s="36">
         <v>39</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K78" s="36"/>
     </row>
@@ -4979,25 +5097,25 @@
         <v>4</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I79" s="36">
         <v>17</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -5006,22 +5124,22 @@
         <v>5</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I80" s="17">
         <v>40</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K80" s="36"/>
     </row>
@@ -5031,25 +5149,25 @@
         <v>6</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I81" s="17">
         <v>41</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K81" s="36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
@@ -5058,22 +5176,22 @@
         <v>7</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I82" s="17">
         <v>42</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K82" s="36"/>
     </row>
@@ -5083,22 +5201,22 @@
         <v>8</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I83" s="17">
         <v>43</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K83" s="36"/>
     </row>
@@ -5108,22 +5226,22 @@
         <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F84" s="36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I84" s="17">
         <v>44</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K84" s="36"/>
     </row>
@@ -5133,25 +5251,25 @@
         <v>10</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E85" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F85" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I85" s="17">
         <v>45</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -5160,25 +5278,25 @@
         <v>11</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E86" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I86" s="17">
         <v>46</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -5187,22 +5305,22 @@
         <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F87" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G87" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I87" s="17">
         <v>40</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K87" s="36"/>
     </row>
@@ -5212,25 +5330,25 @@
         <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F88" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I88" s="17">
         <v>47</v>
       </c>
       <c r="J88" s="38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
@@ -5239,22 +5357,22 @@
         <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G89" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I89" s="17">
         <v>42</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K89" s="36"/>
     </row>
@@ -5264,22 +5382,22 @@
         <v>15</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I90" s="17">
         <v>43</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K90" s="36"/>
     </row>
@@ -5289,22 +5407,22 @@
         <v>16</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F91" s="36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I91" s="17">
         <v>44</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K91" s="36"/>
     </row>
@@ -5314,25 +5432,25 @@
         <v>17</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E92" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I92" s="17">
         <v>48</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -5341,25 +5459,25 @@
         <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E93" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F93" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G93" s="36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I93" s="17">
         <v>49</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K93" s="36" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -5368,22 +5486,22 @@
         <v>19</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I94" s="17">
         <v>40</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K94" s="36"/>
     </row>
@@ -5393,25 +5511,25 @@
         <v>20</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E95" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I95" s="17">
         <v>50</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K95" s="36" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
@@ -5420,22 +5538,22 @@
         <v>21</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E96" s="36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I96" s="17">
         <v>42</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K96" s="36"/>
     </row>
@@ -5445,22 +5563,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I97" s="17">
         <v>43</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K97" s="36"/>
     </row>
@@ -5470,22 +5588,22 @@
         <v>23</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I98" s="17">
         <v>44</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K98" s="36"/>
     </row>
@@ -5495,25 +5613,25 @@
         <v>24</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I99" s="17">
         <v>51</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
@@ -5523,52 +5641,52 @@
         <v>25</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I100" s="17">
         <v>52</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="23" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B101" s="30"/>
       <c r="C101" s="17">
         <v>1</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I101" s="17">
         <v>53</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K101" s="36"/>
     </row>
@@ -5579,22 +5697,22 @@
         <v>2</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I102" s="17">
         <v>54</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K102" s="36"/>
     </row>
@@ -5605,25 +5723,25 @@
         <v>3</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I103" s="17">
         <v>55</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
@@ -5633,25 +5751,25 @@
         <v>4</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I104" s="17">
         <v>56</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
@@ -5661,25 +5779,25 @@
         <v>5</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E105" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I105" s="17">
         <v>57</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K105" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
@@ -5689,25 +5807,25 @@
         <v>6</v>
       </c>
       <c r="D106" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G106" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="I106" s="17">
         <v>58</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
@@ -5717,25 +5835,25 @@
         <v>7</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I107" s="17">
         <v>59</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
@@ -5845,7 +5963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681257C2-639B-4570-B3EC-51C6606193A1}">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -5865,135 +5983,135 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6006,11 +6124,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F3AECC-2F8D-42AD-B1A0-07064297A236}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
@@ -6019,23 +6137,23 @@
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39EB31D-6D39-4C79-99D7-EFFF901C9E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D616A83-4C20-4434-85B6-0EC42EACB4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-11445" yWindow="-21720" windowWidth="51840" windowHeight="21840" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="374">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,10 +424,6 @@
   </si>
   <si>
     <t>Search results for Cure - Flaticon</t>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Search results for Gene - Flaticon</t>
@@ -1341,10 +1337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>환경 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마약이 청소년들 사이에서 유행해 좀비 초기증상과 구분할 수 없습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1469,10 +1461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감염자 수가 0이 아닌 대륙은 전염성 값을 확률로 하여 1초에 한 번씩 계산해서 감염자가 늚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계산하는 시간 편집 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1497,15 +1485,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>치료제 개발은 감염률이 10% 이상이 되면 치료제 개발 확률로 치료제 개발률이 0%에서 시작됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1초에 한 번씩 치료제 개발 확률로 치료제 개발률이 +1%가 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2초에 한 번씩 치료제 개발률로 전염성이 -1%가 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙에서 최초 감염자가 생길 때까지 1초에 한 번씩 다시 계산함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감염자 수가 0이 아닌 대륙은 전염성 값을 확률로 하여 1초에 한 번씩 계산해서 감염자가 1씩 늚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산하는 시간, 감염자 늘어나는 수 편집 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세계 감염률=전세계 감염자수/전세계 인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제는 대륙별이 아니라 전 세계가 하나의 치료제개발률을 가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 개발은 전 세계 감염률이 10% 이상이 되면 대륙별 감염률이 최대인 대륙의 치료제 개발 수치를 적용한(10+-x) 치료제 개발 확률로 치료제 개발률이 0%에서 시작됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News 프레임에 들어갈 항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발현 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산돌구름 (sandollcloud.com) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03Bold</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산돌구름 (sandollcloud.com) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01Regular</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산돌구름 (sandollcloud.com) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02Medium</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산돌구름 (sandollcloud.com)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01Regular</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rubik Glitch - Google Fonts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dosis - Google Fonts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Medium 500</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dosis - Google Fonts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ExtraLight 200</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dosis - Google Fonts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regular 400</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 폰트 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경특성 편집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1769,7 +1924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1899,6 +2054,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1912,9 +2079,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2281,9 +2445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5008496</xdr:colOff>
+      <xdr:colOff>5012306</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>167641</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2319,9 +2483,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22861</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
@@ -2350,8 +2514,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1546861" y="5105400"/>
-          <a:ext cx="5044440" cy="2829454"/>
+          <a:off x="1543051" y="5125915"/>
+          <a:ext cx="5048250" cy="2824912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,7 +2533,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2460171</xdr:colOff>
+      <xdr:colOff>2456361</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2083</xdr:rowOff>
     </xdr:to>
@@ -2413,9 +2577,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5050427</xdr:colOff>
+      <xdr:colOff>5046617</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>22725</xdr:rowOff>
+      <xdr:rowOff>18915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2457,9 +2621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5044440</xdr:colOff>
+      <xdr:colOff>5048250</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>210588</xdr:rowOff>
+      <xdr:rowOff>206778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2501,9 +2665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5050151</xdr:colOff>
+      <xdr:colOff>5046341</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>208683</xdr:rowOff>
+      <xdr:rowOff>212493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2594,9 +2758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5051717</xdr:colOff>
+      <xdr:colOff>5047907</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>210502</xdr:rowOff>
+      <xdr:rowOff>206692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2934,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C28" sqref="A27:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C31" sqref="A31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2948,11 +3112,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -3050,28 +3214,28 @@
       <c r="A12" s="15"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="26"/>
       <c r="C14" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -3079,24 +3243,24 @@
         <v>221119</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="26"/>
       <c r="C17" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="26"/>
       <c r="C18" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -3104,31 +3268,31 @@
         <v>221125</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="26"/>
       <c r="C20" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
       <c r="B21" s="26"/>
       <c r="C21" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -3136,31 +3300,31 @@
         <v>221126</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="B24" s="26"/>
       <c r="C24" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="26"/>
       <c r="C25" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="26"/>
       <c r="C26" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -3168,17 +3332,42 @@
         <v>221127</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="15"/>
       <c r="B28" s="26"/>
       <c r="C28" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="15">
+        <v>221129</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="15"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="17" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3267,16 +3456,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791336A-D98C-4D41-919D-44FAB4E982D2}">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="158.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.09765625" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="40" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
@@ -3291,22 +3480,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="E6" s="42" t="s">
         <v>273</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>274</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3314,20 +3503,20 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7" s="39"/>
       <c r="E7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -3336,10 +3525,10 @@
       </c>
       <c r="B8" s="39"/>
       <c r="E8" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G8" s="37">
         <v>0</v>
@@ -3354,10 +3543,10 @@
       </c>
       <c r="B9" s="39"/>
       <c r="E9" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G9" s="37">
         <v>-3</v>
@@ -3372,10 +3561,10 @@
       </c>
       <c r="B10" s="39"/>
       <c r="E10" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G10" s="37">
         <v>3</v>
@@ -3390,10 +3579,10 @@
       </c>
       <c r="B11" s="39"/>
       <c r="E11" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G11" s="37">
         <v>2</v>
@@ -3408,10 +3597,10 @@
       </c>
       <c r="B12" s="39"/>
       <c r="E12" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G12" s="37">
         <v>1</v>
@@ -3422,10 +3611,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G13" s="37">
         <v>0</v>
@@ -3436,16 +3625,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G14" s="37">
         <v>1</v>
@@ -3455,14 +3644,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>351</v>
-      </c>
+      <c r="A15" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="45"/>
       <c r="E15" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G15" s="37">
         <v>-2</v>
@@ -3472,14 +3662,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>341</v>
-      </c>
+      <c r="A16" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="45"/>
       <c r="E16" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G16" s="37">
         <v>3</v>
@@ -3489,14 +3680,15 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>342</v>
-      </c>
+      <c r="A17" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="45"/>
       <c r="E17" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G17" s="37">
         <v>1</v>
@@ -3506,14 +3698,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="40" t="s">
-        <v>344</v>
-      </c>
+      <c r="A18" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="B18" s="45"/>
       <c r="E18" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G18" s="37">
         <v>3</v>
@@ -3523,14 +3716,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>343</v>
-      </c>
+      <c r="A19" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="45"/>
       <c r="E19" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G19" s="37">
         <v>2</v>
@@ -3540,17 +3734,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" t="s">
-        <v>348</v>
-      </c>
+      <c r="A20" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="45"/>
       <c r="E20" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G20" s="37">
         <v>0</v>
@@ -3560,17 +3752,17 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>346</v>
-      </c>
-      <c r="B21" t="s">
-        <v>347</v>
+      <c r="A21" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>345</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G21" s="37">
         <v>-1</v>
@@ -3580,14 +3772,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>349</v>
-      </c>
+      <c r="A22" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" s="45"/>
       <c r="E22" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G22" s="37">
         <v>2</v>
@@ -3597,14 +3790,17 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>350</v>
+      <c r="A23" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>354</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G23" s="37">
         <v>3</v>
@@ -3614,27 +3810,45 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>353</v>
-      </c>
-      <c r="B24" t="s">
-        <v>352</v>
-      </c>
+      <c r="A24" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>354</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="45" t="s">
         <v>347</v>
       </c>
+      <c r="B25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>355</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>347</v>
+      <c r="A26" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="45"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3648,8 +3862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E24"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3690,7 +3904,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -3734,7 +3948,9 @@
       <c r="D8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="9" t="s">
+        <v>368</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>63</v>
       </c>
@@ -3794,14 +4010,14 @@
       <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="48" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
@@ -3820,7 +4036,7 @@
       <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="22" t="s">
         <v>57</v>
       </c>
@@ -3844,7 +4060,7 @@
       <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="45"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="22" t="s">
         <v>57</v>
       </c>
@@ -3866,7 +4082,9 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="44" t="s">
+        <v>369</v>
+      </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
@@ -3881,7 +4099,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -3925,19 +4143,19 @@
         <v>45</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I19" s="25">
         <v>6</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K19" s="25"/>
     </row>
@@ -3950,19 +4168,19 @@
         <v>78</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" s="25">
         <v>7</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" s="25"/>
     </row>
@@ -3978,7 +4196,7 @@
         <v>95</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>64</v>
@@ -3987,7 +4205,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K21" s="25"/>
     </row>
@@ -4003,7 +4221,7 @@
         <v>94</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>64</v>
@@ -4012,7 +4230,7 @@
         <v>9</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K22" s="25"/>
     </row>
@@ -4024,20 +4242,20 @@
       <c r="D23" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="50" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>99</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>100</v>
       </c>
       <c r="I23" s="25">
         <v>10</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K23" s="25"/>
     </row>
@@ -4049,18 +4267,18 @@
       <c r="D24" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I24" s="25">
         <v>11</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K24" s="25"/>
     </row>
@@ -4072,23 +4290,23 @@
       <c r="D25" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>96</v>
+      <c r="E25" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I25" s="25">
         <v>12</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -4099,23 +4317,23 @@
       <c r="D26" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>96</v>
+      <c r="E26" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I26" s="25">
         <v>13</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -4133,13 +4351,13 @@
         <v>57</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I27" s="25">
         <v>14</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K27" s="25"/>
     </row>
@@ -4158,13 +4376,13 @@
         <v>57</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I28" s="25">
         <v>15</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28" s="25"/>
     </row>
@@ -4177,19 +4395,19 @@
         <v>90</v>
       </c>
       <c r="E29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="25" t="s">
-        <v>98</v>
-      </c>
       <c r="G29" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I29" s="25">
         <v>16</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K29" s="25"/>
     </row>
@@ -4201,23 +4419,23 @@
       <c r="D30" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>96</v>
+      <c r="E30" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I30" s="25">
         <v>17</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -4228,8 +4446,8 @@
       <c r="D31" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>96</v>
+      <c r="E31" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>63</v>
@@ -4256,50 +4474,50 @@
       <c r="D32" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>96</v>
+      <c r="E32" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I32" s="25">
         <v>19</v>
       </c>
       <c r="J32" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="17">
         <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I33" s="25">
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K33" s="25"/>
     </row>
@@ -4310,25 +4528,25 @@
         <v>2</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>96</v>
+        <v>125</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>364</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I34" s="25">
         <v>21</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -4338,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>47</v>
@@ -4347,13 +4565,13 @@
         <v>57</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I35" s="25">
         <v>22</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K35" s="25"/>
     </row>
@@ -4370,7 +4588,7 @@
         <v>94</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>64</v>
@@ -4379,7 +4597,7 @@
         <v>9</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K36" s="25"/>
     </row>
@@ -4390,22 +4608,22 @@
         <v>5</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I37" s="17">
         <v>23</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K37" s="25"/>
     </row>
@@ -4416,13 +4634,13 @@
         <v>6</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>64</v>
@@ -4431,7 +4649,7 @@
         <v>24</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K38" s="25"/>
     </row>
@@ -4442,22 +4660,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I39" s="25">
         <v>25</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K39" s="25"/>
     </row>
@@ -4468,25 +4686,25 @@
         <v>8</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>96</v>
+        <v>129</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I40" s="25">
         <v>26</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -4496,22 +4714,22 @@
         <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I41" s="25">
         <v>27</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K41" s="25"/>
     </row>
@@ -4522,22 +4740,22 @@
         <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I42" s="25">
         <v>28</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K42" s="25"/>
     </row>
@@ -4548,22 +4766,22 @@
         <v>11</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I43" s="25">
         <v>29</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K43" s="25"/>
     </row>
@@ -4574,22 +4792,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>142</v>
-      </c>
       <c r="F44" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I44" s="25">
         <v>30</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K44" s="25"/>
     </row>
@@ -4614,29 +4832,29 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="17">
         <v>1</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>47</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I47" s="34">
         <v>31</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K47" s="34"/>
     </row>
@@ -4647,10 +4865,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>96</v>
+        <v>170</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>63</v>
@@ -4662,10 +4880,10 @@
         <v>32</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -4675,25 +4893,25 @@
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>96</v>
+        <v>171</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>364</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I49" s="34">
         <v>33</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -4703,25 +4921,25 @@
         <v>4</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>96</v>
+        <v>169</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>366</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I50" s="34">
         <v>34</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -4807,29 +5025,29 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="32">
         <v>1</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>47</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I60" s="32">
         <v>35</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K60" s="32"/>
     </row>
@@ -4840,25 +5058,25 @@
         <v>2</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>96</v>
+        <v>180</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="F61" s="32" t="s">
         <v>63</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I61" s="32">
         <v>36</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -4868,7 +5086,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>47</v>
@@ -4877,13 +5095,13 @@
         <v>57</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I62" s="32">
         <v>37</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K62" s="32"/>
     </row>
@@ -4895,7 +5113,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -4981,7 +5199,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
@@ -5022,13 +5240,13 @@
         <v>1</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>97</v>
+        <v>139</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>64</v>
@@ -5037,7 +5255,7 @@
         <v>38</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K76" s="36"/>
     </row>
@@ -5050,10 +5268,10 @@
         <v>90</v>
       </c>
       <c r="E77" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" s="36" t="s">
         <v>97</v>
-      </c>
-      <c r="F77" s="36" t="s">
-        <v>98</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>64</v>
@@ -5062,7 +5280,7 @@
         <v>16</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K77" s="36"/>
     </row>
@@ -5072,22 +5290,22 @@
         <v>3</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>97</v>
+        <v>204</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I78" s="36">
         <v>39</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K78" s="36"/>
     </row>
@@ -5099,23 +5317,23 @@
       <c r="D79" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="36" t="s">
-        <v>96</v>
+      <c r="E79" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="F79" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I79" s="36">
         <v>17</v>
       </c>
       <c r="J79" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -5124,13 +5342,13 @@
         <v>5</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>97</v>
+        <v>205</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>64</v>
@@ -5139,7 +5357,7 @@
         <v>40</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K80" s="36"/>
     </row>
@@ -5149,10 +5367,10 @@
         <v>6</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E81" s="36" t="s">
-        <v>96</v>
+        <v>206</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>364</v>
       </c>
       <c r="F81" s="36" t="s">
         <v>63</v>
@@ -5164,7 +5382,7 @@
         <v>41</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K81" s="36" t="s">
         <v>31</v>
@@ -5176,22 +5394,22 @@
         <v>7</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E82" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G82" s="36" t="s">
         <v>221</v>
-      </c>
-      <c r="F82" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G82" s="36" t="s">
-        <v>222</v>
       </c>
       <c r="I82" s="17">
         <v>42</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K82" s="36"/>
     </row>
@@ -5201,22 +5419,22 @@
         <v>8</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>97</v>
+        <v>208</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I83" s="17">
         <v>43</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K83" s="36"/>
     </row>
@@ -5226,22 +5444,22 @@
         <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>97</v>
+        <v>207</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F84" s="36" t="s">
         <v>57</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I84" s="17">
         <v>44</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K84" s="36"/>
     </row>
@@ -5251,25 +5469,25 @@
         <v>10</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E85" s="36" t="s">
-        <v>96</v>
+        <v>210</v>
+      </c>
+      <c r="E85" s="44" t="s">
+        <v>366</v>
       </c>
       <c r="F85" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I85" s="17">
         <v>45</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -5278,25 +5496,25 @@
         <v>11</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E86" s="36" t="s">
-        <v>96</v>
+        <v>211</v>
+      </c>
+      <c r="E86" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="F86" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I86" s="17">
         <v>46</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -5305,13 +5523,13 @@
         <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>97</v>
+        <v>205</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F87" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G87" s="36" t="s">
         <v>64</v>
@@ -5320,7 +5538,7 @@
         <v>40</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K87" s="36"/>
     </row>
@@ -5330,10 +5548,10 @@
         <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E88" s="36" t="s">
-        <v>96</v>
+        <v>212</v>
+      </c>
+      <c r="E88" s="44" t="s">
+        <v>364</v>
       </c>
       <c r="F88" s="36" t="s">
         <v>63</v>
@@ -5345,7 +5563,7 @@
         <v>47</v>
       </c>
       <c r="J88" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K88" s="36" t="s">
         <v>30</v>
@@ -5357,22 +5575,22 @@
         <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E89" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" s="36" t="s">
         <v>221</v>
-      </c>
-      <c r="F89" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G89" s="36" t="s">
-        <v>222</v>
       </c>
       <c r="I89" s="17">
         <v>42</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K89" s="36"/>
     </row>
@@ -5382,22 +5600,22 @@
         <v>15</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E90" s="35" t="s">
-        <v>97</v>
+        <v>208</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I90" s="17">
         <v>43</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K90" s="36"/>
     </row>
@@ -5407,22 +5625,22 @@
         <v>16</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E91" s="35" t="s">
-        <v>97</v>
+        <v>207</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F91" s="36" t="s">
         <v>57</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I91" s="17">
         <v>44</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K91" s="36"/>
     </row>
@@ -5432,25 +5650,25 @@
         <v>17</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="36" t="s">
-        <v>96</v>
+        <v>213</v>
+      </c>
+      <c r="E92" s="44" t="s">
+        <v>366</v>
       </c>
       <c r="F92" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I92" s="17">
         <v>48</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -5459,25 +5677,25 @@
         <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E93" s="36" t="s">
-        <v>96</v>
+        <v>214</v>
+      </c>
+      <c r="E93" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="F93" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G93" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I93" s="17">
         <v>49</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K93" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -5486,13 +5704,13 @@
         <v>19</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E94" s="35" t="s">
-        <v>97</v>
+        <v>205</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G94" s="36" t="s">
         <v>64</v>
@@ -5501,7 +5719,7 @@
         <v>40</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K94" s="36"/>
     </row>
@@ -5511,10 +5729,10 @@
         <v>20</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E95" s="36" t="s">
-        <v>96</v>
+        <v>215</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>364</v>
       </c>
       <c r="F95" s="36" t="s">
         <v>63</v>
@@ -5526,10 +5744,10 @@
         <v>50</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K95" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
@@ -5538,22 +5756,22 @@
         <v>21</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E96" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" s="36" t="s">
         <v>221</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G96" s="36" t="s">
-        <v>222</v>
       </c>
       <c r="I96" s="17">
         <v>42</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K96" s="36"/>
     </row>
@@ -5563,22 +5781,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E97" s="35" t="s">
-        <v>97</v>
+        <v>208</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I97" s="17">
         <v>43</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K97" s="36"/>
     </row>
@@ -5588,22 +5806,22 @@
         <v>23</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E98" s="35" t="s">
-        <v>97</v>
+        <v>207</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F98" s="36" t="s">
         <v>57</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I98" s="17">
         <v>44</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K98" s="36"/>
     </row>
@@ -5613,25 +5831,25 @@
         <v>24</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E99" s="36" t="s">
-        <v>96</v>
+        <v>216</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>366</v>
       </c>
       <c r="F99" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I99" s="17">
         <v>51</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
@@ -5641,43 +5859,43 @@
         <v>25</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E100" s="36" t="s">
-        <v>96</v>
+        <v>217</v>
+      </c>
+      <c r="E100" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="F100" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I100" s="17">
         <v>52</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B101" s="30"/>
       <c r="C101" s="17">
         <v>1</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>97</v>
+        <v>231</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>64</v>
@@ -5686,7 +5904,7 @@
         <v>53</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K101" s="36"/>
     </row>
@@ -5697,13 +5915,13 @@
         <v>2</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>97</v>
+        <v>207</v>
+      </c>
+      <c r="E102" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>64</v>
@@ -5712,7 +5930,7 @@
         <v>54</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K102" s="36"/>
     </row>
@@ -5723,25 +5941,25 @@
         <v>3</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>96</v>
+        <v>232</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>366</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I103" s="17">
         <v>55</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
@@ -5751,25 +5969,25 @@
         <v>4</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" s="36" t="s">
-        <v>96</v>
+        <v>233</v>
+      </c>
+      <c r="E104" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I104" s="17">
         <v>56</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
@@ -5779,25 +5997,25 @@
         <v>5</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="E105" s="36" t="s">
-        <v>96</v>
+        <v>234</v>
+      </c>
+      <c r="E105" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="F105" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I105" s="17">
         <v>57</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K105" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
@@ -5807,25 +6025,25 @@
         <v>6</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>97</v>
+        <v>235</v>
+      </c>
+      <c r="E106" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>57</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I106" s="17">
         <v>58</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
@@ -5835,25 +6053,25 @@
         <v>7</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>97</v>
+        <v>236</v>
+      </c>
+      <c r="E107" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="F107" s="17" t="s">
         <v>57</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I107" s="17">
         <v>59</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
@@ -5861,7 +6079,7 @@
       <c r="B108" s="18"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
-      <c r="E108" s="35"/>
+      <c r="E108" s="36"/>
       <c r="F108" s="17"/>
       <c r="G108" s="36"/>
     </row>
@@ -5870,7 +6088,6 @@
       <c r="B109" s="18"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
-      <c r="E109" s="36"/>
       <c r="F109" s="17"/>
       <c r="G109" s="36"/>
     </row>
@@ -5940,26 +6157,52 @@
     <hyperlink ref="E47" r:id="rId21" xr:uid="{D11AB1F0-9C43-4266-87A4-780C04576352}"/>
     <hyperlink ref="E62" r:id="rId22" xr:uid="{7096442D-53A7-4A86-968B-10DD156BF3F2}"/>
     <hyperlink ref="E60" r:id="rId23" xr:uid="{6E4A20A0-493C-4DB6-9FBB-03550309BABE}"/>
-    <hyperlink ref="E77" r:id="rId24" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
-    <hyperlink ref="E76" r:id="rId25" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{2A515017-976B-4F0C-B86D-DF191890E484}"/>
-    <hyperlink ref="E78" r:id="rId26" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{13636D9C-5391-4AAD-8163-0007F180053E}"/>
-    <hyperlink ref="E80" r:id="rId27" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{A1837C9A-E97B-42A3-8138-F448087E925D}"/>
-    <hyperlink ref="E83" r:id="rId28" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{04C7053B-C71F-42D9-A3FB-E90E1D07C3AA}"/>
-    <hyperlink ref="E84" r:id="rId29" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CFE80A8F-127E-43A4-94B6-81618A252493}"/>
-    <hyperlink ref="E87" r:id="rId30" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{2E18896B-7683-43E7-AF70-04B262EA028D}"/>
-    <hyperlink ref="E90" r:id="rId31" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{72A59F81-23E3-4127-8A48-E00226250685}"/>
-    <hyperlink ref="E91" r:id="rId32" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CFBBA13E-6DE7-4E0E-A53B-05395D98C21D}"/>
-    <hyperlink ref="E94" r:id="rId33" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{A6818C8A-D7C1-4E9F-9C75-041929FB91C6}"/>
-    <hyperlink ref="E97" r:id="rId34" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{36A0C9B4-1741-4EA9-B86F-4036A4EF2CC9}"/>
-    <hyperlink ref="E98" r:id="rId35" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CEEF8C83-A6DA-48D9-AE75-88829DA84BDB}"/>
-    <hyperlink ref="E101" r:id="rId36" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{86699C30-BDB3-4F87-ADC8-28B9522F608A}"/>
-    <hyperlink ref="E102" r:id="rId37" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{53D3C960-53B2-48DF-8551-C560342F6917}"/>
-    <hyperlink ref="E106" r:id="rId38" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{20E18D9F-1857-4151-9871-A52227DD012A}"/>
-    <hyperlink ref="E107" r:id="rId39" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{892E61D3-405E-4A80-ABCD-4AC917DCD3D4}"/>
-    <hyperlink ref="E20" r:id="rId40" display="https://simplemaps.com/resources/svg-world" xr:uid="{1A07D5E6-633E-459C-A7B9-666BE7933A80}"/>
+    <hyperlink ref="E20" r:id="rId24" display="https://simplemaps.com/resources/svg-world" xr:uid="{1A07D5E6-633E-459C-A7B9-666BE7933A80}"/>
+    <hyperlink ref="E34" r:id="rId25" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{17F7991A-0F39-4AEC-83B0-1FC8BDD34310}"/>
+    <hyperlink ref="E40" r:id="rId26" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{0FBE8103-A710-4ED3-B54A-AB42FC2606C2}"/>
+    <hyperlink ref="E48" r:id="rId27" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BAC3C1C3-8F11-4D30-934D-7B6CAB25519D}"/>
+    <hyperlink ref="E50" r:id="rId28" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{F76D5126-5232-4922-B84A-FC19827B0A25}"/>
+    <hyperlink ref="E49" r:id="rId29" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{D0214770-B410-4C4C-A54B-59C85613B594}"/>
+    <hyperlink ref="E61" r:id="rId30" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{AEA26864-F89D-4D62-8F64-8AD82E664AFC}"/>
+    <hyperlink ref="E86" r:id="rId31" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C520BE2B-512C-4A03-B807-EFE0FA080A11}"/>
+    <hyperlink ref="E93" r:id="rId32" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{84437805-A63F-4C83-90D5-A2AF927BC26D}"/>
+    <hyperlink ref="E100" r:id="rId33" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{5A9C5EB8-F261-4C96-BD93-DA34F0ECC7B6}"/>
+    <hyperlink ref="E104" r:id="rId34" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{9394A10A-4ECA-4D04-815B-016E0A021DE7}"/>
+    <hyperlink ref="E106" r:id="rId35" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{A3E48742-A63C-4F5A-9A0A-E53AFD4551A4}"/>
+    <hyperlink ref="E107" r:id="rId36" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{CD60E30E-7CFA-40B8-952C-3C5E64D24AD8}"/>
+    <hyperlink ref="E76" r:id="rId37" xr:uid="{50A778A7-247C-422E-AF51-B818EFE47071}"/>
+    <hyperlink ref="E77" r:id="rId38" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
+    <hyperlink ref="E78" r:id="rId39" xr:uid="{977D727D-092C-4E77-878B-5F484801E44F}"/>
+    <hyperlink ref="E80" r:id="rId40" xr:uid="{D083F051-8CF7-40B6-B10C-9D58B2F4BA1E}"/>
+    <hyperlink ref="E83" r:id="rId41" xr:uid="{B230A4D2-52CF-4130-BB9B-849810E27BB6}"/>
+    <hyperlink ref="E84" r:id="rId42" xr:uid="{FB4943FD-BA78-4CA2-8F96-194C44603173}"/>
+    <hyperlink ref="E87" r:id="rId43" xr:uid="{42183E86-07D9-41FE-825C-8D7E49A8D204}"/>
+    <hyperlink ref="E90" r:id="rId44" xr:uid="{7B0DD3BA-C831-48CC-8EC5-87E799015FA7}"/>
+    <hyperlink ref="E91" r:id="rId45" xr:uid="{CCABC04A-E413-40CB-A65A-55265BDAF4CC}"/>
+    <hyperlink ref="E94" r:id="rId46" xr:uid="{B8136907-6CDA-4758-827D-AFFF71D7FA6D}"/>
+    <hyperlink ref="E97" r:id="rId47" xr:uid="{ED1C7C56-0124-41AC-944B-BB36277D337F}"/>
+    <hyperlink ref="E98" r:id="rId48" xr:uid="{BC8B4591-D7CF-43AA-92EC-45AD02DEC5F1}"/>
+    <hyperlink ref="E101" r:id="rId49" xr:uid="{5B3FE029-7779-4811-AAF5-9AF3BFB03950}"/>
+    <hyperlink ref="E102" r:id="rId50" xr:uid="{E1762F4C-D849-40D7-AEF2-460263AA7905}"/>
+    <hyperlink ref="E85" r:id="rId51" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{8D9F31B9-63CB-4289-9B59-B0F3908BA9C1}"/>
+    <hyperlink ref="E92" r:id="rId52" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{04A8FDDB-27B5-4519-BB66-A3A2647CFF4B}"/>
+    <hyperlink ref="E99" r:id="rId53" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2F7BC736-8CF5-4D6A-82EC-B9DB1088924A}"/>
+    <hyperlink ref="E81" r:id="rId54" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BD4F4309-2294-4431-8919-4E5E0BA894DA}"/>
+    <hyperlink ref="E88" r:id="rId55" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{24425278-15BF-44BE-ABD0-E68579922E93}"/>
+    <hyperlink ref="E95" r:id="rId56" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{6A21F50C-DF13-4F24-B98A-D31C14680622}"/>
+    <hyperlink ref="E103" r:id="rId57" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{B0EE0B84-87D2-49A7-BDF3-164EF26059D9}"/>
+    <hyperlink ref="E105" r:id="rId58" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C8A2F1E0-23BD-45F5-87E3-24C720DB6B5C}"/>
+    <hyperlink ref="E8" r:id="rId59" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{CA9379A2-ED9E-4CA8-92E8-79D606690429}"/>
+    <hyperlink ref="E14" r:id="rId60" display="https://fonts.google.com/specimen/Dosis" xr:uid="{5B160C99-E667-450C-9776-63CB90260332}"/>
+    <hyperlink ref="E25" r:id="rId61" display="https://fonts.google.com/specimen/Dosis" xr:uid="{46AB7665-D4CD-406E-B6E9-A3CD26062F2A}"/>
+    <hyperlink ref="E26" r:id="rId62" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9B167C52-948B-4676-BCD1-AEE7074B97F1}"/>
+    <hyperlink ref="E30" r:id="rId63" display="https://fonts.google.com/specimen/Dosis" xr:uid="{AD798504-8243-48B2-A953-BA851015534E}"/>
+    <hyperlink ref="E32" r:id="rId64" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9596B8AC-08BF-4418-AB3E-A366E713A453}"/>
+    <hyperlink ref="E31" r:id="rId65" display="https://fonts.google.com/specimen/Dosis" xr:uid="{D2F4AFC0-E407-4372-925E-2A10A09C2EA5}"/>
+    <hyperlink ref="E79" r:id="rId66" display="https://fonts.google.com/specimen/Dosis" xr:uid="{CFB7F020-6EC3-48A0-8B28-788F631EAE6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId41"/>
+  <drawing r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -5967,13 +6210,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681257C2-639B-4570-B3EC-51C6606193A1}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -5983,21 +6228,21 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -6018,7 +6263,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -6026,92 +6271,92 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6126,34 +6371,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F3AECC-2F8D-42AD-B1A0-07064297A236}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.19921875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>313</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D616A83-4C20-4434-85B6-0EC42EACB4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A350707-A309-49FD-BE9B-1CC7312DCC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11445" yWindow="-21720" windowWidth="51840" windowHeight="21840" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
     <sheet name="전체 컨셉 및 스토리" sheetId="3" r:id="rId2"/>
     <sheet name="인게임 알고리즘" sheetId="6" r:id="rId3"/>
     <sheet name="UI" sheetId="5" r:id="rId4"/>
-    <sheet name="바이러스 특성" sheetId="2" r:id="rId5"/>
+    <sheet name="증상" sheetId="2" r:id="rId5"/>
     <sheet name="환경 특성" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="385">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바이러스 특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바이러스가 획득한 특성에 따라 바이러스가 진화하여 백신개발과 치료가 더욱 힘들어지게 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,14 +148,6 @@
   </si>
   <si>
     <t>특성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1661,6 +1649,62 @@
   </si>
   <si>
     <t>환경특성 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염성(+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 개발 수치(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 유전자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스 특성 테이블 설명 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스 특성-&gt;증상 탭 이름 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 환경특성 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1분에 한 번씩 환경특성이 각 확률로 발현됨 만약 두가지 이상의 환경특성이 동시에 발현되면 발현확률이 적은 특성만 발현됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마약 유행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 시위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1924,7 +1968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2064,6 +2108,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3098,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C31" sqref="A31:C31"/>
+    <sheetView topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3112,18 +3162,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -3153,14 +3203,14 @@
       <c r="A5" s="15"/>
       <c r="B5" s="26"/>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="26"/>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -3171,14 +3221,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="26"/>
       <c r="C8" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -3189,14 +3239,14 @@
         <v>1.2</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="26"/>
       <c r="C10" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -3207,35 +3257,35 @@
         <v>1.3</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="26"/>
       <c r="C14" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -3243,24 +3293,24 @@
         <v>221119</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="26"/>
       <c r="C17" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="26"/>
       <c r="C18" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -3268,31 +3318,31 @@
         <v>221125</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="26"/>
       <c r="C20" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
       <c r="B21" s="26"/>
       <c r="C21" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -3300,31 +3350,31 @@
         <v>221126</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="B24" s="26"/>
       <c r="C24" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="26"/>
       <c r="C25" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="26"/>
       <c r="C26" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -3332,17 +3382,17 @@
         <v>221127</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="15"/>
       <c r="B28" s="26"/>
       <c r="C28" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -3350,24 +3400,49 @@
         <v>221129</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="15"/>
       <c r="B30" s="26"/>
       <c r="C30" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="15"/>
       <c r="B31" s="26"/>
       <c r="C31" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="15">
+        <v>221102</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="15"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="15"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="17" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -3456,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791336A-D98C-4D41-919D-44FAB4E982D2}">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3476,26 +3551,26 @@
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3503,32 +3578,32 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B7" s="39"/>
       <c r="E7" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="39"/>
       <c r="E8" s="37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G8" s="37">
         <v>0</v>
@@ -3539,14 +3614,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="39"/>
       <c r="E9" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G9" s="37">
         <v>-3</v>
@@ -3557,14 +3632,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="39"/>
       <c r="E10" s="41" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G10" s="37">
         <v>3</v>
@@ -3575,14 +3650,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="39"/>
       <c r="E11" s="41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G11" s="37">
         <v>2</v>
@@ -3593,14 +3668,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="39"/>
       <c r="E12" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G12" s="37">
         <v>1</v>
@@ -3611,10 +3686,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G13" s="37">
         <v>0</v>
@@ -3625,16 +3700,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G14" s="37">
         <v>1</v>
@@ -3645,14 +3720,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B15" s="45"/>
       <c r="E15" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G15" s="37">
         <v>-2</v>
@@ -3663,14 +3738,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B16" s="45"/>
       <c r="E16" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G16" s="37">
         <v>3</v>
@@ -3681,14 +3756,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B17" s="45"/>
       <c r="E17" s="41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G17" s="37">
         <v>1</v>
@@ -3699,14 +3774,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B18" s="45"/>
       <c r="E18" s="41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G18" s="37">
         <v>3</v>
@@ -3717,14 +3792,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B19" s="45"/>
       <c r="E19" s="41" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G19" s="37">
         <v>2</v>
@@ -3735,14 +3810,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B20" s="45"/>
       <c r="E20" s="41" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G20" s="37">
         <v>0</v>
@@ -3753,16 +3828,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G21" s="37">
         <v>-1</v>
@@ -3773,14 +3848,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B22" s="45"/>
       <c r="E22" s="41" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G22" s="37">
         <v>2</v>
@@ -3791,16 +3866,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="45" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G23" s="37">
         <v>3</v>
@@ -3811,44 +3886,52 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="45" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="45" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="45" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="45" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="45" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="45" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3862,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3881,90 +3964,90 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -3972,22 +4055,22 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -4008,25 +4091,25 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -4034,23 +4117,23 @@
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="49"/>
+        <v>41</v>
+      </c>
+      <c r="E12" s="51"/>
       <c r="F12" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I12" s="5">
         <v>4</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -4058,23 +4141,23 @@
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="49"/>
+        <v>42</v>
+      </c>
+      <c r="E13" s="51"/>
       <c r="F13" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I13" s="5">
         <v>5</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -4083,7 +4166,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="23"/>
       <c r="E14" s="44" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -4099,63 +4182,63 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>58</v>
-      </c>
       <c r="J18" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" s="25">
         <v>1</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I19" s="25">
         <v>6</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K19" s="25"/>
     </row>
@@ -4165,22 +4248,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I20" s="25">
         <v>7</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K20" s="25"/>
     </row>
@@ -4190,22 +4273,22 @@
         <v>3</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I21" s="25">
         <v>8</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K21" s="25"/>
     </row>
@@ -4215,22 +4298,22 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>97</v>
-      </c>
       <c r="G22" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I22" s="25">
         <v>9</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K22" s="25"/>
     </row>
@@ -4240,22 +4323,22 @@
         <v>5</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>47</v>
+        <v>81</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>44</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I23" s="25">
         <v>10</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K23" s="25"/>
     </row>
@@ -4265,20 +4348,20 @@
         <v>6</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="50"/>
+        <v>82</v>
+      </c>
+      <c r="E24" s="52"/>
       <c r="F24" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I24" s="25">
         <v>11</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K24" s="25"/>
     </row>
@@ -4288,25 +4371,25 @@
         <v>7</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I25" s="25">
         <v>12</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -4315,25 +4398,25 @@
         <v>8</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I26" s="25">
         <v>13</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -4342,22 +4425,22 @@
         <v>9</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I27" s="25">
         <v>14</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K27" s="25"/>
     </row>
@@ -4367,22 +4450,22 @@
         <v>10</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I28" s="25">
         <v>15</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K28" s="25"/>
     </row>
@@ -4392,22 +4475,22 @@
         <v>11</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I29" s="25">
         <v>16</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K29" s="25"/>
     </row>
@@ -4417,25 +4500,25 @@
         <v>12</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I30" s="25">
         <v>17</v>
       </c>
       <c r="J30" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>116</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -4444,25 +4527,25 @@
         <v>13</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="25">
         <v>18</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -4472,52 +4555,52 @@
         <v>14</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I32" s="25">
         <v>19</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="17">
         <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F33" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="I33" s="25">
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K33" s="25"/>
     </row>
@@ -4528,25 +4611,25 @@
         <v>2</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I34" s="25">
         <v>21</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -4556,22 +4639,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I35" s="25">
         <v>22</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K35" s="25"/>
     </row>
@@ -4582,22 +4665,22 @@
         <v>4</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="G36" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I36" s="25">
         <v>9</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K36" s="25"/>
     </row>
@@ -4608,22 +4691,22 @@
         <v>5</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I37" s="17">
         <v>23</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K37" s="25"/>
     </row>
@@ -4634,22 +4717,22 @@
         <v>6</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I38" s="25">
         <v>24</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K38" s="25"/>
     </row>
@@ -4660,22 +4743,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I39" s="25">
         <v>25</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K39" s="25"/>
     </row>
@@ -4686,25 +4769,25 @@
         <v>8</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I40" s="25">
         <v>26</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -4714,22 +4797,22 @@
         <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I41" s="25">
         <v>27</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K41" s="25"/>
     </row>
@@ -4740,22 +4823,22 @@
         <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I42" s="25">
         <v>28</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K42" s="25"/>
     </row>
@@ -4766,22 +4849,22 @@
         <v>11</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I43" s="25">
         <v>29</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K43" s="25"/>
     </row>
@@ -4792,22 +4875,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I44" s="25">
         <v>30</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K44" s="25"/>
     </row>
@@ -4832,29 +4915,29 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="17">
         <v>1</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I47" s="34">
         <v>31</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K47" s="34"/>
     </row>
@@ -4865,25 +4948,25 @@
         <v>2</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I48" s="34">
         <v>32</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -4893,25 +4976,25 @@
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I49" s="34">
         <v>33</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -4921,25 +5004,25 @@
         <v>4</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I50" s="34">
         <v>34</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -5025,29 +5108,29 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="32">
         <v>1</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I60" s="32">
         <v>35</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K60" s="32"/>
     </row>
@@ -5058,25 +5141,25 @@
         <v>2</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I61" s="32">
         <v>36</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -5086,22 +5169,22 @@
         <v>3</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I62" s="32">
         <v>37</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K62" s="32"/>
     </row>
@@ -5113,7 +5196,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -5199,63 +5282,63 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G75" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>58</v>
-      </c>
       <c r="J75" s="36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K75" s="36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C76" s="36">
         <v>1</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I76" s="36">
         <v>38</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K76" s="36"/>
     </row>
@@ -5265,22 +5348,22 @@
         <v>2</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I77" s="36">
         <v>16</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K77" s="36"/>
     </row>
@@ -5290,22 +5373,22 @@
         <v>3</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I78" s="36">
         <v>39</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K78" s="36"/>
     </row>
@@ -5315,25 +5398,25 @@
         <v>4</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I79" s="36">
         <v>17</v>
       </c>
       <c r="J79" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K79" s="36" t="s">
         <v>116</v>
-      </c>
-      <c r="K79" s="36" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -5342,22 +5425,22 @@
         <v>5</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I80" s="17">
         <v>40</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K80" s="36"/>
     </row>
@@ -5367,25 +5450,25 @@
         <v>6</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E81" s="44" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I81" s="17">
         <v>41</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K81" s="36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
@@ -5394,22 +5477,22 @@
         <v>7</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I82" s="17">
         <v>42</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K82" s="36"/>
     </row>
@@ -5419,22 +5502,22 @@
         <v>8</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I83" s="17">
         <v>43</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K83" s="36"/>
     </row>
@@ -5444,22 +5527,22 @@
         <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F84" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I84" s="17">
         <v>44</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K84" s="36"/>
     </row>
@@ -5469,25 +5552,25 @@
         <v>10</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E85" s="44" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F85" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I85" s="17">
         <v>45</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -5496,25 +5579,25 @@
         <v>11</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E86" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I86" s="17">
         <v>46</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -5523,22 +5606,22 @@
         <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F87" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G87" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I87" s="17">
         <v>40</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K87" s="36"/>
     </row>
@@ -5548,25 +5631,25 @@
         <v>13</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E88" s="44" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F88" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I88" s="17">
         <v>47</v>
       </c>
       <c r="J88" s="38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
@@ -5575,22 +5658,22 @@
         <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F89" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G89" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I89" s="17">
         <v>42</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K89" s="36"/>
     </row>
@@ -5600,22 +5683,22 @@
         <v>15</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I90" s="17">
         <v>43</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K90" s="36"/>
     </row>
@@ -5625,22 +5708,22 @@
         <v>16</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F91" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I91" s="17">
         <v>44</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K91" s="36"/>
     </row>
@@ -5650,25 +5733,25 @@
         <v>17</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E92" s="44" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I92" s="17">
         <v>48</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -5677,25 +5760,25 @@
         <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E93" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F93" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G93" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I93" s="17">
         <v>49</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K93" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -5704,22 +5787,22 @@
         <v>19</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I94" s="17">
         <v>40</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K94" s="36"/>
     </row>
@@ -5729,25 +5812,25 @@
         <v>20</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E95" s="44" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I95" s="17">
         <v>50</v>
       </c>
       <c r="J95" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="K95" s="36" t="s">
         <v>254</v>
-      </c>
-      <c r="K95" s="36" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
@@ -5756,22 +5839,22 @@
         <v>21</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E96" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I96" s="17">
         <v>42</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K96" s="36"/>
     </row>
@@ -5781,22 +5864,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I97" s="17">
         <v>43</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K97" s="36"/>
     </row>
@@ -5806,22 +5889,22 @@
         <v>23</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I98" s="17">
         <v>44</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K98" s="36"/>
     </row>
@@ -5831,25 +5914,25 @@
         <v>24</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E99" s="44" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F99" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I99" s="17">
         <v>51</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K99" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
@@ -5859,52 +5942,52 @@
         <v>25</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E100" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I100" s="17">
         <v>52</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B101" s="30"/>
       <c r="C101" s="17">
         <v>1</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I101" s="17">
         <v>53</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K101" s="36"/>
     </row>
@@ -5915,22 +5998,22 @@
         <v>2</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I102" s="17">
         <v>54</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K102" s="36"/>
     </row>
@@ -5941,25 +6024,25 @@
         <v>3</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E103" s="44" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I103" s="17">
         <v>55</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
@@ -5969,25 +6052,25 @@
         <v>4</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E104" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I104" s="17">
         <v>56</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
@@ -5997,25 +6080,25 @@
         <v>5</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E105" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I105" s="17">
         <v>57</v>
       </c>
       <c r="J105" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K105" s="17" t="s">
         <v>262</v>
-      </c>
-      <c r="K105" s="17" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
@@ -6025,25 +6108,25 @@
         <v>6</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E106" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I106" s="17">
         <v>58</v>
       </c>
       <c r="J106" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="K106" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="K106" s="17" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
@@ -6053,25 +6136,25 @@
         <v>7</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E107" s="44" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I107" s="17">
         <v>59</v>
       </c>
       <c r="J107" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K107" s="17" t="s">
         <v>264</v>
-      </c>
-      <c r="K107" s="17" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
@@ -6208,155 +6291,171 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681257C2-639B-4570-B3EC-51C6606193A1}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="A3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>270</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>314</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6373,8 +6472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F3AECC-2F8D-42AD-B1A0-07064297A236}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6389,34 +6488,43 @@
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>383</v>
+      </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>309</v>
+      </c>
+      <c r="E6">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>384</v>
+      </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A350707-A309-49FD-BE9B-1CC7312DCC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71640672-E215-4B84-9FDD-7E13186CBD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="인게임 알고리즘" sheetId="6" r:id="rId3"/>
     <sheet name="UI" sheetId="5" r:id="rId4"/>
     <sheet name="증상" sheetId="2" r:id="rId5"/>
-    <sheet name="환경 특성" sheetId="7" r:id="rId6"/>
+    <sheet name="뉴스" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="399">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,22 +1333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>충혈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈이 붉어지고 증상이 노출되기 쉽습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격성 증가1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격성 증가2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격성 증가3</t>
   </si>
   <si>
@@ -1361,51 +1345,7 @@
     <t>굶주린 맹수와 같은 수준의 공격성을 갖게 됩니다 증상이 노출됩니다</t>
   </si>
   <si>
-    <t>속도 증가1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도 증가2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도 증가3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평소보다 에너지가 넘치고 피곤함을 못느낍니다 증상이 노출되기 쉽지 않습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능 저하1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지능 저하2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부 반점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리 민감도 증가1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리 민감도 증가2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빛 민감도 감소1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빛 민감도 감소2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빛 민감도 감소3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1652,59 +1592,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>증상 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전염성(+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치료제 개발 수치(-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 유전자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스 특성 테이블 설명 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이러스 특성-&gt;증상 탭 이름 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 환경특성 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1분에 한 번씩 환경특성이 각 확률로 발현됨 만약 두가지 이상의 환경특성이 동시에 발현되면 발현확률이 적은 특성만 발현됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마약 유행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유 시위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>전염성</t>
+  </si>
+  <si>
+    <t>치료제 개발 수치</t>
+  </si>
+  <si>
     <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증상 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전염성(+)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치료제 개발 수치(-)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요한 유전자 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이러스 특성 테이블 설명 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이러스 특성-&gt;증상 탭 이름 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인게임 알고리즘 환경특성 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1분에 한 번씩 환경특성이 각 확률로 발현됨 만약 두가지 이상의 환경특성이 동시에 발현되면 발현확률이 적은 특성만 발현됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마약 유행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유 시위</t>
+  </si>
+  <si>
+    <t>충혈</t>
+  </si>
+  <si>
+    <t>눈이 붉어지고 증상이 노출되기 쉽습니다</t>
+  </si>
+  <si>
+    <t>공격성 증가1</t>
+  </si>
+  <si>
+    <t>공격성 증가2</t>
+  </si>
+  <si>
+    <t>속도 증가1</t>
+  </si>
+  <si>
+    <t>평소보다 에너지가 넘치고 피곤함을 못느낍니다 증상이 노출되기 쉽지 않습니다</t>
+  </si>
+  <si>
+    <t>속도 증가2</t>
+  </si>
+  <si>
+    <t>마약을 한 것처럼 잠을 안자도 됩니다 증상이 노출되기 쉽습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 증가3</t>
+  </si>
+  <si>
+    <t>훨씬 빠르게 움직이게 됩니다 잠을 자지 않습니다 증상이 노출됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능 저하1</t>
+  </si>
+  <si>
+    <t>며칠 잠을 안 잔 듯 멍한 상태가 지속됩니다 증상이 노출되기 쉽지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린아이와 같은 지능을 갖게 됩니다 증상이 노출되기 쉽습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능 저하3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 대화도 되지 않습니다 동물과 같아집니다 증상이 노출됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부 반점</t>
+  </si>
+  <si>
+    <t>피부에 반점이 생깁니다 증상이 노출되기 쉽지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리 민감도 증가1</t>
+  </si>
+  <si>
+    <t>소리에 더 민감하게 반응하며 소리에 불편함을 느낍니다 증상이 노출되기 쉽습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리 민감도 증가2</t>
+  </si>
+  <si>
+    <t>평소 못듣던 거리의 소리가 들립니다 증상이 노출됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛 민감도 증가1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소보다 어두운 곳에 빠른 적응을 하게 됩니다 증상이 노출되기 쉽지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛 민감도 증가2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 곳에서도 빛이 있는 것처럼 잘 보게 됩니다 증상이 노출되기 쉽지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 특성-&gt;뉴스 탭 이름 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,7 +2152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3148,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3374,7 +3413,7 @@
       <c r="A26" s="15"/>
       <c r="B26" s="26"/>
       <c r="C26" s="17" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -3382,17 +3421,17 @@
         <v>221127</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="15"/>
       <c r="B28" s="26"/>
       <c r="C28" s="17" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -3400,24 +3439,24 @@
         <v>221129</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="15"/>
       <c r="B30" s="26"/>
       <c r="C30" s="17" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="15"/>
       <c r="B31" s="26"/>
       <c r="C31" s="17" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -3425,24 +3464,31 @@
         <v>221102</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
       <c r="B33" s="26"/>
       <c r="C33" s="17" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="15"/>
       <c r="B34" s="26"/>
       <c r="C34" s="17" t="s">
-        <v>381</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="15"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="17" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3746,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -3720,7 +3766,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B15" s="45"/>
       <c r="E15" s="41" t="s">
@@ -3738,7 +3784,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B16" s="45"/>
       <c r="E16" s="41" t="s">
@@ -3756,7 +3802,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B17" s="45"/>
       <c r="E17" s="41" t="s">
@@ -3774,7 +3820,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="45" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B18" s="45"/>
       <c r="E18" s="41" t="s">
@@ -3792,7 +3838,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="45" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B19" s="45"/>
       <c r="E19" s="41" t="s">
@@ -3810,7 +3856,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="45" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B20" s="45"/>
       <c r="E20" s="41" t="s">
@@ -3828,10 +3874,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="45" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>288</v>
@@ -3848,7 +3894,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="45" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B22" s="45"/>
       <c r="E22" s="41" t="s">
@@ -3866,10 +3912,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="45" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>275</v>
@@ -3886,52 +3932,52 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="45" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="45" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="45" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="45" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="45" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="45" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4032,7 +4078,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>60</v>
@@ -4166,7 +4212,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="23"/>
       <c r="E14" s="44" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -4374,7 +4420,7 @@
         <v>83</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>60</v>
@@ -4401,7 +4447,7 @@
         <v>84</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>60</v>
@@ -4503,7 +4549,7 @@
         <v>88</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>60</v>
@@ -4530,7 +4576,7 @@
         <v>89</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>60</v>
@@ -4558,7 +4604,7 @@
         <v>90</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>60</v>
@@ -4614,7 +4660,7 @@
         <v>122</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>60</v>
@@ -4772,7 +4818,7 @@
         <v>126</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>60</v>
@@ -4951,7 +4997,7 @@
         <v>167</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>60</v>
@@ -4979,7 +5025,7 @@
         <v>168</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>60</v>
@@ -5007,7 +5053,7 @@
         <v>166</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>60</v>
@@ -5144,7 +5190,7 @@
         <v>177</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F61" s="32" t="s">
         <v>60</v>
@@ -5401,7 +5447,7 @@
         <v>88</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="F79" s="36" t="s">
         <v>60</v>
@@ -5453,7 +5499,7 @@
         <v>203</v>
       </c>
       <c r="E81" s="44" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F81" s="36" t="s">
         <v>60</v>
@@ -5555,7 +5601,7 @@
         <v>207</v>
       </c>
       <c r="E85" s="44" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F85" s="36" t="s">
         <v>60</v>
@@ -5582,7 +5628,7 @@
         <v>208</v>
       </c>
       <c r="E86" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F86" s="36" t="s">
         <v>60</v>
@@ -5634,7 +5680,7 @@
         <v>209</v>
       </c>
       <c r="E88" s="44" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F88" s="36" t="s">
         <v>60</v>
@@ -5736,7 +5782,7 @@
         <v>210</v>
       </c>
       <c r="E92" s="44" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F92" s="36" t="s">
         <v>60</v>
@@ -5763,7 +5809,7 @@
         <v>211</v>
       </c>
       <c r="E93" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F93" s="36" t="s">
         <v>60</v>
@@ -5815,7 +5861,7 @@
         <v>212</v>
       </c>
       <c r="E95" s="44" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F95" s="36" t="s">
         <v>60</v>
@@ -5917,7 +5963,7 @@
         <v>213</v>
       </c>
       <c r="E99" s="44" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F99" s="36" t="s">
         <v>60</v>
@@ -5945,7 +5991,7 @@
         <v>214</v>
       </c>
       <c r="E100" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F100" s="36" t="s">
         <v>60</v>
@@ -6027,7 +6073,7 @@
         <v>229</v>
       </c>
       <c r="E103" s="44" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>60</v>
@@ -6055,7 +6101,7 @@
         <v>230</v>
       </c>
       <c r="E104" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>60</v>
@@ -6083,7 +6129,7 @@
         <v>231</v>
       </c>
       <c r="E105" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F105" s="17" t="s">
         <v>60</v>
@@ -6111,7 +6157,7 @@
         <v>232</v>
       </c>
       <c r="E106" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>54</v>
@@ -6139,7 +6185,7 @@
         <v>233</v>
       </c>
       <c r="E107" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F107" s="17" t="s">
         <v>54</v>
@@ -6293,8 +6339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681257C2-639B-4570-B3EC-51C6606193A1}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6335,127 +6381,292 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>377</v>
+      <c r="C6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>267</v>
+      <c r="A7" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>370</v>
       </c>
       <c r="E7" s="48" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="A8" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1</v>
+      </c>
+      <c r="E8" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="48">
+        <v>2</v>
+      </c>
+      <c r="D9" s="48">
+        <v>3</v>
+      </c>
+      <c r="E9" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="48">
+        <v>3</v>
+      </c>
+      <c r="D10" s="48">
+        <v>6</v>
+      </c>
+      <c r="E10" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="B8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="B11" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="B10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="C11" s="48">
+        <v>5</v>
+      </c>
+      <c r="D11" s="48">
+        <v>4</v>
+      </c>
+      <c r="E11" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="48">
+        <v>2</v>
+      </c>
+      <c r="D12" s="48">
+        <v>3</v>
+      </c>
+      <c r="E12" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" s="48">
+        <v>3</v>
+      </c>
+      <c r="D13" s="48">
+        <v>6</v>
+      </c>
+      <c r="E13" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="48">
+        <v>5</v>
+      </c>
+      <c r="D14" s="48">
+        <v>4</v>
+      </c>
+      <c r="E14" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="48">
+        <v>3</v>
+      </c>
+      <c r="D15" s="48">
+        <v>4</v>
+      </c>
+      <c r="E15" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>330</v>
+      <c r="B16" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="48">
+        <v>4</v>
+      </c>
+      <c r="D16" s="48">
+        <v>5</v>
+      </c>
+      <c r="E16" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="48">
+        <v>4</v>
+      </c>
+      <c r="D17" s="48">
+        <v>3</v>
+      </c>
+      <c r="E17" s="48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="48">
+        <v>5</v>
+      </c>
+      <c r="D18" s="48">
+        <v>1</v>
+      </c>
+      <c r="E18" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="48">
+        <v>3</v>
+      </c>
+      <c r="D19" s="48">
+        <v>4</v>
+      </c>
+      <c r="E19" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20" s="48">
+        <v>4</v>
+      </c>
+      <c r="D20" s="48">
+        <v>3</v>
+      </c>
+      <c r="E20" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="48">
+        <v>2</v>
+      </c>
+      <c r="D21" s="48">
+        <v>3</v>
+      </c>
+      <c r="E21" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" s="48">
+        <v>4</v>
+      </c>
+      <c r="D22" s="48">
+        <v>3</v>
+      </c>
+      <c r="E22" s="48">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6470,10 +6681,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F3AECC-2F8D-42AD-B1A0-07064297A236}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6485,21 +6696,26 @@
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>398</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>27</v>
@@ -6510,7 +6726,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>309</v>
@@ -6521,7 +6737,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>310</v>

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71640672-E215-4B84-9FDD-7E13186CBD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6F84DD-ADD7-4FFC-990E-EF24FD993057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="전체 컨셉 및 스토리" sheetId="3" r:id="rId2"/>
     <sheet name="인게임 알고리즘" sheetId="6" r:id="rId3"/>
     <sheet name="UI" sheetId="5" r:id="rId4"/>
-    <sheet name="증상" sheetId="2" r:id="rId5"/>
-    <sheet name="뉴스" sheetId="7" r:id="rId6"/>
+    <sheet name="Sound" sheetId="8" r:id="rId5"/>
+    <sheet name="증상" sheetId="2" r:id="rId6"/>
+    <sheet name="뉴스" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="443">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Game_Resume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Earth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,14 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새 게임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이어 하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,10 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국가명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>감염자 비율 그래프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택한 국가 이름 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>누르면 Country info 프레임으로 넘어감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -677,10 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국가 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국가 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,10 +735,6 @@
   </si>
   <si>
     <t>누르면 국가정보 닫음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가정보 배경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1496,22 +1469,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>01Regular</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">산돌구름 (sandollcloud.com) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>02Medium</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1746,12 +1703,410 @@
     <t>뉴스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>새 게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Start</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Game_Resume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Game_Quit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이어 하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Quit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Start 버튼, string 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 팝업 꺼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산돌구름 (sandollcloud.com) </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01Regular</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>국가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 대륙정보 배경</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>국가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 대륙정보 설명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>국가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 대륙 이름</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>국가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대륙명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">선택한 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>국가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 대륙 이름 표시</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 2.1 Ingame의 Default 화면으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Ingame UI 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Gen UI 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>universe music</t>
+  </si>
+  <si>
+    <t>사이트 데모기준 Message 5초 트랙</t>
+  </si>
+  <si>
+    <t>게임시작시에 fade in 으로 시작해서 게임 종료 전까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>News Pop-up 나올 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound 탭 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음, 팝업시 효과음 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 버튼이 눌릴 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2배속 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정창 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 설정창 닫음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6 버튼은 토글효과를 주기 위해 에셋에서 진한 창(True), 연한 창(False)으로 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게임 진행 속도가 2배속이 됨 알고리즘에서몇초당 계산에서 초가 절반이 되어 계산하는 속도가 두배가 됨 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음(배경음을 제외한 모든 소리)의 볼륨이 0이 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음의 볼륨이 0이 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Setting 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_Fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2배속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_Bgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1835,6 +2190,25 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2007,7 +2381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2155,6 +2529,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2168,6 +2551,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2530,13 +2931,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>55245</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>40006</xdr:rowOff>
+      <xdr:rowOff>60295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5012306</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>151161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2552,15 +2953,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1579245" y="1573531"/>
-          <a:ext cx="4964681" cy="2790825"/>
+          <a:off x="1579245" y="1607155"/>
+          <a:ext cx="4957061" cy="2788346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2662,13 +3068,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>21774</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>21773</xdr:rowOff>
+      <xdr:rowOff>43477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5046617</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>18915</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>218191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2684,15 +3090,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1545774" y="9448802"/>
-          <a:ext cx="5040083" cy="2835047"/>
+          <a:off x="1545774" y="8265457"/>
+          <a:ext cx="5024843" cy="2826474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2706,13 +3117,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>39423</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:rowOff>40539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5048250</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>206778</xdr:rowOff>
+      <xdr:rowOff>206244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2728,15 +3139,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1563423" y="12584430"/>
-          <a:ext cx="5008827" cy="2803293"/>
+          <a:off x="1563423" y="11356239"/>
+          <a:ext cx="5008827" cy="2817465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2750,13 +3166,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>47046</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>45125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5046341</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>212493</xdr:rowOff>
+      <xdr:rowOff>205468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2784,8 +3200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571046" y="14116050"/>
-          <a:ext cx="4993580" cy="2803293"/>
+          <a:off x="1571046" y="14233565"/>
+          <a:ext cx="4999295" cy="2812103"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2798,14 +3214,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>39141</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>61043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5068429</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>41909</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>20006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2821,15 +3237,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1558290" y="17622291"/>
-          <a:ext cx="5034139" cy="2850743"/>
+          <a:off x="1558290" y="17785163"/>
+          <a:ext cx="5034139" cy="2831703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2842,13 +3263,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35060</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>26324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5047907</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>206692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2879,6 +3300,50 @@
         <a:xfrm>
           <a:off x="1559060" y="23157420"/>
           <a:ext cx="5016657" cy="2821870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30788</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5070764</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>91788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7343D44-6F84-A805-5652-06F42FA6A8D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1554788" y="17248910"/>
+          <a:ext cx="5039976" cy="2834987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3187,10 +3652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3201,11 +3666,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -3278,14 +3743,14 @@
         <v>1.2</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="26"/>
       <c r="C10" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -3296,35 +3761,35 @@
         <v>1.3</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="26"/>
       <c r="C14" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -3332,24 +3797,24 @@
         <v>221119</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="26"/>
       <c r="C17" s="17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="26"/>
       <c r="C18" s="17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -3357,31 +3822,31 @@
         <v>221125</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="26"/>
       <c r="C20" s="17" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
       <c r="B21" s="26"/>
       <c r="C21" s="17" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="17" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -3389,31 +3854,31 @@
         <v>221126</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="B24" s="26"/>
       <c r="C24" s="17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="26"/>
       <c r="C25" s="17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="26"/>
       <c r="C26" s="17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -3421,17 +3886,17 @@
         <v>221127</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="15"/>
       <c r="B28" s="26"/>
       <c r="C28" s="17" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -3439,56 +3904,102 @@
         <v>221129</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="15"/>
       <c r="B30" s="26"/>
       <c r="C30" s="17" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="15"/>
       <c r="B31" s="26"/>
       <c r="C31" s="17" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="15">
-        <v>221102</v>
+        <v>221202</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
       <c r="B33" s="26"/>
       <c r="C33" s="17" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="15"/>
       <c r="B34" s="26"/>
       <c r="C34" s="17" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="15"/>
       <c r="B35" s="26"/>
       <c r="C35" s="17" t="s">
-        <v>397</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="15">
+        <v>221205</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="15"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="15"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="15"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="15"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="15"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="17" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +4091,7 @@
   <dimension ref="A2:H30"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3610,13 +4121,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3624,20 +4135,20 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B7" s="39"/>
       <c r="E7" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -3646,10 +4157,10 @@
       </c>
       <c r="B8" s="39"/>
       <c r="E8" s="37" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G8" s="37">
         <v>0</v>
@@ -3664,10 +4175,10 @@
       </c>
       <c r="B9" s="39"/>
       <c r="E9" s="37" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G9" s="37">
         <v>-3</v>
@@ -3682,10 +4193,10 @@
       </c>
       <c r="B10" s="39"/>
       <c r="E10" s="41" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G10" s="37">
         <v>3</v>
@@ -3700,10 +4211,10 @@
       </c>
       <c r="B11" s="39"/>
       <c r="E11" s="41" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G11" s="37">
         <v>2</v>
@@ -3718,10 +4229,10 @@
       </c>
       <c r="B12" s="39"/>
       <c r="E12" s="41" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G12" s="37">
         <v>1</v>
@@ -3732,10 +4243,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="41" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G13" s="37">
         <v>0</v>
@@ -3746,16 +4257,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G14" s="37">
         <v>1</v>
@@ -3766,14 +4277,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B15" s="45"/>
       <c r="E15" s="41" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G15" s="37">
         <v>-2</v>
@@ -3784,14 +4295,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B16" s="45"/>
       <c r="E16" s="41" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G16" s="37">
         <v>3</v>
@@ -3802,14 +4313,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B17" s="45"/>
       <c r="E17" s="41" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G17" s="37">
         <v>1</v>
@@ -3820,14 +4331,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="45" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B18" s="45"/>
       <c r="E18" s="41" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G18" s="37">
         <v>3</v>
@@ -3838,14 +4349,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="45" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B19" s="45"/>
       <c r="E19" s="41" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G19" s="37">
         <v>2</v>
@@ -3856,14 +4367,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="45" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B20" s="45"/>
       <c r="E20" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="F20" s="37" t="s">
         <v>287</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>294</v>
       </c>
       <c r="G20" s="37">
         <v>0</v>
@@ -3874,16 +4385,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="45" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G21" s="37">
         <v>-1</v>
@@ -3894,14 +4405,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="45" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B22" s="45"/>
       <c r="E22" s="41" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G22" s="37">
         <v>2</v>
@@ -3912,16 +4423,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="45" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G23" s="37">
         <v>3</v>
@@ -3932,52 +4443,52 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="45" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="45" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="45" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="45" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="45" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="45" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3989,10 +4500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4028,12 +4539,12 @@
         <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -4044,10 +4555,10 @@
         <v>48</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>58</v>
@@ -4078,7 +4589,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>60</v>
@@ -4093,7 +4604,7 @@
         <v>62</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -4116,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -4139,14 +4650,14 @@
       <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
@@ -4154,56 +4665,56 @@
       <c r="J11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>68</v>
+      <c r="K11" s="41" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="57" t="s">
         <v>50</v>
       </c>
       <c r="I12" s="5">
         <v>4</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>69</v>
+      <c r="J12" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="57">
         <v>5</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>70</v>
+      <c r="J13" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -4212,7 +4723,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="23"/>
       <c r="E14" s="44" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -4228,7 +4739,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -4240,7 +4751,7 @@
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>58</v>
@@ -4263,7 +4774,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="25">
         <v>1</v>
@@ -4272,19 +4783,19 @@
         <v>42</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I19" s="25">
         <v>6</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K19" s="25"/>
     </row>
@@ -4294,22 +4805,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I20" s="25">
         <v>7</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K20" s="25"/>
     </row>
@@ -4319,13 +4830,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>61</v>
@@ -4334,7 +4845,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K21" s="25"/>
     </row>
@@ -4344,13 +4855,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>61</v>
@@ -4359,7 +4870,7 @@
         <v>9</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K22" s="25"/>
     </row>
@@ -4369,22 +4880,22 @@
         <v>5</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="55" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I23" s="25">
         <v>10</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K23" s="25"/>
     </row>
@@ -4394,20 +4905,20 @@
         <v>6</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="52"/>
+        <v>79</v>
+      </c>
+      <c r="E24" s="55"/>
       <c r="F24" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I24" s="25">
         <v>11</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K24" s="25"/>
     </row>
@@ -4417,25 +4928,25 @@
         <v>7</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>60</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I25" s="25">
         <v>12</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -4444,25 +4955,25 @@
         <v>8</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I26" s="25">
         <v>13</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -4471,22 +4982,22 @@
         <v>9</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I27" s="25">
         <v>14</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K27" s="25"/>
     </row>
@@ -4496,22 +5007,22 @@
         <v>10</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I28" s="25">
         <v>15</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K28" s="25"/>
     </row>
@@ -4521,22 +5032,22 @@
         <v>11</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I29" s="25">
         <v>16</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K29" s="25"/>
     </row>
@@ -4546,25 +5057,25 @@
         <v>12</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>60</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I30" s="25">
         <v>17</v>
       </c>
       <c r="J30" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -4573,10 +5084,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>60</v>
@@ -4588,10 +5099,10 @@
         <v>18</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -4601,52 +5112,52 @@
         <v>14</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>60</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I32" s="25">
         <v>19</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="17">
         <v>1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I33" s="25">
         <v>20</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K33" s="25"/>
     </row>
@@ -4656,26 +5167,26 @@
       <c r="C34" s="17">
         <v>2</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>122</v>
+      <c r="D34" s="62" t="s">
+        <v>402</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>140</v>
+        <v>403</v>
       </c>
       <c r="I34" s="25">
         <v>21</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>160</v>
+        <v>145</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -4685,7 +5196,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>44</v>
@@ -4694,13 +5205,13 @@
         <v>54</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I35" s="25">
         <v>22</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K35" s="25"/>
     </row>
@@ -4711,13 +5222,13 @@
         <v>4</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>61</v>
@@ -4726,7 +5237,7 @@
         <v>9</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K36" s="25"/>
     </row>
@@ -4737,22 +5248,22 @@
         <v>5</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I37" s="17">
         <v>23</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K37" s="25"/>
     </row>
@@ -4763,13 +5274,13 @@
         <v>6</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>61</v>
@@ -4778,7 +5289,7 @@
         <v>24</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K38" s="25"/>
     </row>
@@ -4789,130 +5300,130 @@
         <v>7</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I39" s="25">
         <v>25</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K39" s="25"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="17">
+      <c r="C40" s="58">
         <v>8</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="F40" s="17" t="s">
+      <c r="D40" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="F40" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40" s="25">
+      <c r="G40" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" s="57">
         <v>26</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="43" t="s">
         <v>155</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="17">
+      <c r="C41" s="58">
         <v>9</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="25">
+      <c r="D41" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="43">
         <v>27</v>
       </c>
-      <c r="J41" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="K41" s="25"/>
+      <c r="J41" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="K41" s="43"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="17">
+      <c r="C42" s="58">
         <v>10</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="I42" s="25">
+      <c r="D42" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" s="43">
         <v>28</v>
       </c>
-      <c r="J42" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="K42" s="25"/>
+      <c r="J42" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="K42" s="43"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="17">
+      <c r="C43" s="58">
         <v>11</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" s="25">
+      <c r="D43" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="43">
         <v>29</v>
       </c>
-      <c r="J43" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="K43" s="25"/>
+      <c r="J43" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="K43" s="43"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="18"/>
@@ -4921,22 +5432,22 @@
         <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I44" s="25">
         <v>30</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K44" s="25"/>
     </row>
@@ -4961,29 +5472,29 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="17">
         <v>1</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I47" s="34">
         <v>31</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K47" s="34"/>
     </row>
@@ -4994,10 +5505,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>60</v>
@@ -5009,10 +5520,10 @@
         <v>32</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -5022,25 +5533,25 @@
         <v>3</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I49" s="34">
         <v>33</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -5050,35 +5561,45 @@
         <v>4</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I50" s="34">
         <v>34</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="C51" s="32">
+        <v>5</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="18"/>
@@ -5154,29 +5675,29 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="30" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="32">
         <v>1</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>181</v>
+        <v>132</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>399</v>
       </c>
       <c r="I60" s="32">
         <v>35</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K60" s="32"/>
     </row>
@@ -5187,25 +5708,25 @@
         <v>2</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F61" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="G61" s="32" t="s">
-        <v>177</v>
+      <c r="G61" s="41" t="s">
+        <v>400</v>
       </c>
       <c r="I61" s="32">
         <v>36</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="K61" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="K61" s="41" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -5215,7 +5736,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>44</v>
@@ -5224,13 +5745,13 @@
         <v>54</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I62" s="32">
         <v>37</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K62" s="32"/>
     </row>
@@ -5242,7 +5763,7 @@
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -5326,935 +5847,1225 @@
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A75" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="J75" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="K75" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A76" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="36">
+    <row r="73" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="30"/>
+      <c r="C73" s="50">
         <v>1</v>
       </c>
-      <c r="D76" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E76" s="29" t="s">
+      <c r="D73" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="E73" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F76" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G76" s="36" t="s">
+      <c r="F73" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="19"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="50">
+        <v>2</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G74" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I74" s="50">
+        <v>60</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="19"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="50">
+        <v>3</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+    </row>
+    <row r="76" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="19"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+    </row>
+    <row r="77" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="19"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="50">
+        <v>4</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="I77" s="50">
         <v>61</v>
       </c>
-      <c r="I76" s="36">
-        <v>38</v>
-      </c>
-      <c r="J76" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="K76" s="36"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A77" s="19"/>
-      <c r="C77" s="36">
-        <v>2</v>
-      </c>
-      <c r="D77" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F77" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I77" s="36">
-        <v>16</v>
-      </c>
-      <c r="J77" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="K77" s="36"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J77" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="K77" s="17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="19"/>
-      <c r="C78" s="36">
-        <v>3</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E78" s="29" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+    </row>
+    <row r="79" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="19"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="50">
+        <v>5</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E79" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G78" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="I78" s="36">
-        <v>39</v>
-      </c>
-      <c r="J78" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="K78" s="36"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A79" s="19"/>
-      <c r="C79" s="36">
-        <v>4</v>
-      </c>
-      <c r="D79" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G79" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="I79" s="36">
-        <v>17</v>
-      </c>
-      <c r="J79" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K79" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F79" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="I79" s="50">
+        <v>62</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="19"/>
-      <c r="C80" s="36">
-        <v>5</v>
+      <c r="B80" s="18"/>
+      <c r="C80" s="50">
+        <v>6</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>202</v>
+        <v>425</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F80" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="17">
-        <v>40</v>
+      <c r="F80" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="I80" s="50">
+        <v>63</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="K80" s="36"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+        <v>440</v>
+      </c>
+      <c r="K80" s="17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="19"/>
-      <c r="C81" s="36">
-        <v>6</v>
+      <c r="B81" s="18"/>
+      <c r="C81" s="50">
+        <v>7</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="F81" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G81" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I81" s="17">
-        <v>41</v>
+        <v>426</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="I81" s="50">
+        <v>64</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="K81" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+        <v>441</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
-      <c r="C82" s="36">
-        <v>7</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E82" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="F82" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G82" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I82" s="17">
-        <v>42</v>
-      </c>
-      <c r="J82" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K82" s="36"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B82" s="18"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+    </row>
+    <row r="83" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="19"/>
-      <c r="C83" s="36">
-        <v>8</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="G83" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="I83" s="17">
-        <v>43</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="K83" s="36"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B83" s="18"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+    </row>
+    <row r="84" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="19"/>
-      <c r="C84" s="36">
-        <v>9</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G84" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="I84" s="17">
-        <v>44</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K84" s="36"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B84" s="18"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+    </row>
+    <row r="85" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="19"/>
-      <c r="C85" s="36">
-        <v>10</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="F85" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="I85" s="17">
-        <v>45</v>
-      </c>
-      <c r="J85" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="K85" s="36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B85" s="18"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+    </row>
+    <row r="86" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="19"/>
-      <c r="C86" s="36">
-        <v>11</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E86" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="F86" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G86" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="I86" s="17">
+      <c r="B86" s="18"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+    </row>
+    <row r="88" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J86" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="K86" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A87" s="19"/>
-      <c r="C87" s="36">
-        <v>12</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I87" s="17">
-        <v>40</v>
-      </c>
-      <c r="J87" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="K87" s="36"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A88" s="19"/>
-      <c r="C88" s="36">
-        <v>13</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="F88" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G88" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I88" s="17">
-        <v>47</v>
-      </c>
-      <c r="J88" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="K88" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A89" s="19"/>
-      <c r="C89" s="36">
-        <v>14</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E89" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="F89" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G89" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I89" s="17">
-        <v>42</v>
-      </c>
-      <c r="J89" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K89" s="36"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A90" s="19"/>
-      <c r="C90" s="36">
-        <v>15</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E90" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F90" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="G90" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="I90" s="17">
-        <v>43</v>
-      </c>
-      <c r="J90" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="K90" s="36"/>
+      <c r="I90" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J90" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K90" s="36" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A91" s="19"/>
+      <c r="A91" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="C91" s="36">
-        <v>16</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>204</v>
+        <v>1</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="E91" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F91" s="36" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="I91" s="17">
-        <v>44</v>
-      </c>
-      <c r="J91" s="17" t="s">
-        <v>246</v>
+        <v>61</v>
+      </c>
+      <c r="I91" s="36">
+        <v>38</v>
+      </c>
+      <c r="J91" s="36" t="s">
+        <v>233</v>
       </c>
       <c r="K91" s="36"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="19"/>
       <c r="C92" s="36">
-        <v>17</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>348</v>
+        <v>2</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="I92" s="17">
-        <v>48</v>
-      </c>
-      <c r="J92" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K92" s="36" t="s">
-        <v>210</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I92" s="36">
+        <v>16</v>
+      </c>
+      <c r="J92" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="19"/>
       <c r="C93" s="36">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E93" s="44" t="s">
-        <v>349</v>
+        <v>194</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F93" s="36" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G93" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="I93" s="17">
-        <v>49</v>
-      </c>
-      <c r="J93" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="K93" s="36" t="s">
-        <v>211</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="I93" s="36">
+        <v>39</v>
+      </c>
+      <c r="J93" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="19"/>
       <c r="C94" s="36">
-        <v>19</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>344</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I94" s="17">
-        <v>40</v>
-      </c>
-      <c r="J94" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="K94" s="36"/>
+        <v>209</v>
+      </c>
+      <c r="I94" s="36">
+        <v>17</v>
+      </c>
+      <c r="J94" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="K94" s="36" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="19"/>
       <c r="C95" s="36">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E95" s="44" t="s">
-        <v>346</v>
+        <v>195</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F95" s="36" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="G95" s="36" t="s">
         <v>61</v>
       </c>
       <c r="I95" s="17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="K95" s="36" t="s">
-        <v>254</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="K95" s="36"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="19"/>
       <c r="C96" s="36">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E96" s="36" t="s">
-        <v>217</v>
+        <v>196</v>
+      </c>
+      <c r="E96" s="44" t="s">
+        <v>339</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="I96" s="17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K96" s="36"/>
+        <v>236</v>
+      </c>
+      <c r="K96" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="19"/>
       <c r="C97" s="36">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>44</v>
+        <v>199</v>
+      </c>
+      <c r="E97" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="F97" s="36" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I97" s="17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="19"/>
       <c r="C98" s="36">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E98" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="G98" s="36" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I98" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="19"/>
       <c r="C99" s="36">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="F99" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G99" s="36" t="s">
-        <v>225</v>
-      </c>
       <c r="I99" s="17">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="K99" s="36" t="s">
-        <v>213</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A100" s="4"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="19"/>
       <c r="C100" s="36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E100" s="44" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F100" s="36" t="s">
         <v>60</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="I100" s="17">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A101" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="17">
-        <v>1</v>
+      <c r="A101" s="19"/>
+      <c r="C101" s="36">
+        <v>11</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>61</v>
+        <v>201</v>
+      </c>
+      <c r="E101" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="F101" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="I101" s="17">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="K101" s="36"/>
+        <v>235</v>
+      </c>
+      <c r="K101" s="36" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="19"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="17">
-        <v>2</v>
+      <c r="C102" s="36">
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E102" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F102" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G102" s="17" t="s">
+      <c r="F102" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G102" s="36" t="s">
         <v>61</v>
       </c>
       <c r="I102" s="17">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="K102" s="36"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="19"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="17">
-        <v>3</v>
+      <c r="C103" s="36">
+        <v>13</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="E103" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="F103" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F103" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G103" s="17" t="s">
-        <v>234</v>
+      <c r="G103" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I103" s="17">
-        <v>55</v>
-      </c>
-      <c r="J103" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="K103" s="17" t="s">
-        <v>229</v>
+        <v>47</v>
+      </c>
+      <c r="J103" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="K103" s="36" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="19"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="17">
-        <v>4</v>
+      <c r="C104" s="36">
+        <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E104" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>235</v>
+        <v>199</v>
+      </c>
+      <c r="E104" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F104" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G104" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="I104" s="17">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="K104" s="17" t="s">
-        <v>230</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="K104" s="36"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="19"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="17">
-        <v>5</v>
+      <c r="C105" s="36">
+        <v>15</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E105" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G105" s="17" t="s">
-        <v>237</v>
+        <v>198</v>
+      </c>
+      <c r="E105" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>212</v>
       </c>
       <c r="I105" s="17">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="K105" s="17" t="s">
-        <v>262</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="K105" s="36"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="19"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="17">
-        <v>6</v>
+      <c r="C106" s="36">
+        <v>16</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E106" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="F106" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G106" s="17" t="s">
-        <v>236</v>
+      <c r="G106" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="I106" s="17">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="K106" s="17" t="s">
-        <v>263</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="K106" s="36"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="19"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="17">
-        <v>7</v>
+      <c r="C107" s="36">
+        <v>17</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E107" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>238</v>
+        <v>340</v>
+      </c>
+      <c r="F107" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G107" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="I107" s="17">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K107" s="17" t="s">
-        <v>264</v>
+        <v>242</v>
+      </c>
+      <c r="K107" s="36" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="19"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="36"/>
+      <c r="C108" s="36">
+        <v>18</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G108" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="I108" s="17">
+        <v>49</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K108" s="36" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="19"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="36"/>
+      <c r="C109" s="36">
+        <v>19</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G109" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I109" s="17">
+        <v>40</v>
+      </c>
+      <c r="J109" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="19"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
+      <c r="C110" s="36">
+        <v>20</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E110" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F110" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G110" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I110" s="17">
+        <v>50</v>
+      </c>
+      <c r="J110" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="K110" s="36" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="19"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
+      <c r="C111" s="36">
+        <v>21</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E111" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G111" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I111" s="17">
+        <v>42</v>
+      </c>
+      <c r="J111" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="19"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A113" s="4"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
+      <c r="C112" s="36">
+        <v>22</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E112" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G112" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="I112" s="17">
+        <v>43</v>
+      </c>
+      <c r="J112" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="K112" s="36"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="19"/>
+      <c r="C113" s="36">
+        <v>23</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G113" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I113" s="17">
+        <v>44</v>
+      </c>
+      <c r="J113" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="K113" s="36"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="19"/>
+      <c r="C114" s="36">
+        <v>24</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E114" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F114" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G114" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="I114" s="17">
+        <v>51</v>
+      </c>
+      <c r="J114" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="K114" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="19"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="36">
+        <v>25</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E115" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="F115" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G115" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="I115" s="17">
+        <v>52</v>
+      </c>
+      <c r="J115" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="K115" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="19"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="50">
+        <v>26</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G116" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="50"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" s="30"/>
+      <c r="C117" s="17">
+        <v>1</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I117" s="17">
+        <v>53</v>
+      </c>
+      <c r="J117" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K117" s="36"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="19"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="17">
+        <v>2</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I118" s="17">
+        <v>54</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K118" s="36"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="19"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="17">
+        <v>3</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E119" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I119" s="17">
+        <v>55</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K119" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="19"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="17">
+        <v>4</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E120" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I120" s="17">
+        <v>56</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="19"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="17">
+        <v>5</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E121" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I121" s="17">
+        <v>57</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K121" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="19"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="17">
+        <v>6</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E122" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="I122" s="17">
+        <v>58</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="K122" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A123" s="19"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="17">
+        <v>7</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E123" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="F123" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I123" s="17">
+        <v>59</v>
+      </c>
+      <c r="J123" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="K123" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A124" s="19"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="36"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A125" s="19"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="36"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A126" s="19"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A127" s="19"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A128" s="19"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A129" s="4"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6293,34 +7104,34 @@
     <hyperlink ref="E50" r:id="rId28" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{F76D5126-5232-4922-B84A-FC19827B0A25}"/>
     <hyperlink ref="E49" r:id="rId29" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{D0214770-B410-4C4C-A54B-59C85613B594}"/>
     <hyperlink ref="E61" r:id="rId30" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{AEA26864-F89D-4D62-8F64-8AD82E664AFC}"/>
-    <hyperlink ref="E86" r:id="rId31" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C520BE2B-512C-4A03-B807-EFE0FA080A11}"/>
-    <hyperlink ref="E93" r:id="rId32" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{84437805-A63F-4C83-90D5-A2AF927BC26D}"/>
-    <hyperlink ref="E100" r:id="rId33" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{5A9C5EB8-F261-4C96-BD93-DA34F0ECC7B6}"/>
-    <hyperlink ref="E104" r:id="rId34" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{9394A10A-4ECA-4D04-815B-016E0A021DE7}"/>
-    <hyperlink ref="E106" r:id="rId35" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{A3E48742-A63C-4F5A-9A0A-E53AFD4551A4}"/>
-    <hyperlink ref="E107" r:id="rId36" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{CD60E30E-7CFA-40B8-952C-3C5E64D24AD8}"/>
-    <hyperlink ref="E76" r:id="rId37" xr:uid="{50A778A7-247C-422E-AF51-B818EFE47071}"/>
-    <hyperlink ref="E77" r:id="rId38" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
-    <hyperlink ref="E78" r:id="rId39" xr:uid="{977D727D-092C-4E77-878B-5F484801E44F}"/>
-    <hyperlink ref="E80" r:id="rId40" xr:uid="{D083F051-8CF7-40B6-B10C-9D58B2F4BA1E}"/>
-    <hyperlink ref="E83" r:id="rId41" xr:uid="{B230A4D2-52CF-4130-BB9B-849810E27BB6}"/>
-    <hyperlink ref="E84" r:id="rId42" xr:uid="{FB4943FD-BA78-4CA2-8F96-194C44603173}"/>
-    <hyperlink ref="E87" r:id="rId43" xr:uid="{42183E86-07D9-41FE-825C-8D7E49A8D204}"/>
-    <hyperlink ref="E90" r:id="rId44" xr:uid="{7B0DD3BA-C831-48CC-8EC5-87E799015FA7}"/>
-    <hyperlink ref="E91" r:id="rId45" xr:uid="{CCABC04A-E413-40CB-A65A-55265BDAF4CC}"/>
-    <hyperlink ref="E94" r:id="rId46" xr:uid="{B8136907-6CDA-4758-827D-AFFF71D7FA6D}"/>
-    <hyperlink ref="E97" r:id="rId47" xr:uid="{ED1C7C56-0124-41AC-944B-BB36277D337F}"/>
-    <hyperlink ref="E98" r:id="rId48" xr:uid="{BC8B4591-D7CF-43AA-92EC-45AD02DEC5F1}"/>
-    <hyperlink ref="E101" r:id="rId49" xr:uid="{5B3FE029-7779-4811-AAF5-9AF3BFB03950}"/>
-    <hyperlink ref="E102" r:id="rId50" xr:uid="{E1762F4C-D849-40D7-AEF2-460263AA7905}"/>
-    <hyperlink ref="E85" r:id="rId51" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{8D9F31B9-63CB-4289-9B59-B0F3908BA9C1}"/>
-    <hyperlink ref="E92" r:id="rId52" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{04A8FDDB-27B5-4519-BB66-A3A2647CFF4B}"/>
-    <hyperlink ref="E99" r:id="rId53" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2F7BC736-8CF5-4D6A-82EC-B9DB1088924A}"/>
-    <hyperlink ref="E81" r:id="rId54" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BD4F4309-2294-4431-8919-4E5E0BA894DA}"/>
-    <hyperlink ref="E88" r:id="rId55" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{24425278-15BF-44BE-ABD0-E68579922E93}"/>
-    <hyperlink ref="E95" r:id="rId56" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{6A21F50C-DF13-4F24-B98A-D31C14680622}"/>
-    <hyperlink ref="E103" r:id="rId57" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{B0EE0B84-87D2-49A7-BDF3-164EF26059D9}"/>
-    <hyperlink ref="E105" r:id="rId58" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C8A2F1E0-23BD-45F5-87E3-24C720DB6B5C}"/>
+    <hyperlink ref="E101" r:id="rId31" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C520BE2B-512C-4A03-B807-EFE0FA080A11}"/>
+    <hyperlink ref="E108" r:id="rId32" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{84437805-A63F-4C83-90D5-A2AF927BC26D}"/>
+    <hyperlink ref="E115" r:id="rId33" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{5A9C5EB8-F261-4C96-BD93-DA34F0ECC7B6}"/>
+    <hyperlink ref="E120" r:id="rId34" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{9394A10A-4ECA-4D04-815B-016E0A021DE7}"/>
+    <hyperlink ref="E122" r:id="rId35" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{A3E48742-A63C-4F5A-9A0A-E53AFD4551A4}"/>
+    <hyperlink ref="E123" r:id="rId36" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{CD60E30E-7CFA-40B8-952C-3C5E64D24AD8}"/>
+    <hyperlink ref="E91" r:id="rId37" xr:uid="{50A778A7-247C-422E-AF51-B818EFE47071}"/>
+    <hyperlink ref="E92" r:id="rId38" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
+    <hyperlink ref="E93" r:id="rId39" xr:uid="{977D727D-092C-4E77-878B-5F484801E44F}"/>
+    <hyperlink ref="E95" r:id="rId40" xr:uid="{D083F051-8CF7-40B6-B10C-9D58B2F4BA1E}"/>
+    <hyperlink ref="E98" r:id="rId41" xr:uid="{B230A4D2-52CF-4130-BB9B-849810E27BB6}"/>
+    <hyperlink ref="E99" r:id="rId42" xr:uid="{FB4943FD-BA78-4CA2-8F96-194C44603173}"/>
+    <hyperlink ref="E102" r:id="rId43" xr:uid="{42183E86-07D9-41FE-825C-8D7E49A8D204}"/>
+    <hyperlink ref="E105" r:id="rId44" xr:uid="{7B0DD3BA-C831-48CC-8EC5-87E799015FA7}"/>
+    <hyperlink ref="E106" r:id="rId45" xr:uid="{CCABC04A-E413-40CB-A65A-55265BDAF4CC}"/>
+    <hyperlink ref="E109" r:id="rId46" xr:uid="{B8136907-6CDA-4758-827D-AFFF71D7FA6D}"/>
+    <hyperlink ref="E112" r:id="rId47" xr:uid="{ED1C7C56-0124-41AC-944B-BB36277D337F}"/>
+    <hyperlink ref="E113" r:id="rId48" xr:uid="{BC8B4591-D7CF-43AA-92EC-45AD02DEC5F1}"/>
+    <hyperlink ref="E117" r:id="rId49" xr:uid="{5B3FE029-7779-4811-AAF5-9AF3BFB03950}"/>
+    <hyperlink ref="E118" r:id="rId50" xr:uid="{E1762F4C-D849-40D7-AEF2-460263AA7905}"/>
+    <hyperlink ref="E100" r:id="rId51" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{8D9F31B9-63CB-4289-9B59-B0F3908BA9C1}"/>
+    <hyperlink ref="E107" r:id="rId52" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{04A8FDDB-27B5-4519-BB66-A3A2647CFF4B}"/>
+    <hyperlink ref="E114" r:id="rId53" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2F7BC736-8CF5-4D6A-82EC-B9DB1088924A}"/>
+    <hyperlink ref="E96" r:id="rId54" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BD4F4309-2294-4431-8919-4E5E0BA894DA}"/>
+    <hyperlink ref="E103" r:id="rId55" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{24425278-15BF-44BE-ABD0-E68579922E93}"/>
+    <hyperlink ref="E110" r:id="rId56" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{6A21F50C-DF13-4F24-B98A-D31C14680622}"/>
+    <hyperlink ref="E119" r:id="rId57" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{B0EE0B84-87D2-49A7-BDF3-164EF26059D9}"/>
+    <hyperlink ref="E121" r:id="rId58" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C8A2F1E0-23BD-45F5-87E3-24C720DB6B5C}"/>
     <hyperlink ref="E8" r:id="rId59" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{CA9379A2-ED9E-4CA8-92E8-79D606690429}"/>
     <hyperlink ref="E14" r:id="rId60" display="https://fonts.google.com/specimen/Dosis" xr:uid="{5B160C99-E667-450C-9776-63CB90260332}"/>
     <hyperlink ref="E25" r:id="rId61" display="https://fonts.google.com/specimen/Dosis" xr:uid="{46AB7665-D4CD-406E-B6E9-A3CD26062F2A}"/>
@@ -6328,14 +7139,97 @@
     <hyperlink ref="E30" r:id="rId63" display="https://fonts.google.com/specimen/Dosis" xr:uid="{AD798504-8243-48B2-A953-BA851015534E}"/>
     <hyperlink ref="E32" r:id="rId64" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9596B8AC-08BF-4418-AB3E-A366E713A453}"/>
     <hyperlink ref="E31" r:id="rId65" display="https://fonts.google.com/specimen/Dosis" xr:uid="{D2F4AFC0-E407-4372-925E-2A10A09C2EA5}"/>
-    <hyperlink ref="E79" r:id="rId66" display="https://fonts.google.com/specimen/Dosis" xr:uid="{CFB7F020-6EC3-48A0-8B28-788F631EAE6B}"/>
+    <hyperlink ref="E94" r:id="rId66" display="https://fonts.google.com/specimen/Dosis" xr:uid="{CFB7F020-6EC3-48A0-8B28-788F631EAE6B}"/>
+    <hyperlink ref="E51" r:id="rId67" xr:uid="{24BD5BB7-DE1B-46A3-B879-F0677C3A0182}"/>
+    <hyperlink ref="E116" r:id="rId68" xr:uid="{CD5188D6-9895-49BC-877E-D406B45D7AC7}"/>
+    <hyperlink ref="E75" r:id="rId69" xr:uid="{38F5040E-C625-4BBA-AB1D-2B29C1AB72D9}"/>
+    <hyperlink ref="E74" r:id="rId70" display="https://fonts.google.com/specimen/Dosis" xr:uid="{63DF1793-1A16-441F-A209-CC3DFF05B240}"/>
+    <hyperlink ref="E73" r:id="rId71" xr:uid="{5CA8A5AE-0621-40DE-8C19-569358E5315E}"/>
+    <hyperlink ref="E77" r:id="rId72" xr:uid="{D5FCE6FA-D691-499A-A4B6-FBF11394423A}"/>
+    <hyperlink ref="E80" r:id="rId73" xr:uid="{C26B5F25-9972-4097-9B10-F0920616BEC4}"/>
+    <hyperlink ref="E79" r:id="rId74" xr:uid="{A4C485AB-A26F-4215-9554-B3BE5B09A2F1}"/>
+    <hyperlink ref="E81" r:id="rId75" xr:uid="{136A8BB3-46F8-46C6-A793-449F6C8FBA43}"/>
+    <hyperlink ref="E82" r:id="rId76" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2AA02F48-400A-46DD-9313-5D431FFE4241}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417B5E34-FCC6-4302-98C6-801701E797EC}">
+  <dimension ref="A2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="31.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{557193E2-48E1-4E8F-8BBA-535CE403EB29}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{517FA4C4-A674-4917-AC47-8990E529DB8C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681257C2-639B-4570-B3EC-51C6606193A1}">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -6359,21 +7253,21 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -6382,44 +7276,44 @@
     </row>
     <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="48" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="48" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C8" s="48">
         <v>1</v>
@@ -6433,10 +7327,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="48" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C9" s="48">
         <v>2</v>
@@ -6450,10 +7344,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="48" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C10" s="48">
         <v>3</v>
@@ -6467,10 +7361,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="48" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C11" s="48">
         <v>5</v>
@@ -6484,10 +7378,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="48" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C12" s="48">
         <v>2</v>
@@ -6501,10 +7395,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="48" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C13" s="48">
         <v>3</v>
@@ -6518,10 +7412,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="48" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C14" s="48">
         <v>5</v>
@@ -6535,10 +7429,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="48" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C15" s="48">
         <v>3</v>
@@ -6552,10 +7446,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C16" s="48">
         <v>4</v>
@@ -6569,10 +7463,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="48" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C17" s="48">
         <v>4</v>
@@ -6586,10 +7480,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="48" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C18" s="48">
         <v>5</v>
@@ -6603,10 +7497,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="48" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C19" s="48">
         <v>3</v>
@@ -6620,10 +7514,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="48" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C20" s="48">
         <v>4</v>
@@ -6637,10 +7531,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="48" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C21" s="48">
         <v>2</v>
@@ -6654,10 +7548,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="48" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C22" s="48">
         <v>4</v>
@@ -6679,7 +7573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F3AECC-2F8D-42AD-B1A0-07064297A236}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -6698,38 +7592,38 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E6">
         <v>-3</v>
@@ -6737,10 +7631,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6F84DD-ADD7-4FFC-990E-EF24FD993057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE8CA6-5141-4497-A066-316DD86B69B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="464">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1270,23 +1270,6 @@
   </si>
   <si>
     <t>인게임 알고리즘의 대륙별 특징 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Free Blank World Map in SVG - Resources | Simplemaps.com </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>확인 필요</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2101,12 +2084,99 @@
     <t>게임 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UI 대륙선택창 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙 선택 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 선택한 대륙에서 처음으로 바이러스가 발생함, 게임 시작시에만 표시되고 이후로는 표시되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country_Select_Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 대륙을 선택하여 게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 시작하려면 대륙을 선택해야합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 튜토리얼 창이 꺼지고 Default 화면으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial_Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound 선택음 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 데모 기준 처음 파일 0초 트랙</t>
+  </si>
+  <si>
+    <t>단위:%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경특성은 한번 발현되면 그 게임이 끝날 때까지 다시 발현되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 데이터테이블 설명 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따로 넣어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2182,14 +2252,6 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2381,7 +2443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2538,6 +2600,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2553,22 +2642,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3068,13 +3148,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>21774</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>43477</xdr:rowOff>
+      <xdr:rowOff>47633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5046617</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>218191</xdr:rowOff>
+      <xdr:rowOff>214035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3102,7 +3182,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1545774" y="8265457"/>
+          <a:off x="1545774" y="8291088"/>
           <a:ext cx="5024843" cy="2826474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3116,13 +3196,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>39423</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>40539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5048250</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>206244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3165,14 +3245,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47046</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>45125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5046341</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>205468</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>205467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3214,13 +3294,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>61043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5068429</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>20006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3263,13 +3343,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35060</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>26324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5047907</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>206692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3312,13 +3392,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30788</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5070764</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>91788</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3352,6 +3432,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35060</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>51351</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5012847" cy="2819726"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1597BACE-56DE-4597-93A8-DE74E03C4B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1559060" y="20921186"/>
+          <a:ext cx="5012847" cy="2819726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3652,10 +3776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3666,11 +3790,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -3864,21 +3988,21 @@
       <c r="A24" s="15"/>
       <c r="B24" s="26"/>
       <c r="C24" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="26"/>
       <c r="C25" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="26"/>
       <c r="C26" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -3886,17 +4010,17 @@
         <v>221127</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="15"/>
       <c r="B28" s="26"/>
       <c r="C28" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -3904,24 +4028,24 @@
         <v>221129</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="15"/>
       <c r="B30" s="26"/>
       <c r="C30" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="15"/>
       <c r="B31" s="26"/>
       <c r="C31" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -3929,31 +4053,31 @@
         <v>221202</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>352</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
       <c r="B33" s="26"/>
       <c r="C33" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="15"/>
       <c r="B34" s="26"/>
       <c r="C34" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="15"/>
       <c r="B35" s="26"/>
       <c r="C35" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -3961,45 +4085,70 @@
         <v>221205</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="15"/>
       <c r="B37" s="26"/>
       <c r="C37" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="15"/>
       <c r="B38" s="26"/>
       <c r="C38" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="15"/>
       <c r="B39" s="26"/>
       <c r="C39" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="15"/>
       <c r="B40" s="26"/>
       <c r="C40" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="15"/>
       <c r="B41" s="26"/>
       <c r="C41" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="15">
+        <v>221206</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="15"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="15"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="17" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4257,7 +4406,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -4277,7 +4426,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B15" s="45"/>
       <c r="E15" s="41" t="s">
@@ -4295,7 +4444,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B16" s="45"/>
       <c r="E16" s="41" t="s">
@@ -4313,7 +4462,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B17" s="45"/>
       <c r="E17" s="41" t="s">
@@ -4331,7 +4480,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B18" s="45"/>
       <c r="E18" s="41" t="s">
@@ -4349,7 +4498,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B19" s="45"/>
       <c r="E19" s="41" t="s">
@@ -4367,7 +4516,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B20" s="45"/>
       <c r="E20" s="41" t="s">
@@ -4385,10 +4534,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E21" s="41" t="s">
         <v>281</v>
@@ -4405,7 +4554,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B22" s="45"/>
       <c r="E22" s="41" t="s">
@@ -4423,10 +4572,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="45" t="s">
         <v>328</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>329</v>
       </c>
       <c r="E23" s="41" t="s">
         <v>268</v>
@@ -4443,52 +4592,52 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4500,10 +4649,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4589,7 +4738,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>60</v>
@@ -4650,7 +4799,7 @@
       <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="62" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="21" t="s">
@@ -4666,31 +4815,31 @@
         <v>63</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="55" t="s">
         <v>50</v>
       </c>
       <c r="I12" s="5">
         <v>4</v>
       </c>
       <c r="J12" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="K12" s="41" t="s">
         <v>392</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -4700,17 +4849,17 @@
       <c r="D13" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="54"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="22" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="55">
         <v>5</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="55" t="s">
         <v>65</v>
       </c>
       <c r="K13" s="43" t="s">
@@ -4723,7 +4872,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="23"/>
       <c r="E14" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -4807,8 +4956,8 @@
       <c r="D20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>299</v>
+      <c r="E20" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>54</v>
@@ -4882,7 +5031,7 @@
       <c r="D23" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="64" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="25" t="s">
@@ -4907,7 +5056,7 @@
       <c r="D24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="55"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="25" t="s">
         <v>92</v>
       </c>
@@ -4931,7 +5080,7 @@
         <v>80</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>60</v>
@@ -4958,7 +5107,7 @@
         <v>81</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>60</v>
@@ -5060,7 +5209,7 @@
         <v>85</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F30" s="25" t="s">
         <v>60</v>
@@ -5087,7 +5236,7 @@
         <v>86</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>60</v>
@@ -5115,7 +5264,7 @@
         <v>87</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>60</v>
@@ -5167,17 +5316,17 @@
       <c r="C34" s="17">
         <v>2</v>
       </c>
-      <c r="D34" s="62" t="s">
-        <v>402</v>
+      <c r="D34" s="60" t="s">
+        <v>401</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I34" s="25">
         <v>21</v>
@@ -5186,7 +5335,7 @@
         <v>145</v>
       </c>
       <c r="K34" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -5322,293 +5471,312 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="58">
+      <c r="C40" s="56">
         <v>8</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="59" t="s">
-        <v>398</v>
-      </c>
-      <c r="F40" s="61" t="s">
+      <c r="E40" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="F40" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="55">
         <v>26</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="J40" s="59" t="s">
         <v>150</v>
       </c>
       <c r="K40" s="43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="58">
-        <v>9</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" s="43">
-        <v>27</v>
-      </c>
-      <c r="J41" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="K41" s="43"/>
+      <c r="C41" s="60">
+        <v>8</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>443</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="I41" s="66">
+        <v>26</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="K41" s="41" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="58">
-        <v>10</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="58" t="s">
+      <c r="C42" s="56">
+        <v>9</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="58" t="s">
-        <v>141</v>
+      <c r="G42" s="56" t="s">
+        <v>140</v>
       </c>
       <c r="I42" s="43">
-        <v>28</v>
-      </c>
-      <c r="J42" s="58" t="s">
-        <v>152</v>
+        <v>27</v>
+      </c>
+      <c r="J42" s="56" t="s">
+        <v>151</v>
       </c>
       <c r="K42" s="43"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="58">
-        <v>11</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="58" t="s">
+      <c r="C43" s="56">
+        <v>10</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="58" t="s">
-        <v>142</v>
+      <c r="G43" s="56" t="s">
+        <v>141</v>
       </c>
       <c r="I43" s="43">
-        <v>29</v>
-      </c>
-      <c r="J43" s="58" t="s">
-        <v>153</v>
+        <v>28</v>
+      </c>
+      <c r="J43" s="56" t="s">
+        <v>152</v>
       </c>
       <c r="K43" s="43"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="17">
-        <v>12</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="17" t="s">
+      <c r="C44" s="56">
+        <v>11</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44" s="25">
-        <v>30</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44" s="25"/>
+      <c r="G44" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="43">
+        <v>29</v>
+      </c>
+      <c r="J44" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="K44" s="43"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="I45" s="31"/>
+      <c r="C45" s="17">
+        <v>12</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="25">
+        <v>30</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" s="25"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="17">
+      <c r="B48" s="30"/>
+      <c r="C48" s="17">
         <v>1</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D48" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E48" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F48" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G48" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I48" s="34">
         <v>31</v>
       </c>
-      <c r="J47" s="34" t="s">
+      <c r="J48" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="17">
-        <v>2</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I48" s="34">
-        <v>32</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="K48" s="34" t="s">
-        <v>161</v>
-      </c>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="I49" s="34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I50" s="34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
-      <c r="C51" s="32">
-        <v>5</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>397</v>
+      <c r="C51" s="17">
+        <v>4</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" s="34">
+        <v>34</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
+      <c r="C52" s="32">
+        <v>5</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="18"/>
@@ -5665,8 +5833,8 @@
       <c r="G58" s="32"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
       <c r="E59" s="32"/>
@@ -5674,97 +5842,95 @@
       <c r="G59" s="32"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="32">
+      <c r="B61" s="30"/>
+      <c r="C61" s="32">
         <v>1</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D61" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E61" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F61" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="G60" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="I60" s="32">
+      <c r="G61" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="I61" s="32">
         <v>35</v>
       </c>
-      <c r="J60" s="32" t="s">
+      <c r="J61" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="K60" s="32"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="32">
-        <v>2</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="I61" s="32">
-        <v>36</v>
-      </c>
-      <c r="J61" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="K61" s="41" t="s">
-        <v>400</v>
-      </c>
+      <c r="K61" s="32"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>44</v>
+        <v>171</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>340</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>173</v>
+        <v>60</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>399</v>
       </c>
       <c r="I62" s="32">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="K62" s="32"/>
+        <v>176</v>
+      </c>
+      <c r="K62" s="41" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
+      <c r="C63" s="32">
+        <v>3</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="G63" s="32" t="s">
-        <v>174</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="I63" s="32">
+        <v>37</v>
+      </c>
+      <c r="J63" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="K63" s="32"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="18"/>
@@ -5773,7 +5939,9 @@
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
+      <c r="G64" s="32" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
@@ -5839,94 +6007,89 @@
       <c r="G71" s="32"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="32"/>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
     </row>
-    <row r="73" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="23" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+    </row>
+    <row r="74" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="50">
+      <c r="B74" s="30"/>
+      <c r="C74" s="50">
         <v>1</v>
       </c>
-      <c r="D73" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="E73" s="29" t="s">
+      <c r="D74" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="E74" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="50" t="s">
+      <c r="F74" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="50" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="19"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="50">
-        <v>2</v>
-      </c>
-      <c r="D74" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="F74" s="50" t="s">
-        <v>60</v>
-      </c>
       <c r="G74" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="I74" s="50">
-        <v>60</v>
-      </c>
-      <c r="J74" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="K74" s="17" t="s">
-        <v>65</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="19"/>
       <c r="B75" s="18"/>
       <c r="C75" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>342</v>
       </c>
       <c r="F75" s="50" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G75" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
+        <v>65</v>
+      </c>
+      <c r="I75" s="50">
+        <v>60</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="76" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="19"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
+      <c r="C76" s="50">
+        <v>3</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="50" t="s">
+        <v>54</v>
+      </c>
       <c r="G76" s="50" t="s">
-        <v>428</v>
+        <v>173</v>
       </c>
       <c r="I76" s="50"/>
       <c r="J76" s="50"/>
@@ -5935,81 +6098,67 @@
     <row r="77" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="19"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="50">
-        <v>4</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F77" s="50" t="s">
-        <v>54</v>
-      </c>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
       <c r="G77" s="50" t="s">
-        <v>429</v>
-      </c>
-      <c r="I77" s="50">
-        <v>61</v>
-      </c>
-      <c r="J77" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="K77" s="17" t="s">
-        <v>437</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
     </row>
     <row r="78" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="19"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="50"/>
+      <c r="C78" s="50">
+        <v>4</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="50" t="s">
+        <v>54</v>
+      </c>
       <c r="G78" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
+        <v>428</v>
+      </c>
+      <c r="I78" s="50">
+        <v>61</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="79" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="19"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="50">
-        <v>5</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F79" s="50" t="s">
-        <v>54</v>
-      </c>
+      <c r="C79" s="50"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="50"/>
       <c r="G79" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="I79" s="50">
-        <v>62</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="K79" s="17" t="s">
-        <v>439</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
     </row>
     <row r="80" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="19"/>
       <c r="B80" s="18"/>
       <c r="C80" s="50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>44</v>
@@ -6018,26 +6167,26 @@
         <v>54</v>
       </c>
       <c r="G80" s="50" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I80" s="50">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K80" s="17" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="19"/>
       <c r="B81" s="18"/>
       <c r="C81" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>44</v>
@@ -6046,35 +6195,54 @@
         <v>54</v>
       </c>
       <c r="G81" s="50" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I81" s="50">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K81" s="17" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
       <c r="B82" s="18"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
+      <c r="C82" s="50">
+        <v>7</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="I82" s="50">
+        <v>64</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="83" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="19"/>
       <c r="B83" s="18"/>
       <c r="C83" s="50"/>
       <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
+      <c r="E83" s="49" t="s">
+        <v>339</v>
+      </c>
       <c r="F83" s="50"/>
       <c r="G83" s="50"/>
     </row>
@@ -6105,967 +6273,1171 @@
       <c r="F86" s="50"/>
       <c r="G86" s="50"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A87" s="4"/>
-      <c r="B87" s="3"/>
+    <row r="87" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="19"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="50"/>
       <c r="D87" s="50"/>
       <c r="E87" s="50"/>
       <c r="F87" s="50"/>
       <c r="G87" s="50"/>
     </row>
-    <row r="88" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A90" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>52</v>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+    </row>
+    <row r="89" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B89" s="30"/>
+      <c r="C89" s="17">
+        <v>1</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="19"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="17">
+        <v>2</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="E90" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I90" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="J90" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="K90" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A91" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="36">
-        <v>1</v>
-      </c>
-      <c r="D91" s="36" t="s">
-        <v>132</v>
+        <v>451</v>
+      </c>
+      <c r="I90" s="53">
+        <v>65</v>
+      </c>
+      <c r="J90" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="K90" s="17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="19"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="17">
+        <v>3</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>450</v>
       </c>
       <c r="E91" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="36" t="s">
+      <c r="F91" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="I91" s="53">
+        <v>66</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="K91" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="19"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+    </row>
+    <row r="93" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="19"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+    </row>
+    <row r="94" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="19"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+    </row>
+    <row r="95" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="19"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+    </row>
+    <row r="96" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="19"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="53"/>
+    </row>
+    <row r="97" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="19"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="53"/>
+    </row>
+    <row r="98" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="19"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53"/>
+    </row>
+    <row r="99" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="19"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+    </row>
+    <row r="100" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="19"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+    </row>
+    <row r="101" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="4"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+    </row>
+    <row r="102" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="31"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+    </row>
+    <row r="103" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="31"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+    </row>
+    <row r="104" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+    </row>
+    <row r="105" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J107" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K107" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="36">
+        <v>1</v>
+      </c>
+      <c r="D108" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="G91" s="36" t="s">
+      <c r="E108" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G108" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I91" s="36">
+      <c r="I108" s="36">
         <v>38</v>
       </c>
-      <c r="J91" s="36" t="s">
+      <c r="J108" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="K91" s="36"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A92" s="19"/>
-      <c r="C92" s="36">
-        <v>2</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F92" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G92" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I92" s="36">
-        <v>16</v>
-      </c>
-      <c r="J92" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="K92" s="36"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A93" s="19"/>
-      <c r="C93" s="36">
-        <v>3</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F93" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G93" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I93" s="36">
-        <v>39</v>
-      </c>
-      <c r="J93" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="K93" s="36"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A94" s="19"/>
-      <c r="C94" s="36">
-        <v>4</v>
-      </c>
-      <c r="D94" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F94" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G94" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="I94" s="36">
-        <v>17</v>
-      </c>
-      <c r="J94" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="K94" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A95" s="19"/>
-      <c r="C95" s="36">
-        <v>5</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F95" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G95" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I95" s="17">
-        <v>40</v>
-      </c>
-      <c r="J95" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="K95" s="36"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A96" s="19"/>
-      <c r="C96" s="36">
-        <v>6</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G96" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I96" s="17">
-        <v>41</v>
-      </c>
-      <c r="J96" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="K96" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A97" s="19"/>
-      <c r="C97" s="36">
-        <v>7</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E97" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F97" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G97" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="I97" s="17">
-        <v>42</v>
-      </c>
-      <c r="J97" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="K97" s="36"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A98" s="19"/>
-      <c r="C98" s="36">
-        <v>8</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F98" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="G98" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="I98" s="17">
-        <v>43</v>
-      </c>
-      <c r="J98" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K98" s="36"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A99" s="19"/>
-      <c r="C99" s="36">
-        <v>9</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F99" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G99" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I99" s="17">
-        <v>44</v>
-      </c>
-      <c r="J99" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="K99" s="36"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A100" s="19"/>
-      <c r="C100" s="36">
-        <v>10</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="F100" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G100" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="I100" s="17">
-        <v>45</v>
-      </c>
-      <c r="J100" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="K100" s="36" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A101" s="19"/>
-      <c r="C101" s="36">
-        <v>11</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E101" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F101" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="I101" s="17">
-        <v>46</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="K101" s="36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A102" s="19"/>
-      <c r="C102" s="36">
-        <v>12</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F102" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G102" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I102" s="17">
-        <v>40</v>
-      </c>
-      <c r="J102" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="K102" s="36"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A103" s="19"/>
-      <c r="C103" s="36">
-        <v>13</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E103" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="F103" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G103" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I103" s="17">
-        <v>47</v>
-      </c>
-      <c r="J103" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="K103" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A104" s="19"/>
-      <c r="C104" s="36">
-        <v>14</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E104" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F104" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G104" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="I104" s="17">
-        <v>42</v>
-      </c>
-      <c r="J104" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="K104" s="36"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A105" s="19"/>
-      <c r="C105" s="36">
-        <v>15</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E105" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F105" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="G105" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="I105" s="17">
-        <v>43</v>
-      </c>
-      <c r="J105" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K105" s="36"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A106" s="19"/>
-      <c r="C106" s="36">
-        <v>16</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F106" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G106" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I106" s="17">
-        <v>44</v>
-      </c>
-      <c r="J106" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="K106" s="36"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A107" s="19"/>
-      <c r="C107" s="36">
-        <v>17</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E107" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="F107" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G107" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="I107" s="17">
-        <v>48</v>
-      </c>
-      <c r="J107" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="K107" s="36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A108" s="19"/>
-      <c r="C108" s="36">
-        <v>18</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E108" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F108" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G108" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="I108" s="17">
-        <v>49</v>
-      </c>
-      <c r="J108" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="K108" s="36" t="s">
-        <v>204</v>
-      </c>
+      <c r="K108" s="36"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="19"/>
       <c r="C109" s="36">
-        <v>19</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="F109" s="36" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="G109" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I109" s="17">
-        <v>40</v>
-      </c>
-      <c r="J109" s="17" t="s">
-        <v>234</v>
+      <c r="I109" s="36">
+        <v>16</v>
+      </c>
+      <c r="J109" s="36" t="s">
+        <v>109</v>
       </c>
       <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="19"/>
       <c r="C110" s="36">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E110" s="44" t="s">
-        <v>339</v>
+        <v>194</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F110" s="36" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G110" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I110" s="17">
-        <v>50</v>
-      </c>
-      <c r="J110" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K110" s="36" t="s">
-        <v>247</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="I110" s="36">
+        <v>39</v>
+      </c>
+      <c r="J110" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K110" s="36"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="19"/>
       <c r="C111" s="36">
-        <v>21</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E111" s="36" t="s">
-        <v>210</v>
+        <v>4</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="F111" s="36" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="G111" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="I111" s="17">
-        <v>42</v>
-      </c>
-      <c r="J111" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="K111" s="36"/>
+        <v>209</v>
+      </c>
+      <c r="I111" s="36">
+        <v>17</v>
+      </c>
+      <c r="J111" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="K111" s="36" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="19"/>
       <c r="C112" s="36">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E112" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F112" s="36" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="I112" s="17">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J112" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="19"/>
       <c r="C113" s="36">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E113" s="29" t="s">
-        <v>44</v>
+        <v>196</v>
+      </c>
+      <c r="E113" s="44" t="s">
+        <v>338</v>
       </c>
       <c r="F113" s="36" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G113" s="36" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="I113" s="17">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="K113" s="36"/>
+        <v>236</v>
+      </c>
+      <c r="K113" s="36" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="19"/>
       <c r="C114" s="36">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E114" s="44" t="s">
-        <v>340</v>
+        <v>199</v>
+      </c>
+      <c r="E114" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="F114" s="36" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="G114" s="36" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I114" s="17">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="K114" s="36" t="s">
-        <v>206</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="19"/>
-      <c r="B115" s="18"/>
       <c r="C115" s="36">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E115" s="44" t="s">
-        <v>341</v>
+        <v>198</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F115" s="36" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="G115" s="36" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I115" s="17">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K115" s="36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+      <c r="K115" s="36"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="19"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="50">
-        <v>26</v>
+      <c r="C116" s="36">
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>404</v>
+        <v>197</v>
       </c>
       <c r="E116" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F116" s="50" t="s">
+      <c r="F116" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G116" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="50"/>
+      <c r="G116" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I116" s="17">
+        <v>44</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="K116" s="36"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A117" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="17">
-        <v>1</v>
+      <c r="A117" s="19"/>
+      <c r="C117" s="36">
+        <v>10</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G117" s="17" t="s">
-        <v>61</v>
+        <v>200</v>
+      </c>
+      <c r="E117" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F117" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G117" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="I117" s="17">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K117" s="36"/>
+        <v>240</v>
+      </c>
+      <c r="K117" s="36" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="19"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="17">
-        <v>2</v>
+      <c r="C118" s="36">
+        <v>11</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G118" s="17" t="s">
-        <v>61</v>
+        <v>201</v>
+      </c>
+      <c r="E118" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F118" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G118" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="I118" s="17">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K118" s="36"/>
+        <v>235</v>
+      </c>
+      <c r="K118" s="36" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="19"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="17">
-        <v>3</v>
+      <c r="C119" s="36">
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E119" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G119" s="17" t="s">
-        <v>227</v>
+        <v>195</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G119" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I119" s="17">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="K119" s="17" t="s">
-        <v>222</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="K119" s="36"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="19"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="17">
-        <v>4</v>
+      <c r="C120" s="36">
+        <v>13</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E120" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F120" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F120" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G120" s="17" t="s">
-        <v>228</v>
+      <c r="G120" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I120" s="17">
-        <v>56</v>
-      </c>
-      <c r="J120" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="K120" s="17" t="s">
-        <v>223</v>
+        <v>47</v>
+      </c>
+      <c r="J120" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="K120" s="36" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="19"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="17">
-        <v>5</v>
+      <c r="C121" s="36">
+        <v>14</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E121" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G121" s="17" t="s">
-        <v>230</v>
+        <v>199</v>
+      </c>
+      <c r="E121" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F121" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G121" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="I121" s="17">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="K121" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="K121" s="36"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="19"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="17">
-        <v>6</v>
+      <c r="C122" s="36">
+        <v>15</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E122" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F122" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>229</v>
+        <v>198</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G122" s="36" t="s">
+        <v>212</v>
       </c>
       <c r="I122" s="17">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="K122" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="19"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="17">
-        <v>7</v>
+      <c r="C123" s="36">
+        <v>16</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E123" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F123" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G123" s="17" t="s">
-        <v>231</v>
+      <c r="G123" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="I123" s="17">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="K123" s="17" t="s">
-        <v>257</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="19"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="36"/>
+      <c r="C124" s="36">
+        <v>17</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E124" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F124" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="I124" s="17">
+        <v>48</v>
+      </c>
+      <c r="J124" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="K124" s="36" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="19"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="36"/>
+      <c r="C125" s="36">
+        <v>18</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E125" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F125" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G125" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="I125" s="17">
+        <v>49</v>
+      </c>
+      <c r="J125" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K125" s="36" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="19"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
+      <c r="C126" s="36">
+        <v>19</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G126" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I126" s="17">
+        <v>40</v>
+      </c>
+      <c r="J126" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="19"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
+      <c r="C127" s="36">
+        <v>20</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E127" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="F127" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G127" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I127" s="17">
+        <v>50</v>
+      </c>
+      <c r="J127" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="K127" s="36" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="19"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A129" s="4"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
+      <c r="C128" s="36">
+        <v>21</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E128" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G128" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I128" s="17">
+        <v>42</v>
+      </c>
+      <c r="J128" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="K128" s="36"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A129" s="19"/>
+      <c r="C129" s="36">
+        <v>22</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G129" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="I129" s="17">
+        <v>43</v>
+      </c>
+      <c r="J129" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="K129" s="36"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A130" s="19"/>
+      <c r="C130" s="36">
+        <v>23</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F130" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I130" s="17">
+        <v>44</v>
+      </c>
+      <c r="J130" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="K130" s="36"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A131" s="19"/>
+      <c r="C131" s="36">
+        <v>24</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E131" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F131" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G131" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="I131" s="17">
+        <v>51</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="K131" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A132" s="19"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="36">
+        <v>25</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E132" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F132" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G132" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="I132" s="17">
+        <v>52</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="K132" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="19"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="50">
+        <v>26</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E133" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="50"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A134" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" s="30"/>
+      <c r="C134" s="17">
+        <v>1</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I134" s="17">
+        <v>53</v>
+      </c>
+      <c r="J134" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K134" s="36"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A135" s="19"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="17">
+        <v>2</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I135" s="17">
+        <v>54</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K135" s="36"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A136" s="19"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="17">
+        <v>3</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E136" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I136" s="17">
+        <v>55</v>
+      </c>
+      <c r="J136" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K136" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A137" s="19"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="17">
+        <v>4</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E137" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I137" s="17">
+        <v>56</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="K137" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A138" s="19"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="17">
+        <v>5</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E138" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I138" s="17">
+        <v>57</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="K138" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A139" s="19"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="17">
+        <v>6</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E139" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="I139" s="17">
+        <v>58</v>
+      </c>
+      <c r="J139" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="K139" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A140" s="19"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="17">
+        <v>7</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E140" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I140" s="17">
+        <v>59</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="K140" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A141" s="19"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="36"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A142" s="19"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="36"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A143" s="19"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A144" s="19"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A145" s="19"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A146" s="4"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7090,70 +7462,74 @@
     <hyperlink ref="E37" r:id="rId14" xr:uid="{E139278C-A8E0-4967-BA8D-FC647AA69112}"/>
     <hyperlink ref="E39" r:id="rId15" xr:uid="{EDB16083-B881-45D7-83EE-C0085B0E0428}"/>
     <hyperlink ref="E38" r:id="rId16" display="https://www.flaticon.com/free-icon/cardiology_1863303?term=alive&amp;page=1&amp;position=14&amp;page=1&amp;position=14&amp;related_id=1863303&amp;origin=search" xr:uid="{43FA66B1-405D-455F-B5C8-E786B40A78AA}"/>
-    <hyperlink ref="E41" r:id="rId17" display="https://www.flaticon.com/free-icon/stay-at-home_3096566?term=quarantine&amp;page=1&amp;position=64&amp;page=1&amp;position=64&amp;related_id=3096566&amp;origin=search" xr:uid="{2993A694-58DD-4815-8C4E-B4F395FF4B12}"/>
-    <hyperlink ref="E42" r:id="rId18" display="https://www.flaticon.com/free-icon/plane_8238469?term=airport&amp;page=1&amp;position=58&amp;page=1&amp;position=58&amp;related_id=8238469&amp;origin=search" xr:uid="{4A48EF3E-3034-40E6-BDD5-4475619FE5E7}"/>
-    <hyperlink ref="E43" r:id="rId19" display="https://www.flaticon.com/free-icon/anchor_3001032?related_id=3001032&amp;origin=tag" xr:uid="{EFE78EC9-903A-4171-B530-9CD42E737618}"/>
-    <hyperlink ref="E44" r:id="rId20" display="https://www.flaticon.com/free-icon/close_2997911?term=x&amp;page=1&amp;position=6&amp;page=1&amp;position=6&amp;related_id=2997911&amp;origin=search" xr:uid="{03778FEC-295D-4F80-9F55-85F776B020FB}"/>
-    <hyperlink ref="E47" r:id="rId21" xr:uid="{D11AB1F0-9C43-4266-87A4-780C04576352}"/>
-    <hyperlink ref="E62" r:id="rId22" xr:uid="{7096442D-53A7-4A86-968B-10DD156BF3F2}"/>
-    <hyperlink ref="E60" r:id="rId23" xr:uid="{6E4A20A0-493C-4DB6-9FBB-03550309BABE}"/>
-    <hyperlink ref="E20" r:id="rId24" display="https://simplemaps.com/resources/svg-world" xr:uid="{1A07D5E6-633E-459C-A7B9-666BE7933A80}"/>
-    <hyperlink ref="E34" r:id="rId25" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{17F7991A-0F39-4AEC-83B0-1FC8BDD34310}"/>
-    <hyperlink ref="E40" r:id="rId26" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{0FBE8103-A710-4ED3-B54A-AB42FC2606C2}"/>
-    <hyperlink ref="E48" r:id="rId27" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BAC3C1C3-8F11-4D30-934D-7B6CAB25519D}"/>
-    <hyperlink ref="E50" r:id="rId28" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{F76D5126-5232-4922-B84A-FC19827B0A25}"/>
-    <hyperlink ref="E49" r:id="rId29" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{D0214770-B410-4C4C-A54B-59C85613B594}"/>
-    <hyperlink ref="E61" r:id="rId30" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{AEA26864-F89D-4D62-8F64-8AD82E664AFC}"/>
-    <hyperlink ref="E101" r:id="rId31" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C520BE2B-512C-4A03-B807-EFE0FA080A11}"/>
-    <hyperlink ref="E108" r:id="rId32" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{84437805-A63F-4C83-90D5-A2AF927BC26D}"/>
-    <hyperlink ref="E115" r:id="rId33" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{5A9C5EB8-F261-4C96-BD93-DA34F0ECC7B6}"/>
-    <hyperlink ref="E120" r:id="rId34" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{9394A10A-4ECA-4D04-815B-016E0A021DE7}"/>
-    <hyperlink ref="E122" r:id="rId35" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{A3E48742-A63C-4F5A-9A0A-E53AFD4551A4}"/>
-    <hyperlink ref="E123" r:id="rId36" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{CD60E30E-7CFA-40B8-952C-3C5E64D24AD8}"/>
-    <hyperlink ref="E91" r:id="rId37" xr:uid="{50A778A7-247C-422E-AF51-B818EFE47071}"/>
-    <hyperlink ref="E92" r:id="rId38" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
-    <hyperlink ref="E93" r:id="rId39" xr:uid="{977D727D-092C-4E77-878B-5F484801E44F}"/>
-    <hyperlink ref="E95" r:id="rId40" xr:uid="{D083F051-8CF7-40B6-B10C-9D58B2F4BA1E}"/>
-    <hyperlink ref="E98" r:id="rId41" xr:uid="{B230A4D2-52CF-4130-BB9B-849810E27BB6}"/>
-    <hyperlink ref="E99" r:id="rId42" xr:uid="{FB4943FD-BA78-4CA2-8F96-194C44603173}"/>
-    <hyperlink ref="E102" r:id="rId43" xr:uid="{42183E86-07D9-41FE-825C-8D7E49A8D204}"/>
-    <hyperlink ref="E105" r:id="rId44" xr:uid="{7B0DD3BA-C831-48CC-8EC5-87E799015FA7}"/>
-    <hyperlink ref="E106" r:id="rId45" xr:uid="{CCABC04A-E413-40CB-A65A-55265BDAF4CC}"/>
-    <hyperlink ref="E109" r:id="rId46" xr:uid="{B8136907-6CDA-4758-827D-AFFF71D7FA6D}"/>
-    <hyperlink ref="E112" r:id="rId47" xr:uid="{ED1C7C56-0124-41AC-944B-BB36277D337F}"/>
-    <hyperlink ref="E113" r:id="rId48" xr:uid="{BC8B4591-D7CF-43AA-92EC-45AD02DEC5F1}"/>
-    <hyperlink ref="E117" r:id="rId49" xr:uid="{5B3FE029-7779-4811-AAF5-9AF3BFB03950}"/>
-    <hyperlink ref="E118" r:id="rId50" xr:uid="{E1762F4C-D849-40D7-AEF2-460263AA7905}"/>
-    <hyperlink ref="E100" r:id="rId51" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{8D9F31B9-63CB-4289-9B59-B0F3908BA9C1}"/>
-    <hyperlink ref="E107" r:id="rId52" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{04A8FDDB-27B5-4519-BB66-A3A2647CFF4B}"/>
-    <hyperlink ref="E114" r:id="rId53" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2F7BC736-8CF5-4D6A-82EC-B9DB1088924A}"/>
-    <hyperlink ref="E96" r:id="rId54" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BD4F4309-2294-4431-8919-4E5E0BA894DA}"/>
-    <hyperlink ref="E103" r:id="rId55" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{24425278-15BF-44BE-ABD0-E68579922E93}"/>
-    <hyperlink ref="E110" r:id="rId56" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{6A21F50C-DF13-4F24-B98A-D31C14680622}"/>
-    <hyperlink ref="E119" r:id="rId57" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{B0EE0B84-87D2-49A7-BDF3-164EF26059D9}"/>
-    <hyperlink ref="E121" r:id="rId58" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C8A2F1E0-23BD-45F5-87E3-24C720DB6B5C}"/>
-    <hyperlink ref="E8" r:id="rId59" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{CA9379A2-ED9E-4CA8-92E8-79D606690429}"/>
-    <hyperlink ref="E14" r:id="rId60" display="https://fonts.google.com/specimen/Dosis" xr:uid="{5B160C99-E667-450C-9776-63CB90260332}"/>
-    <hyperlink ref="E25" r:id="rId61" display="https://fonts.google.com/specimen/Dosis" xr:uid="{46AB7665-D4CD-406E-B6E9-A3CD26062F2A}"/>
-    <hyperlink ref="E26" r:id="rId62" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9B167C52-948B-4676-BCD1-AEE7074B97F1}"/>
-    <hyperlink ref="E30" r:id="rId63" display="https://fonts.google.com/specimen/Dosis" xr:uid="{AD798504-8243-48B2-A953-BA851015534E}"/>
-    <hyperlink ref="E32" r:id="rId64" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9596B8AC-08BF-4418-AB3E-A366E713A453}"/>
-    <hyperlink ref="E31" r:id="rId65" display="https://fonts.google.com/specimen/Dosis" xr:uid="{D2F4AFC0-E407-4372-925E-2A10A09C2EA5}"/>
-    <hyperlink ref="E94" r:id="rId66" display="https://fonts.google.com/specimen/Dosis" xr:uid="{CFB7F020-6EC3-48A0-8B28-788F631EAE6B}"/>
-    <hyperlink ref="E51" r:id="rId67" xr:uid="{24BD5BB7-DE1B-46A3-B879-F0677C3A0182}"/>
-    <hyperlink ref="E116" r:id="rId68" xr:uid="{CD5188D6-9895-49BC-877E-D406B45D7AC7}"/>
-    <hyperlink ref="E75" r:id="rId69" xr:uid="{38F5040E-C625-4BBA-AB1D-2B29C1AB72D9}"/>
-    <hyperlink ref="E74" r:id="rId70" display="https://fonts.google.com/specimen/Dosis" xr:uid="{63DF1793-1A16-441F-A209-CC3DFF05B240}"/>
-    <hyperlink ref="E73" r:id="rId71" xr:uid="{5CA8A5AE-0621-40DE-8C19-569358E5315E}"/>
-    <hyperlink ref="E77" r:id="rId72" xr:uid="{D5FCE6FA-D691-499A-A4B6-FBF11394423A}"/>
-    <hyperlink ref="E80" r:id="rId73" xr:uid="{C26B5F25-9972-4097-9B10-F0920616BEC4}"/>
-    <hyperlink ref="E79" r:id="rId74" xr:uid="{A4C485AB-A26F-4215-9554-B3BE5B09A2F1}"/>
-    <hyperlink ref="E81" r:id="rId75" xr:uid="{136A8BB3-46F8-46C6-A793-449F6C8FBA43}"/>
-    <hyperlink ref="E82" r:id="rId76" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2AA02F48-400A-46DD-9313-5D431FFE4241}"/>
+    <hyperlink ref="E42" r:id="rId17" display="https://www.flaticon.com/free-icon/stay-at-home_3096566?term=quarantine&amp;page=1&amp;position=64&amp;page=1&amp;position=64&amp;related_id=3096566&amp;origin=search" xr:uid="{2993A694-58DD-4815-8C4E-B4F395FF4B12}"/>
+    <hyperlink ref="E43" r:id="rId18" display="https://www.flaticon.com/free-icon/plane_8238469?term=airport&amp;page=1&amp;position=58&amp;page=1&amp;position=58&amp;related_id=8238469&amp;origin=search" xr:uid="{4A48EF3E-3034-40E6-BDD5-4475619FE5E7}"/>
+    <hyperlink ref="E44" r:id="rId19" display="https://www.flaticon.com/free-icon/anchor_3001032?related_id=3001032&amp;origin=tag" xr:uid="{EFE78EC9-903A-4171-B530-9CD42E737618}"/>
+    <hyperlink ref="E45" r:id="rId20" display="https://www.flaticon.com/free-icon/close_2997911?term=x&amp;page=1&amp;position=6&amp;page=1&amp;position=6&amp;related_id=2997911&amp;origin=search" xr:uid="{03778FEC-295D-4F80-9F55-85F776B020FB}"/>
+    <hyperlink ref="E48" r:id="rId21" xr:uid="{D11AB1F0-9C43-4266-87A4-780C04576352}"/>
+    <hyperlink ref="E63" r:id="rId22" xr:uid="{7096442D-53A7-4A86-968B-10DD156BF3F2}"/>
+    <hyperlink ref="E61" r:id="rId23" xr:uid="{6E4A20A0-493C-4DB6-9FBB-03550309BABE}"/>
+    <hyperlink ref="E34" r:id="rId24" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{17F7991A-0F39-4AEC-83B0-1FC8BDD34310}"/>
+    <hyperlink ref="E40" r:id="rId25" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{0FBE8103-A710-4ED3-B54A-AB42FC2606C2}"/>
+    <hyperlink ref="E49" r:id="rId26" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BAC3C1C3-8F11-4D30-934D-7B6CAB25519D}"/>
+    <hyperlink ref="E51" r:id="rId27" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{F76D5126-5232-4922-B84A-FC19827B0A25}"/>
+    <hyperlink ref="E50" r:id="rId28" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{D0214770-B410-4C4C-A54B-59C85613B594}"/>
+    <hyperlink ref="E62" r:id="rId29" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{AEA26864-F89D-4D62-8F64-8AD82E664AFC}"/>
+    <hyperlink ref="E125" r:id="rId30" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{84437805-A63F-4C83-90D5-A2AF927BC26D}"/>
+    <hyperlink ref="E132" r:id="rId31" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{5A9C5EB8-F261-4C96-BD93-DA34F0ECC7B6}"/>
+    <hyperlink ref="E137" r:id="rId32" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{9394A10A-4ECA-4D04-815B-016E0A021DE7}"/>
+    <hyperlink ref="E139" r:id="rId33" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{A3E48742-A63C-4F5A-9A0A-E53AFD4551A4}"/>
+    <hyperlink ref="E140" r:id="rId34" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{CD60E30E-7CFA-40B8-952C-3C5E64D24AD8}"/>
+    <hyperlink ref="E122" r:id="rId35" xr:uid="{7B0DD3BA-C831-48CC-8EC5-87E799015FA7}"/>
+    <hyperlink ref="E123" r:id="rId36" xr:uid="{CCABC04A-E413-40CB-A65A-55265BDAF4CC}"/>
+    <hyperlink ref="E126" r:id="rId37" xr:uid="{B8136907-6CDA-4758-827D-AFFF71D7FA6D}"/>
+    <hyperlink ref="E129" r:id="rId38" xr:uid="{ED1C7C56-0124-41AC-944B-BB36277D337F}"/>
+    <hyperlink ref="E130" r:id="rId39" xr:uid="{BC8B4591-D7CF-43AA-92EC-45AD02DEC5F1}"/>
+    <hyperlink ref="E134" r:id="rId40" xr:uid="{5B3FE029-7779-4811-AAF5-9AF3BFB03950}"/>
+    <hyperlink ref="E135" r:id="rId41" xr:uid="{E1762F4C-D849-40D7-AEF2-460263AA7905}"/>
+    <hyperlink ref="E124" r:id="rId42" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{04A8FDDB-27B5-4519-BB66-A3A2647CFF4B}"/>
+    <hyperlink ref="E131" r:id="rId43" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2F7BC736-8CF5-4D6A-82EC-B9DB1088924A}"/>
+    <hyperlink ref="E120" r:id="rId44" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{24425278-15BF-44BE-ABD0-E68579922E93}"/>
+    <hyperlink ref="E127" r:id="rId45" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{6A21F50C-DF13-4F24-B98A-D31C14680622}"/>
+    <hyperlink ref="E136" r:id="rId46" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{B0EE0B84-87D2-49A7-BDF3-164EF26059D9}"/>
+    <hyperlink ref="E138" r:id="rId47" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C8A2F1E0-23BD-45F5-87E3-24C720DB6B5C}"/>
+    <hyperlink ref="E8" r:id="rId48" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{CA9379A2-ED9E-4CA8-92E8-79D606690429}"/>
+    <hyperlink ref="E14" r:id="rId49" display="https://fonts.google.com/specimen/Dosis" xr:uid="{5B160C99-E667-450C-9776-63CB90260332}"/>
+    <hyperlink ref="E25" r:id="rId50" display="https://fonts.google.com/specimen/Dosis" xr:uid="{46AB7665-D4CD-406E-B6E9-A3CD26062F2A}"/>
+    <hyperlink ref="E26" r:id="rId51" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9B167C52-948B-4676-BCD1-AEE7074B97F1}"/>
+    <hyperlink ref="E30" r:id="rId52" display="https://fonts.google.com/specimen/Dosis" xr:uid="{AD798504-8243-48B2-A953-BA851015534E}"/>
+    <hyperlink ref="E32" r:id="rId53" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9596B8AC-08BF-4418-AB3E-A366E713A453}"/>
+    <hyperlink ref="E31" r:id="rId54" display="https://fonts.google.com/specimen/Dosis" xr:uid="{D2F4AFC0-E407-4372-925E-2A10A09C2EA5}"/>
+    <hyperlink ref="E52" r:id="rId55" xr:uid="{24BD5BB7-DE1B-46A3-B879-F0677C3A0182}"/>
+    <hyperlink ref="E133" r:id="rId56" xr:uid="{CD5188D6-9895-49BC-877E-D406B45D7AC7}"/>
+    <hyperlink ref="E76" r:id="rId57" xr:uid="{38F5040E-C625-4BBA-AB1D-2B29C1AB72D9}"/>
+    <hyperlink ref="E75" r:id="rId58" display="https://fonts.google.com/specimen/Dosis" xr:uid="{63DF1793-1A16-441F-A209-CC3DFF05B240}"/>
+    <hyperlink ref="E74" r:id="rId59" xr:uid="{5CA8A5AE-0621-40DE-8C19-569358E5315E}"/>
+    <hyperlink ref="E78" r:id="rId60" xr:uid="{D5FCE6FA-D691-499A-A4B6-FBF11394423A}"/>
+    <hyperlink ref="E81" r:id="rId61" xr:uid="{C26B5F25-9972-4097-9B10-F0920616BEC4}"/>
+    <hyperlink ref="E80" r:id="rId62" xr:uid="{A4C485AB-A26F-4215-9554-B3BE5B09A2F1}"/>
+    <hyperlink ref="E82" r:id="rId63" xr:uid="{136A8BB3-46F8-46C6-A793-449F6C8FBA43}"/>
+    <hyperlink ref="E83" r:id="rId64" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2AA02F48-400A-46DD-9313-5D431FFE4241}"/>
+    <hyperlink ref="E41" r:id="rId65" xr:uid="{0DF28670-E556-4155-9EF1-57CEB74E83DE}"/>
+    <hyperlink ref="E111" r:id="rId66" display="https://fonts.google.com/specimen/Dosis" xr:uid="{CFB7F020-6EC3-48A0-8B28-788F631EAE6B}"/>
+    <hyperlink ref="E113" r:id="rId67" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BD4F4309-2294-4431-8919-4E5E0BA894DA}"/>
+    <hyperlink ref="E117" r:id="rId68" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{8D9F31B9-63CB-4289-9B59-B0F3908BA9C1}"/>
+    <hyperlink ref="E119" r:id="rId69" xr:uid="{42183E86-07D9-41FE-825C-8D7E49A8D204}"/>
+    <hyperlink ref="E116" r:id="rId70" xr:uid="{FB4943FD-BA78-4CA2-8F96-194C44603173}"/>
+    <hyperlink ref="E115" r:id="rId71" xr:uid="{B230A4D2-52CF-4130-BB9B-849810E27BB6}"/>
+    <hyperlink ref="E112" r:id="rId72" xr:uid="{D083F051-8CF7-40B6-B10C-9D58B2F4BA1E}"/>
+    <hyperlink ref="E110" r:id="rId73" xr:uid="{977D727D-092C-4E77-878B-5F484801E44F}"/>
+    <hyperlink ref="E109" r:id="rId74" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
+    <hyperlink ref="E108" r:id="rId75" xr:uid="{50A778A7-247C-422E-AF51-B818EFE47071}"/>
+    <hyperlink ref="E118" r:id="rId76" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C520BE2B-512C-4A03-B807-EFE0FA080A11}"/>
+    <hyperlink ref="E89" r:id="rId77" xr:uid="{42DE131B-6F33-4CDE-B905-24CFB703E08A}"/>
+    <hyperlink ref="E91" r:id="rId78" xr:uid="{5F95B812-4303-4962-8854-1F626AD025F6}"/>
+    <hyperlink ref="E90" r:id="rId79" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{48631F0D-1A2B-4A58-8EFE-FA1720A44100}"/>
+    <hyperlink ref="E92" r:id="rId80" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{340DBF11-1859-44FB-A5A4-C11048E23AA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId77"/>
-  <drawing r:id="rId78"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId81"/>
+  <drawing r:id="rId82"/>
 </worksheet>
 </file>
 
@@ -7162,7 +7538,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7174,49 +7550,51 @@
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="C5" s="50" t="s">
         <v>410</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="50" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="B8" s="50"/>
+        <v>413</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>458</v>
+      </c>
       <c r="C8" s="50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -7224,6 +7602,7 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{557193E2-48E1-4E8F-8BBA-535CE403EB29}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{517FA4C4-A674-4917-AC47-8990E529DB8C}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{B97B6C4F-252E-42EE-8412-5E8BBDDE553E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7253,21 +7632,21 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -7276,44 +7655,44 @@
     </row>
     <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="C7" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="D7" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="E7" s="48" t="s">
         <v>362</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="48" t="s">
         <v>364</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>365</v>
       </c>
       <c r="C8" s="48">
         <v>1</v>
@@ -7327,10 +7706,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9" s="48">
         <v>2</v>
@@ -7344,10 +7723,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" s="48">
         <v>3</v>
@@ -7361,10 +7740,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11" s="48">
         <v>5</v>
@@ -7378,10 +7757,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>368</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>369</v>
       </c>
       <c r="C12" s="48">
         <v>2</v>
@@ -7395,10 +7774,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>370</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>371</v>
       </c>
       <c r="C13" s="48">
         <v>3</v>
@@ -7412,10 +7791,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>372</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>373</v>
       </c>
       <c r="C14" s="48">
         <v>5</v>
@@ -7429,10 +7808,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" s="48" t="s">
         <v>374</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>375</v>
       </c>
       <c r="C15" s="48">
         <v>3</v>
@@ -7446,10 +7825,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" s="48">
         <v>4</v>
@@ -7463,10 +7842,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>377</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>378</v>
       </c>
       <c r="C17" s="48">
         <v>4</v>
@@ -7480,10 +7859,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>379</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>380</v>
       </c>
       <c r="C18" s="48">
         <v>5</v>
@@ -7497,10 +7876,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>381</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>382</v>
       </c>
       <c r="C19" s="48">
         <v>3</v>
@@ -7514,10 +7893,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>383</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>384</v>
       </c>
       <c r="C20" s="48">
         <v>4</v>
@@ -7531,10 +7910,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21" s="48" t="s">
         <v>385</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>386</v>
       </c>
       <c r="C21" s="48">
         <v>2</v>
@@ -7548,10 +7927,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>387</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>388</v>
       </c>
       <c r="C22" s="48">
         <v>4</v>
@@ -7575,10 +7954,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F3AECC-2F8D-42AD-B1A0-07064297A236}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7592,49 +7971,74 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="53" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="B7" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="C7" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E7" s="53" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>357</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>302</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE8CA6-5141-4497-A066-316DD86B69B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CCB6A3-88C6-416A-92BF-091606BD029A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="490">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,14 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좀비 아이콘 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치료제 아이콘 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유전자 아이콘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,9 +780,6 @@
   <si>
     <t>누르면 2.2 Gen으로 넘어감</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누르면 2.3 Gen으로 넘어감</t>
   </si>
   <si>
     <r>
@@ -1369,19 +1358,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1초에 한 번씩 치료제 개발 확률로 치료제 개발률이 +1%가 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초에 한 번씩 치료제 개발률로 전염성이 -1%가 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대륙에서 최초 감염자가 생길 때까지 1초에 한 번씩 다시 계산함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감염자 수가 0이 아닌 대륙은 전염성 값을 확률로 하여 1초에 한 번씩 계산해서 감염자가 1씩 늚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2169,6 +2146,297 @@
   </si>
   <si>
     <t>따로 넣어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">감염자 수가 0이 아닌 대륙은 전염성 값을 확률로 하여 1초에 한 번씩 계산해서 감염자가 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1000씩 늚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 감염자 증가 수 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2초에 한 번씩 치료제 개발률로 전염성이 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -0.5%가 됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 치료제 개발률에 따른 전염성 퍼센트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1초에 한 번씩 치료제 개발 확률로 치료제 개발률이 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +0.5%가 됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 치료제 개발률 퍼센트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유전자는 감염률이 +5가 될 때, 새로운 대륙에서 새 감염자가 생길 때(최초 1회)에 유전자를 1씩 얻음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 유전자 획득 방법 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산돌구름 (sandollcloud.com) </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03Bold</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산돌구름 (sandollcloud.com) </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02Medium</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">산돌구름 (sandollcloud.com)  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01Regular</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Gen Default 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Ingame Default 좀비,치료제 아이콘 버튼 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">좀비 아이콘 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">치료제 아이콘 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증상버튼 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search results for Line - Flaticon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>누르면 2.2 Gen으로 넘어감</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 효과없음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 새 게임 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에서 치료제 100%로 끝났으면 You Lose, 감염률 100%로 끝났으면 You Win 텍스트 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You Win / You Lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI End 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2443,7 +2711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2627,6 +2895,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2642,13 +2928,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3059,13 +3342,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5067301</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>210079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3147,14 +3430,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>21774</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>47633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5046617</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>214035</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>214036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3196,13 +3479,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>39423</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>40539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5048250</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>206244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3245,13 +3528,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47046</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>45125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5046341</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>205467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3294,14 +3577,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>61043</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>81437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5068429</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>20006</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>223728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3329,7 +3612,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1558290" y="17785163"/>
+          <a:off x="1558290" y="25209508"/>
           <a:ext cx="5034139" cy="2831703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3343,13 +3626,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35060</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>26324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5047907</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>206692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3392,14 +3675,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30788</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5070764</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>91788</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>91787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3436,7 +3719,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>35060</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>51351</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5012847" cy="2819726"/>
@@ -3468,6 +3751,89 @@
         <a:xfrm>
           <a:off x="1559060" y="20921186"/>
           <a:ext cx="5012847" cy="2819726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>69707</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4957061" cy="2788346"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C66E95D-CA72-4444-82B1-4FD2C5A7EB8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1579245" y="35058954"/>
+          <a:ext cx="4957061" cy="2788346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2456360" cy="1373683"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15160BA8-9EC3-4FBE-A4FF-C27C45FEB727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296401" y="2017059"/>
+          <a:ext cx="2456360" cy="1373683"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3776,10 +4142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3790,11 +4156,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -3892,28 +4258,28 @@
       <c r="A12" s="15"/>
       <c r="B12" s="26"/>
       <c r="C12" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="26"/>
       <c r="C14" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="26"/>
       <c r="C15" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -3921,24 +4287,24 @@
         <v>221119</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="26"/>
       <c r="C17" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="26"/>
       <c r="C18" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -3946,31 +4312,31 @@
         <v>221125</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="26"/>
       <c r="C20" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
       <c r="B21" s="26"/>
       <c r="C21" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="26"/>
       <c r="C22" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -3978,31 +4344,31 @@
         <v>221126</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="B24" s="26"/>
       <c r="C24" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="26"/>
       <c r="C25" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="26"/>
       <c r="C26" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -4010,17 +4376,17 @@
         <v>221127</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="15"/>
       <c r="B28" s="26"/>
       <c r="C28" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -4028,24 +4394,24 @@
         <v>221129</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="15"/>
       <c r="B30" s="26"/>
       <c r="C30" s="17" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="15"/>
       <c r="B31" s="26"/>
       <c r="C31" s="17" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -4053,31 +4419,31 @@
         <v>221202</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
       <c r="B33" s="26"/>
       <c r="C33" s="17" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="15"/>
       <c r="B34" s="26"/>
       <c r="C34" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="15"/>
       <c r="B35" s="26"/>
       <c r="C35" s="17" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -4085,45 +4451,45 @@
         <v>221205</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="15"/>
       <c r="B37" s="26"/>
       <c r="C37" s="17" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="15"/>
       <c r="B38" s="26"/>
       <c r="C38" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="15"/>
       <c r="B39" s="26"/>
       <c r="C39" s="17" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="15"/>
       <c r="B40" s="26"/>
       <c r="C40" s="17" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="15"/>
       <c r="B41" s="26"/>
       <c r="C41" s="17" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -4131,24 +4497,77 @@
         <v>221206</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="15"/>
       <c r="B43" s="26"/>
       <c r="C43" s="17" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="15"/>
       <c r="B44" s="26"/>
       <c r="C44" s="17" t="s">
-        <v>462</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="15">
+        <v>221207</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="15"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="15"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="15"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="15"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="15"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="17" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4237,10 +4656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791336A-D98C-4D41-919D-44FAB4E982D2}">
-  <dimension ref="A2:H30"/>
+  <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4270,13 +4689,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4284,20 +4703,20 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B7" s="39"/>
       <c r="E7" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -4306,10 +4725,10 @@
       </c>
       <c r="B8" s="39"/>
       <c r="E8" s="37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G8" s="37">
         <v>0</v>
@@ -4324,10 +4743,10 @@
       </c>
       <c r="B9" s="39"/>
       <c r="E9" s="37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G9" s="37">
         <v>-3</v>
@@ -4342,10 +4761,10 @@
       </c>
       <c r="B10" s="39"/>
       <c r="E10" s="41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G10" s="37">
         <v>3</v>
@@ -4360,10 +4779,10 @@
       </c>
       <c r="B11" s="39"/>
       <c r="E11" s="41" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G11" s="37">
         <v>2</v>
@@ -4378,10 +4797,10 @@
       </c>
       <c r="B12" s="39"/>
       <c r="E12" s="41" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G12" s="37">
         <v>1</v>
@@ -4392,10 +4811,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G13" s="37">
         <v>0</v>
@@ -4406,16 +4825,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G14" s="37">
         <v>1</v>
@@ -4426,14 +4845,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B15" s="45"/>
       <c r="E15" s="41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G15" s="37">
         <v>-2</v>
@@ -4444,14 +4863,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B16" s="45"/>
       <c r="E16" s="41" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G16" s="37">
         <v>3</v>
@@ -4462,14 +4881,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B17" s="45"/>
       <c r="E17" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G17" s="37">
         <v>1</v>
@@ -4480,14 +4899,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="45" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B18" s="45"/>
       <c r="E18" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G18" s="37">
         <v>3</v>
@@ -4498,14 +4917,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="45" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B19" s="45"/>
       <c r="E19" s="41" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G19" s="37">
         <v>2</v>
@@ -4516,14 +4935,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="45" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B20" s="45"/>
       <c r="E20" s="41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G20" s="37">
         <v>0</v>
@@ -4534,16 +4953,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="45" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G21" s="37">
         <v>-1</v>
@@ -4554,14 +4973,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="45" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B22" s="45"/>
       <c r="E22" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G22" s="37">
         <v>2</v>
@@ -4572,16 +4991,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="45" t="s">
-        <v>327</v>
+        <v>458</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G23" s="37">
         <v>3</v>
@@ -4592,52 +5011,57 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="45" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="45" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="45" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="45" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B27" s="45"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="45" t="s">
-        <v>324</v>
+        <v>462</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="45" t="s">
-        <v>325</v>
+        <v>460</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="17" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="17" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4649,10 +5073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K157" sqref="K157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4693,7 +5117,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -4733,12 +5157,14 @@
         <v>45</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
       <c r="D8" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>60</v>
@@ -4759,7 +5185,9 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19">
+        <v>2</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
@@ -4795,18 +5223,20 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19">
+        <v>3</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="68" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
@@ -4815,7 +5245,7 @@
         <v>63</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -4825,7 +5255,7 @@
       <c r="D12" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="63"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="22" t="s">
         <v>54</v>
       </c>
@@ -4836,10 +5266,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -4849,7 +5279,7 @@
       <c r="D13" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="63"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="22" t="s">
         <v>54</v>
       </c>
@@ -4872,547 +5302,523 @@
       <c r="C14" s="19"/>
       <c r="D14" s="23"/>
       <c r="E14" s="44" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="62">
+        <v>4</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="62">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+    </row>
+    <row r="17" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="5" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K20" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="18" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C21" s="25">
         <v>1</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="E21" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" s="25">
+      <c r="G21" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="25">
         <v>6</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="18"/>
-      <c r="C20" s="25">
-        <v>2</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="J21" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="I20" s="25">
-        <v>7</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="18"/>
-      <c r="C21" s="25">
-        <v>3</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="25">
-        <v>8</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>101</v>
       </c>
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="C22" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="I22" s="25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="C23" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="I23" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="C24" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="64"/>
+        <v>77</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="F24" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I24" s="25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="C25" s="25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>343</v>
+        <v>78</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>44</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I25" s="25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>114</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="C26" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>343</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E26" s="70"/>
       <c r="F26" s="25" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I26" s="25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>114</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="18"/>
       <c r="C27" s="25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="I27" s="25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="C28" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>188</v>
+        <v>60</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="I28" s="25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="25"/>
+        <v>104</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="C29" s="25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>84</v>
+        <v>471</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>189</v>
+        <v>89</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>476</v>
       </c>
       <c r="I29" s="25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="C30" s="25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>343</v>
+        <v>472</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>190</v>
+        <v>89</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>476</v>
       </c>
       <c r="I30" s="25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>113</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="C31" s="25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>343</v>
+        <v>82</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>61</v>
+        <v>89</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="I31" s="25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>86</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="18"/>
       <c r="C32" s="25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="25" t="s">
-        <v>98</v>
+      <c r="G32" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="I32" s="25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J32" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="K32" s="25" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="17">
-        <v>1</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>135</v>
+      <c r="A33" s="18"/>
+      <c r="C33" s="25">
+        <v>13</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="I33" s="25">
-        <v>20</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K33" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="17">
-        <v>2</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>401</v>
+      <c r="C34" s="23">
+        <v>14</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="17" t="s">
-        <v>402</v>
+      <c r="G34" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="I34" s="25">
-        <v>21</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17">
-        <v>3</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>127</v>
+      <c r="B35" s="31"/>
+      <c r="C35" s="62">
+        <v>15</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>473</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="25">
-        <v>22</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" s="25"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G35" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+    </row>
+    <row r="36" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="17">
-        <v>4</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="17" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="62">
+        <v>16</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="25">
-        <v>9</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K36" s="25"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="30"/>
       <c r="C37" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I37" s="17">
-        <v>23</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>147</v>
+        <v>133</v>
+      </c>
+      <c r="I37" s="25">
+        <v>20</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="K37" s="25"/>
     </row>
@@ -5420,399 +5826,469 @@
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="17">
-        <v>6</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>128</v>
+        <v>2</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="I38" s="25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K38" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I39" s="25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K39" s="25"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="56">
-        <v>8</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>397</v>
-      </c>
-      <c r="F40" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="I40" s="55">
-        <v>26</v>
-      </c>
-      <c r="J40" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="K40" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="17">
+        <v>4</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="25">
+        <v>9</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="60">
-        <v>8</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>443</v>
+      <c r="C41" s="17">
+        <v>5</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="I41" s="66">
-        <v>26</v>
-      </c>
-      <c r="J41" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="K41" s="41" t="s">
-        <v>446</v>
-      </c>
+      <c r="F41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="17">
+        <v>23</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="K41" s="25"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="56">
-        <v>9</v>
-      </c>
-      <c r="D42" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="43">
-        <v>27</v>
-      </c>
-      <c r="J42" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="K42" s="43"/>
+      <c r="C42" s="17">
+        <v>6</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="25">
+        <v>24</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K42" s="25"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="56">
-        <v>10</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" s="43">
-        <v>28</v>
-      </c>
-      <c r="J43" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="K43" s="43"/>
+      <c r="C43" s="17">
+        <v>7</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43" s="25">
+        <v>25</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K43" s="25"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="56">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="56" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>391</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="G44" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="43">
-        <v>29</v>
-      </c>
-      <c r="J44" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="55">
+        <v>26</v>
+      </c>
+      <c r="J44" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="K44" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="K44" s="43"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
-      <c r="C45" s="17">
-        <v>12</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="I45" s="25">
-        <v>30</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="K45" s="25"/>
+      <c r="C45" s="60">
+        <v>8</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>437</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="I45" s="64">
+        <v>26</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="I46" s="31"/>
+      <c r="C46" s="56">
+        <v>9</v>
+      </c>
+      <c r="D46" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" s="43">
+        <v>27</v>
+      </c>
+      <c r="J46" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46" s="43"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="56">
+        <v>10</v>
+      </c>
+      <c r="D47" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="43">
+        <v>28</v>
+      </c>
+      <c r="J47" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="43"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="17">
-        <v>1</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" s="34">
-        <v>31</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="K48" s="34"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="56">
+        <v>11</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="43">
+        <v>29</v>
+      </c>
+      <c r="J48" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="K48" s="43"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>340</v>
+        <v>131</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="34">
-        <v>32</v>
-      </c>
-      <c r="J49" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>161</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I49" s="25">
+        <v>30</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="17">
-        <v>3</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="I50" s="34">
-        <v>33</v>
-      </c>
-      <c r="J50" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>162</v>
-      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="17">
-        <v>4</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="I51" s="34">
-        <v>34</v>
-      </c>
-      <c r="J51" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>160</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="32">
-        <v>5</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>395</v>
+      <c r="A52" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="17">
+        <v>1</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>396</v>
-      </c>
+      <c r="F52" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="34">
+        <v>31</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
+      <c r="C53" s="17">
+        <v>2</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="34">
+        <v>32</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
+      <c r="C54" s="17">
+        <v>3</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I54" s="34">
+        <v>33</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
+      <c r="C55" s="17">
+        <v>4</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="34">
+        <v>34</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
+      <c r="C56" s="32">
+        <v>5</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
@@ -5842,8 +6318,8 @@
       <c r="G59" s="32"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
@@ -5851,124 +6327,122 @@
       <c r="G60" s="32"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="32">
-        <v>1</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="41" t="s">
-        <v>398</v>
-      </c>
-      <c r="I61" s="32">
-        <v>35</v>
-      </c>
-      <c r="J61" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="K61" s="32"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
-      <c r="C62" s="32">
-        <v>2</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="I62" s="32">
-        <v>36</v>
-      </c>
-      <c r="J62" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="K62" s="41" t="s">
-        <v>399</v>
-      </c>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
-      <c r="C63" s="32">
-        <v>3</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="I63" s="32">
-        <v>37</v>
-      </c>
-      <c r="J63" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="K63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="32"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="32" t="s">
-        <v>174</v>
-      </c>
+      <c r="G64" s="32"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
+      <c r="A65" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="32">
+        <v>1</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="I65" s="32">
+        <v>35</v>
+      </c>
+      <c r="J65" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="K65" s="32"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
+      <c r="C66" s="32">
+        <v>2</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="I66" s="32">
+        <v>36</v>
+      </c>
+      <c r="J66" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="K66" s="41" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
+      <c r="C67" s="32">
+        <v>3</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="I67" s="32">
+        <v>37</v>
+      </c>
+      <c r="J67" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K67" s="32"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
@@ -5977,7 +6451,9 @@
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
+      <c r="G68" s="32" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
@@ -6016,149 +6492,107 @@
       <c r="G72" s="32"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
     </row>
-    <row r="74" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="23" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+    </row>
+    <row r="78" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="50">
+      <c r="B78" s="30"/>
+      <c r="C78" s="50">
         <v>1</v>
       </c>
-      <c r="D74" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F74" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="G74" s="50" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="19"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="50">
-        <v>2</v>
-      </c>
-      <c r="D75" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="F75" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G75" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="I75" s="50">
-        <v>60</v>
-      </c>
-      <c r="J75" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="K75" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="19"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="50">
-        <v>3</v>
-      </c>
-      <c r="D76" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F76" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G76" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-    </row>
-    <row r="77" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="19"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-    </row>
-    <row r="78" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="19"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="50">
-        <v>4</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>422</v>
+      <c r="D78" s="50" t="s">
+        <v>415</v>
       </c>
       <c r="E78" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F78" s="50" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="G78" s="50" t="s">
-        <v>428</v>
-      </c>
-      <c r="I78" s="50">
-        <v>61</v>
-      </c>
-      <c r="J78" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="K78" s="17" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="19"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="50"/>
+      <c r="C79" s="50">
+        <v>2</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>60</v>
+      </c>
       <c r="G79" s="50" t="s">
-        <v>429</v>
-      </c>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
+        <v>65</v>
+      </c>
+      <c r="I79" s="50">
+        <v>60</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="80" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="19"/>
       <c r="B80" s="18"/>
       <c r="C80" s="50">
-        <v>5</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>423</v>
+        <v>3</v>
+      </c>
+      <c r="D80" s="50" t="s">
+        <v>170</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>44</v>
@@ -6167,54 +6601,34 @@
         <v>54</v>
       </c>
       <c r="G80" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="I80" s="50">
-        <v>62</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>438</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
     </row>
     <row r="81" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="19"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="50">
-        <v>6</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" s="50" t="s">
-        <v>54</v>
-      </c>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
       <c r="G81" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="I81" s="50">
-        <v>63</v>
-      </c>
-      <c r="J81" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="K81" s="17" t="s">
-        <v>411</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
     </row>
     <row r="82" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
       <c r="B82" s="18"/>
       <c r="C82" s="50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>44</v>
@@ -6223,594 +6637,588 @@
         <v>54</v>
       </c>
       <c r="G82" s="50" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="I82" s="50">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="K82" s="17" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="19"/>
       <c r="B83" s="18"/>
       <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="49" t="s">
-        <v>339</v>
-      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="29"/>
       <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
+      <c r="G83" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
     </row>
     <row r="84" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="19"/>
       <c r="B84" s="18"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
+      <c r="C84" s="50">
+        <v>5</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="I84" s="50">
+        <v>62</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="85" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="19"/>
       <c r="B85" s="18"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
+      <c r="C85" s="50">
+        <v>6</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="I85" s="50">
+        <v>63</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="K85" s="17" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="86" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="19"/>
       <c r="B86" s="18"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
+      <c r="C86" s="50">
+        <v>7</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G86" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="I86" s="50">
+        <v>64</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="K86" s="17" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="87" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="19"/>
       <c r="B87" s="18"/>
       <c r="C87" s="50"/>
       <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
+      <c r="E87" s="49" t="s">
+        <v>333</v>
+      </c>
       <c r="F87" s="50"/>
       <c r="G87" s="50"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A88" s="4"/>
-      <c r="B88" s="3"/>
+    <row r="88" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="19"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="50"/>
       <c r="D88" s="50"/>
       <c r="E88" s="50"/>
       <c r="F88" s="50"/>
       <c r="G88" s="50"/>
     </row>
-    <row r="89" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="17">
-        <v>1</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="E89" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="19"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+    </row>
+    <row r="90" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="19"/>
       <c r="B90" s="18"/>
-      <c r="C90" s="17">
-        <v>2</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="E90" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="F90" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="I90" s="53">
-        <v>65</v>
-      </c>
-      <c r="J90" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="K90" s="17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+    </row>
+    <row r="91" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="19"/>
       <c r="B91" s="18"/>
-      <c r="C91" s="17">
-        <v>3</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="E91" s="29" t="s">
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+    </row>
+    <row r="93" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="B93" s="30"/>
+      <c r="C93" s="17">
+        <v>1</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="E93" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="I91" s="53">
-        <v>66</v>
-      </c>
-      <c r="J91" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="K91" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="19"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-    </row>
-    <row r="93" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="19"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
+      <c r="F93" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="94" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="19"/>
       <c r="B94" s="18"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
+      <c r="C94" s="17">
+        <v>2</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E94" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="I94" s="53">
+        <v>65</v>
+      </c>
+      <c r="J94" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="K94" s="17" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="95" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="19"/>
       <c r="B95" s="18"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
+      <c r="C95" s="17">
+        <v>3</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="I95" s="53">
+        <v>66</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="K95" s="17" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="96" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="19"/>
       <c r="B96" s="18"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
-      <c r="E96" s="53"/>
+      <c r="E96" s="52" t="s">
+        <v>333</v>
+      </c>
       <c r="F96" s="17"/>
-      <c r="G96" s="53"/>
+      <c r="G96" s="17"/>
     </row>
     <row r="97" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="19"/>
       <c r="B97" s="18"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
+      <c r="E97" s="52"/>
       <c r="F97" s="17"/>
-      <c r="G97" s="53"/>
+      <c r="G97" s="17"/>
     </row>
     <row r="98" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="19"/>
       <c r="B98" s="18"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
     </row>
     <row r="99" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="19"/>
       <c r="B99" s="18"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="19"/>
       <c r="B100" s="18"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="53"/>
     </row>
     <row r="101" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="4"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="F101" s="17"/>
       <c r="G101" s="53"/>
     </row>
     <row r="102" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="31"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
     </row>
     <row r="103" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="31"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
     </row>
     <row r="104" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="31"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-    </row>
-    <row r="105" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A107" s="36" t="s">
+      <c r="A104" s="19"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+    </row>
+    <row r="105" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+    </row>
+    <row r="106" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+    </row>
+    <row r="107" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+    </row>
+    <row r="108" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+    </row>
+    <row r="109" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B111" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36" t="s">
+      <c r="C111" s="36"/>
+      <c r="D111" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E111" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F111" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G107" s="17" t="s">
+      <c r="G111" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I107" s="36" t="s">
+      <c r="I111" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="J107" s="36" t="s">
+      <c r="J111" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K107" s="36" t="s">
+      <c r="K111" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A108" s="23" t="s">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="36">
+      <c r="C112" s="36">
         <v>1</v>
       </c>
-      <c r="D108" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F108" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G108" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I108" s="36">
-        <v>38</v>
-      </c>
-      <c r="J108" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="K108" s="36"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A109" s="19"/>
-      <c r="C109" s="36">
-        <v>2</v>
-      </c>
-      <c r="D109" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E109" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F109" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G109" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I109" s="36">
-        <v>16</v>
-      </c>
-      <c r="J109" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="K109" s="36"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A110" s="19"/>
-      <c r="C110" s="36">
-        <v>3</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F110" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G110" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I110" s="36">
-        <v>39</v>
-      </c>
-      <c r="J110" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="K110" s="36"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A111" s="19"/>
-      <c r="C111" s="36">
-        <v>4</v>
-      </c>
-      <c r="D111" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="F111" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="I111" s="36">
-        <v>17</v>
-      </c>
-      <c r="J111" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="K111" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A112" s="19"/>
-      <c r="C112" s="36">
-        <v>5</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>195</v>
+      <c r="D112" s="36" t="s">
+        <v>130</v>
       </c>
       <c r="E112" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F112" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G112" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I112" s="17">
-        <v>40</v>
-      </c>
-      <c r="J112" s="17" t="s">
-        <v>234</v>
+      <c r="I112" s="36">
+        <v>38</v>
+      </c>
+      <c r="J112" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="19"/>
       <c r="C113" s="36">
-        <v>6</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E113" s="44" t="s">
-        <v>338</v>
+        <v>2</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E113" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="F113" s="36" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G113" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I113" s="17">
-        <v>41</v>
-      </c>
-      <c r="J113" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="K113" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="I113" s="36">
+        <v>16</v>
+      </c>
+      <c r="J113" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="K113" s="36"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="19"/>
       <c r="C114" s="36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E114" s="36" t="s">
-        <v>210</v>
+        <v>191</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F114" s="36" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="G114" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="I114" s="17">
-        <v>42</v>
-      </c>
-      <c r="J114" s="17" t="s">
-        <v>237</v>
+        <v>205</v>
+      </c>
+      <c r="I114" s="36">
+        <v>39</v>
+      </c>
+      <c r="J114" s="36" t="s">
+        <v>229</v>
       </c>
       <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="19"/>
       <c r="C115" s="36">
-        <v>8</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="F115" s="36" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="G115" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="I115" s="17">
-        <v>43</v>
-      </c>
-      <c r="J115" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K115" s="36"/>
+        <v>206</v>
+      </c>
+      <c r="I115" s="36">
+        <v>17</v>
+      </c>
+      <c r="J115" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="K115" s="36" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="19"/>
       <c r="C116" s="36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E116" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="I116" s="17">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K116" s="36"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="19"/>
       <c r="C117" s="36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E117" s="44" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F117" s="36" t="s">
         <v>60</v>
       </c>
       <c r="G117" s="36" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="I117" s="17">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K117" s="36" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="19"/>
       <c r="C118" s="36">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E118" s="44" t="s">
-        <v>340</v>
+        <v>196</v>
+      </c>
+      <c r="E118" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="F118" s="36" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I118" s="17">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="K118" s="36" t="s">
-        <v>201</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="K118" s="36"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="19"/>
       <c r="C119" s="36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>195</v>
@@ -6819,717 +7227,1054 @@
         <v>44</v>
       </c>
       <c r="F119" s="36" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="G119" s="36" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="I119" s="17">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K119" s="36"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="19"/>
       <c r="C120" s="36">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E120" s="44" t="s">
-        <v>338</v>
+        <v>194</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F120" s="36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G120" s="36" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="I120" s="17">
-        <v>47</v>
-      </c>
-      <c r="J120" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="K120" s="36" t="s">
-        <v>27</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="K120" s="36"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="19"/>
       <c r="C121" s="36">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E121" s="36" t="s">
-        <v>210</v>
+        <v>197</v>
+      </c>
+      <c r="E121" s="44" t="s">
+        <v>333</v>
       </c>
       <c r="F121" s="36" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="G121" s="36" t="s">
         <v>211</v>
       </c>
       <c r="I121" s="17">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J121" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="K121" s="36"/>
+      <c r="K121" s="36" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="19"/>
       <c r="C122" s="36">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D122" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E122" s="29" t="s">
-        <v>44</v>
+      <c r="E122" s="44" t="s">
+        <v>334</v>
       </c>
       <c r="F122" s="36" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="G122" s="36" t="s">
         <v>212</v>
       </c>
       <c r="I122" s="17">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K122" s="36"/>
+        <v>232</v>
+      </c>
+      <c r="K122" s="36" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="19"/>
-      <c r="C123" s="36">
-        <v>16</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E123" s="29" t="s">
+      <c r="C123" s="43">
+        <v>12</v>
+      </c>
+      <c r="D123" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="F123" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G123" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I123" s="17">
-        <v>44</v>
-      </c>
-      <c r="J123" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="K123" s="36"/>
+      <c r="F123" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G123" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H123" s="73"/>
+      <c r="I123" s="56">
+        <v>40</v>
+      </c>
+      <c r="J123" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="K123" s="55"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="19"/>
-      <c r="C124" s="36">
-        <v>17</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E124" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="F124" s="36" t="s">
+      <c r="C124" s="43">
+        <v>13</v>
+      </c>
+      <c r="D124" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E124" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="F124" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G124" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="I124" s="17">
-        <v>48</v>
-      </c>
-      <c r="J124" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="K124" s="36" t="s">
-        <v>203</v>
+      <c r="G124" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H124" s="73"/>
+      <c r="I124" s="56">
+        <v>47</v>
+      </c>
+      <c r="J124" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="K124" s="55" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="19"/>
-      <c r="C125" s="36">
-        <v>18</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E125" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="F125" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G125" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="I125" s="17">
-        <v>49</v>
-      </c>
-      <c r="J125" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="K125" s="36" t="s">
-        <v>204</v>
-      </c>
+      <c r="C125" s="43">
+        <v>14</v>
+      </c>
+      <c r="D125" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="F125" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="H125" s="73"/>
+      <c r="I125" s="56">
+        <v>42</v>
+      </c>
+      <c r="J125" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="K125" s="55"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="19"/>
-      <c r="C126" s="36">
-        <v>19</v>
-      </c>
-      <c r="D126" s="17" t="s">
+      <c r="C126" s="43">
+        <v>15</v>
+      </c>
+      <c r="D126" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="E126" s="29" t="s">
+      <c r="E126" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="F126" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G126" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I126" s="17">
-        <v>40</v>
-      </c>
-      <c r="J126" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="K126" s="36"/>
+      <c r="F126" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G126" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="H126" s="73"/>
+      <c r="I126" s="56">
+        <v>43</v>
+      </c>
+      <c r="J126" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="K126" s="55"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="19"/>
-      <c r="C127" s="36">
-        <v>20</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E127" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="F127" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G127" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I127" s="17">
-        <v>50</v>
-      </c>
-      <c r="J127" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K127" s="36" t="s">
-        <v>247</v>
-      </c>
+      <c r="C127" s="43">
+        <v>16</v>
+      </c>
+      <c r="D127" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E127" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F127" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="H127" s="73"/>
+      <c r="I127" s="56">
+        <v>44</v>
+      </c>
+      <c r="J127" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="K127" s="55"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="19"/>
-      <c r="C128" s="36">
-        <v>21</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E128" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F128" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G128" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="I128" s="17">
-        <v>42</v>
-      </c>
-      <c r="J128" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="K128" s="36"/>
+      <c r="C128" s="43">
+        <v>17</v>
+      </c>
+      <c r="D128" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E128" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="F128" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="H128" s="73"/>
+      <c r="I128" s="56">
+        <v>48</v>
+      </c>
+      <c r="J128" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="K128" s="55" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="19"/>
-      <c r="C129" s="36">
-        <v>22</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E129" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F129" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="G129" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="I129" s="17">
-        <v>43</v>
-      </c>
-      <c r="J129" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K129" s="36"/>
+      <c r="C129" s="43">
+        <v>18</v>
+      </c>
+      <c r="D129" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="E129" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="F129" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G129" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="H129" s="73"/>
+      <c r="I129" s="56">
+        <v>49</v>
+      </c>
+      <c r="J129" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="K129" s="55" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="19"/>
-      <c r="C130" s="36">
-        <v>23</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E130" s="29" t="s">
+      <c r="C130" s="43">
+        <v>19</v>
+      </c>
+      <c r="D130" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="E130" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="F130" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G130" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I130" s="17">
-        <v>44</v>
-      </c>
-      <c r="J130" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="K130" s="36"/>
+      <c r="F130" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G130" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H130" s="73"/>
+      <c r="I130" s="56">
+        <v>40</v>
+      </c>
+      <c r="J130" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="K130" s="55"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="19"/>
-      <c r="C131" s="36">
-        <v>24</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E131" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="F131" s="36" t="s">
+      <c r="C131" s="43">
+        <v>20</v>
+      </c>
+      <c r="D131" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="E131" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="F131" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G131" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="I131" s="17">
-        <v>51</v>
-      </c>
-      <c r="J131" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="K131" s="36" t="s">
-        <v>206</v>
+      <c r="G131" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H131" s="73"/>
+      <c r="I131" s="56">
+        <v>50</v>
+      </c>
+      <c r="J131" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="K131" s="55" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="19"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="36">
-        <v>25</v>
-      </c>
-      <c r="D132" s="17" t="s">
+      <c r="C132" s="43">
+        <v>21</v>
+      </c>
+      <c r="D132" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E132" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="E132" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="F132" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G132" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="I132" s="17">
-        <v>52</v>
-      </c>
-      <c r="J132" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K132" s="36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F132" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G132" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="H132" s="73"/>
+      <c r="I132" s="56">
+        <v>42</v>
+      </c>
+      <c r="J132" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="K132" s="55"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="19"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="50">
-        <v>26</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E133" s="29" t="s">
+      <c r="C133" s="43">
+        <v>22</v>
+      </c>
+      <c r="D133" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E133" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="F133" s="50" t="s">
+      <c r="F133" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="G133" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="H133" s="73"/>
+      <c r="I133" s="56">
+        <v>43</v>
+      </c>
+      <c r="J133" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="K133" s="55"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A134" s="19"/>
+      <c r="C134" s="43">
+        <v>23</v>
+      </c>
+      <c r="D134" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E134" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="G133" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="50"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A134" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B134" s="30"/>
-      <c r="C134" s="17">
-        <v>1</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E134" s="29" t="s">
+      <c r="G134" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="H134" s="73"/>
+      <c r="I134" s="56">
         <v>44</v>
       </c>
-      <c r="F134" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G134" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I134" s="17">
-        <v>53</v>
-      </c>
-      <c r="J134" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K134" s="36"/>
+      <c r="J134" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="K134" s="55"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="19"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="17">
-        <v>2</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G135" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I135" s="17">
-        <v>54</v>
-      </c>
-      <c r="J135" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K135" s="36"/>
+      <c r="C135" s="43">
+        <v>24</v>
+      </c>
+      <c r="D135" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="E135" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="F135" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G135" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="H135" s="73"/>
+      <c r="I135" s="56">
+        <v>51</v>
+      </c>
+      <c r="J135" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="K135" s="55" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="19"/>
       <c r="B136" s="18"/>
-      <c r="C136" s="17">
-        <v>3</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E136" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="F136" s="17" t="s">
+      <c r="C136" s="43">
+        <v>25</v>
+      </c>
+      <c r="D136" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E136" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="F136" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G136" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="I136" s="17">
-        <v>55</v>
-      </c>
-      <c r="J136" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="K136" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G136" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="H136" s="73"/>
+      <c r="I136" s="56">
+        <v>52</v>
+      </c>
+      <c r="J136" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K136" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A137" s="19"/>
       <c r="B137" s="18"/>
-      <c r="C137" s="17">
-        <v>4</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E137" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="F137" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="I137" s="17">
-        <v>56</v>
-      </c>
-      <c r="J137" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="K137" s="17" t="s">
-        <v>223</v>
-      </c>
+      <c r="C137" s="43">
+        <v>26</v>
+      </c>
+      <c r="D137" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="E137" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F137" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G137" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="H137" s="73"/>
+      <c r="I137" s="56"/>
+      <c r="J137" s="56"/>
+      <c r="K137" s="43"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A138" s="19"/>
-      <c r="B138" s="18"/>
+      <c r="A138" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B138" s="30"/>
       <c r="C138" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E138" s="44" t="s">
-        <v>340</v>
+        <v>218</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="I138" s="17">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="K138" s="17" t="s">
-        <v>255</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K138" s="36"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="19"/>
       <c r="B139" s="18"/>
       <c r="C139" s="17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E139" s="44" t="s">
-        <v>340</v>
+        <v>194</v>
+      </c>
+      <c r="E139" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F139" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I139" s="17">
         <v>54</v>
       </c>
-      <c r="G139" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="I139" s="17">
-        <v>58</v>
-      </c>
       <c r="J139" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="K139" s="17" t="s">
-        <v>256</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="K139" s="36"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" s="19"/>
       <c r="B140" s="18"/>
       <c r="C140" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E140" s="44" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I140" s="17">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K140" s="17" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" s="19"/>
       <c r="B141" s="18"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="17"/>
-      <c r="G141" s="36"/>
+      <c r="C141" s="17">
+        <v>4</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E141" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I141" s="17">
+        <v>56</v>
+      </c>
+      <c r="J141" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K141" s="17" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="19"/>
       <c r="B142" s="18"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="36"/>
+      <c r="C142" s="17">
+        <v>5</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E142" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I142" s="17">
+        <v>57</v>
+      </c>
+      <c r="J142" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K142" s="17" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" s="19"/>
       <c r="B143" s="18"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36"/>
+      <c r="C143" s="17">
+        <v>6</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E143" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I143" s="17">
+        <v>58</v>
+      </c>
+      <c r="J143" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K143" s="17" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" s="19"/>
       <c r="B144" s="18"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C144" s="17">
+        <v>7</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E144" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F144" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I144" s="17">
+        <v>59</v>
+      </c>
+      <c r="J144" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="K144" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="19"/>
       <c r="B145" s="18"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
       <c r="E145" s="36"/>
-      <c r="F145" s="36"/>
+      <c r="F145" s="17"/>
       <c r="G145" s="36"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A146" s="4"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="36"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A146" s="19"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="F146" s="17"/>
       <c r="G146" s="36"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A147" s="19"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A148" s="19"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A149" s="19"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A150" s="4"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A152" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="B152" s="63"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="63"/>
+      <c r="F152" s="63"/>
+      <c r="G152" s="63"/>
+      <c r="H152" s="63"/>
+      <c r="I152" s="63"/>
+      <c r="J152" s="63"/>
+      <c r="K152" s="63"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A153" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D153" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H153" s="63"/>
+      <c r="I153" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J153" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="K153" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A154" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B154" s="19"/>
+      <c r="C154" s="62"/>
+      <c r="D154" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F154" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G154" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="H154" s="63"/>
+      <c r="I154" s="62">
+        <v>60</v>
+      </c>
+      <c r="J154" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="K154" s="62" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G155" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H155" s="63"/>
+      <c r="I155" s="62">
+        <v>2</v>
+      </c>
+      <c r="J155" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="K155" s="62"/>
+    </row>
+    <row r="156" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="62"/>
+      <c r="D156" s="62"/>
+      <c r="E156" s="61"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="62"/>
+      <c r="H156" s="63"/>
+      <c r="I156" s="62"/>
+      <c r="J156" s="62"/>
+      <c r="K156" s="62"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="62"/>
+      <c r="D157" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G157" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="H157" s="63"/>
+      <c r="I157" s="62">
+        <v>61</v>
+      </c>
+      <c r="J157" s="62" t="s">
+        <v>484</v>
+      </c>
+      <c r="K157" s="41" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F158" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G158" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="H158" s="63"/>
+      <c r="I158" s="62">
+        <v>5</v>
+      </c>
+      <c r="J158" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="K158" s="17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="62"/>
+      <c r="D159" s="62"/>
+      <c r="E159" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="F159" s="62"/>
+      <c r="G159" s="62"/>
+      <c r="H159" s="63"/>
+      <c r="I159" s="63"/>
+      <c r="J159" s="63"/>
+      <c r="K159" s="63"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="62"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="63"/>
+      <c r="I160" s="63"/>
+      <c r="J160" s="63"/>
+      <c r="K160" s="63"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="62"/>
+      <c r="D161" s="62"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="62"/>
+      <c r="G161" s="62"/>
+      <c r="H161" s="63"/>
+      <c r="I161" s="63"/>
+      <c r="J161" s="63"/>
+      <c r="K161" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{7C384CFC-C7AC-4EDB-8470-0C4C5F05EB80}"/>
     <hyperlink ref="E9" r:id="rId2" xr:uid="{0A9D12D0-77E0-4FE5-82B2-6CF732D3D0F3}"/>
     <hyperlink ref="E11" r:id="rId3" xr:uid="{01DC72D4-2FF5-47C5-8FDD-2B4DD110214A}"/>
-    <hyperlink ref="E19" r:id="rId4" display="https://assetstore.unity.com/packages/2d/gui/icons/simple-button-set-02-184903" xr:uid="{4937E95A-A7D8-4A9E-BEC0-43B84B4E931E}"/>
-    <hyperlink ref="E22" r:id="rId5" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{508BED06-8CC4-4CFB-82B5-41294DF53852}"/>
-    <hyperlink ref="E21" r:id="rId6" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{339BAA03-FDD1-4C69-A3C4-A1EE2E23EAD7}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{5CB6891C-0037-4D8C-A9FB-91674DC7C3E1}"/>
-    <hyperlink ref="E27" r:id="rId8" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{1AB1FE39-2124-4AA9-A3AD-C1A873988D11}"/>
-    <hyperlink ref="E28" r:id="rId9" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{53E9D1DE-3D6F-40D6-98C4-EF74613F5C7D}"/>
-    <hyperlink ref="E29" r:id="rId10" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CE3152C4-A4DF-4962-B92D-1A8473206586}"/>
-    <hyperlink ref="E33" r:id="rId11" xr:uid="{1D947AC2-3B5B-4175-BC31-F2EE7AC75A9E}"/>
-    <hyperlink ref="E35" r:id="rId12" xr:uid="{13E32B7A-5D28-4BFF-8D76-085D66C1CE4A}"/>
-    <hyperlink ref="E36" r:id="rId13" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{EA9D244A-0B95-45DF-BE1B-201135F96F6A}"/>
-    <hyperlink ref="E37" r:id="rId14" xr:uid="{E139278C-A8E0-4967-BA8D-FC647AA69112}"/>
-    <hyperlink ref="E39" r:id="rId15" xr:uid="{EDB16083-B881-45D7-83EE-C0085B0E0428}"/>
-    <hyperlink ref="E38" r:id="rId16" display="https://www.flaticon.com/free-icon/cardiology_1863303?term=alive&amp;page=1&amp;position=14&amp;page=1&amp;position=14&amp;related_id=1863303&amp;origin=search" xr:uid="{43FA66B1-405D-455F-B5C8-E786B40A78AA}"/>
-    <hyperlink ref="E42" r:id="rId17" display="https://www.flaticon.com/free-icon/stay-at-home_3096566?term=quarantine&amp;page=1&amp;position=64&amp;page=1&amp;position=64&amp;related_id=3096566&amp;origin=search" xr:uid="{2993A694-58DD-4815-8C4E-B4F395FF4B12}"/>
-    <hyperlink ref="E43" r:id="rId18" display="https://www.flaticon.com/free-icon/plane_8238469?term=airport&amp;page=1&amp;position=58&amp;page=1&amp;position=58&amp;related_id=8238469&amp;origin=search" xr:uid="{4A48EF3E-3034-40E6-BDD5-4475619FE5E7}"/>
-    <hyperlink ref="E44" r:id="rId19" display="https://www.flaticon.com/free-icon/anchor_3001032?related_id=3001032&amp;origin=tag" xr:uid="{EFE78EC9-903A-4171-B530-9CD42E737618}"/>
-    <hyperlink ref="E45" r:id="rId20" display="https://www.flaticon.com/free-icon/close_2997911?term=x&amp;page=1&amp;position=6&amp;page=1&amp;position=6&amp;related_id=2997911&amp;origin=search" xr:uid="{03778FEC-295D-4F80-9F55-85F776B020FB}"/>
-    <hyperlink ref="E48" r:id="rId21" xr:uid="{D11AB1F0-9C43-4266-87A4-780C04576352}"/>
-    <hyperlink ref="E63" r:id="rId22" xr:uid="{7096442D-53A7-4A86-968B-10DD156BF3F2}"/>
-    <hyperlink ref="E61" r:id="rId23" xr:uid="{6E4A20A0-493C-4DB6-9FBB-03550309BABE}"/>
-    <hyperlink ref="E34" r:id="rId24" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{17F7991A-0F39-4AEC-83B0-1FC8BDD34310}"/>
-    <hyperlink ref="E40" r:id="rId25" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{0FBE8103-A710-4ED3-B54A-AB42FC2606C2}"/>
-    <hyperlink ref="E49" r:id="rId26" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BAC3C1C3-8F11-4D30-934D-7B6CAB25519D}"/>
-    <hyperlink ref="E51" r:id="rId27" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{F76D5126-5232-4922-B84A-FC19827B0A25}"/>
-    <hyperlink ref="E50" r:id="rId28" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{D0214770-B410-4C4C-A54B-59C85613B594}"/>
-    <hyperlink ref="E62" r:id="rId29" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{AEA26864-F89D-4D62-8F64-8AD82E664AFC}"/>
-    <hyperlink ref="E125" r:id="rId30" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{84437805-A63F-4C83-90D5-A2AF927BC26D}"/>
-    <hyperlink ref="E132" r:id="rId31" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{5A9C5EB8-F261-4C96-BD93-DA34F0ECC7B6}"/>
-    <hyperlink ref="E137" r:id="rId32" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{9394A10A-4ECA-4D04-815B-016E0A021DE7}"/>
-    <hyperlink ref="E139" r:id="rId33" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{A3E48742-A63C-4F5A-9A0A-E53AFD4551A4}"/>
-    <hyperlink ref="E140" r:id="rId34" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{CD60E30E-7CFA-40B8-952C-3C5E64D24AD8}"/>
-    <hyperlink ref="E122" r:id="rId35" xr:uid="{7B0DD3BA-C831-48CC-8EC5-87E799015FA7}"/>
-    <hyperlink ref="E123" r:id="rId36" xr:uid="{CCABC04A-E413-40CB-A65A-55265BDAF4CC}"/>
-    <hyperlink ref="E126" r:id="rId37" xr:uid="{B8136907-6CDA-4758-827D-AFFF71D7FA6D}"/>
-    <hyperlink ref="E129" r:id="rId38" xr:uid="{ED1C7C56-0124-41AC-944B-BB36277D337F}"/>
-    <hyperlink ref="E130" r:id="rId39" xr:uid="{BC8B4591-D7CF-43AA-92EC-45AD02DEC5F1}"/>
-    <hyperlink ref="E134" r:id="rId40" xr:uid="{5B3FE029-7779-4811-AAF5-9AF3BFB03950}"/>
-    <hyperlink ref="E135" r:id="rId41" xr:uid="{E1762F4C-D849-40D7-AEF2-460263AA7905}"/>
-    <hyperlink ref="E124" r:id="rId42" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{04A8FDDB-27B5-4519-BB66-A3A2647CFF4B}"/>
-    <hyperlink ref="E131" r:id="rId43" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2F7BC736-8CF5-4D6A-82EC-B9DB1088924A}"/>
-    <hyperlink ref="E120" r:id="rId44" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{24425278-15BF-44BE-ABD0-E68579922E93}"/>
-    <hyperlink ref="E127" r:id="rId45" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{6A21F50C-DF13-4F24-B98A-D31C14680622}"/>
-    <hyperlink ref="E136" r:id="rId46" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{B0EE0B84-87D2-49A7-BDF3-164EF26059D9}"/>
-    <hyperlink ref="E138" r:id="rId47" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C8A2F1E0-23BD-45F5-87E3-24C720DB6B5C}"/>
-    <hyperlink ref="E8" r:id="rId48" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{CA9379A2-ED9E-4CA8-92E8-79D606690429}"/>
-    <hyperlink ref="E14" r:id="rId49" display="https://fonts.google.com/specimen/Dosis" xr:uid="{5B160C99-E667-450C-9776-63CB90260332}"/>
-    <hyperlink ref="E25" r:id="rId50" display="https://fonts.google.com/specimen/Dosis" xr:uid="{46AB7665-D4CD-406E-B6E9-A3CD26062F2A}"/>
-    <hyperlink ref="E26" r:id="rId51" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9B167C52-948B-4676-BCD1-AEE7074B97F1}"/>
-    <hyperlink ref="E30" r:id="rId52" display="https://fonts.google.com/specimen/Dosis" xr:uid="{AD798504-8243-48B2-A953-BA851015534E}"/>
-    <hyperlink ref="E32" r:id="rId53" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9596B8AC-08BF-4418-AB3E-A366E713A453}"/>
-    <hyperlink ref="E31" r:id="rId54" display="https://fonts.google.com/specimen/Dosis" xr:uid="{D2F4AFC0-E407-4372-925E-2A10A09C2EA5}"/>
-    <hyperlink ref="E52" r:id="rId55" xr:uid="{24BD5BB7-DE1B-46A3-B879-F0677C3A0182}"/>
-    <hyperlink ref="E133" r:id="rId56" xr:uid="{CD5188D6-9895-49BC-877E-D406B45D7AC7}"/>
-    <hyperlink ref="E76" r:id="rId57" xr:uid="{38F5040E-C625-4BBA-AB1D-2B29C1AB72D9}"/>
-    <hyperlink ref="E75" r:id="rId58" display="https://fonts.google.com/specimen/Dosis" xr:uid="{63DF1793-1A16-441F-A209-CC3DFF05B240}"/>
-    <hyperlink ref="E74" r:id="rId59" xr:uid="{5CA8A5AE-0621-40DE-8C19-569358E5315E}"/>
-    <hyperlink ref="E78" r:id="rId60" xr:uid="{D5FCE6FA-D691-499A-A4B6-FBF11394423A}"/>
-    <hyperlink ref="E81" r:id="rId61" xr:uid="{C26B5F25-9972-4097-9B10-F0920616BEC4}"/>
-    <hyperlink ref="E80" r:id="rId62" xr:uid="{A4C485AB-A26F-4215-9554-B3BE5B09A2F1}"/>
-    <hyperlink ref="E82" r:id="rId63" xr:uid="{136A8BB3-46F8-46C6-A793-449F6C8FBA43}"/>
-    <hyperlink ref="E83" r:id="rId64" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2AA02F48-400A-46DD-9313-5D431FFE4241}"/>
-    <hyperlink ref="E41" r:id="rId65" xr:uid="{0DF28670-E556-4155-9EF1-57CEB74E83DE}"/>
-    <hyperlink ref="E111" r:id="rId66" display="https://fonts.google.com/specimen/Dosis" xr:uid="{CFB7F020-6EC3-48A0-8B28-788F631EAE6B}"/>
-    <hyperlink ref="E113" r:id="rId67" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BD4F4309-2294-4431-8919-4E5E0BA894DA}"/>
-    <hyperlink ref="E117" r:id="rId68" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{8D9F31B9-63CB-4289-9B59-B0F3908BA9C1}"/>
-    <hyperlink ref="E119" r:id="rId69" xr:uid="{42183E86-07D9-41FE-825C-8D7E49A8D204}"/>
-    <hyperlink ref="E116" r:id="rId70" xr:uid="{FB4943FD-BA78-4CA2-8F96-194C44603173}"/>
-    <hyperlink ref="E115" r:id="rId71" xr:uid="{B230A4D2-52CF-4130-BB9B-849810E27BB6}"/>
-    <hyperlink ref="E112" r:id="rId72" xr:uid="{D083F051-8CF7-40B6-B10C-9D58B2F4BA1E}"/>
-    <hyperlink ref="E110" r:id="rId73" xr:uid="{977D727D-092C-4E77-878B-5F484801E44F}"/>
-    <hyperlink ref="E109" r:id="rId74" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
-    <hyperlink ref="E108" r:id="rId75" xr:uid="{50A778A7-247C-422E-AF51-B818EFE47071}"/>
-    <hyperlink ref="E118" r:id="rId76" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C520BE2B-512C-4A03-B807-EFE0FA080A11}"/>
-    <hyperlink ref="E89" r:id="rId77" xr:uid="{42DE131B-6F33-4CDE-B905-24CFB703E08A}"/>
-    <hyperlink ref="E91" r:id="rId78" xr:uid="{5F95B812-4303-4962-8854-1F626AD025F6}"/>
-    <hyperlink ref="E90" r:id="rId79" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{48631F0D-1A2B-4A58-8EFE-FA1720A44100}"/>
-    <hyperlink ref="E92" r:id="rId80" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{340DBF11-1859-44FB-A5A4-C11048E23AA6}"/>
+    <hyperlink ref="E21" r:id="rId4" display="https://assetstore.unity.com/packages/2d/gui/icons/simple-button-set-02-184903" xr:uid="{4937E95A-A7D8-4A9E-BEC0-43B84B4E931E}"/>
+    <hyperlink ref="E24" r:id="rId5" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{508BED06-8CC4-4CFB-82B5-41294DF53852}"/>
+    <hyperlink ref="E23" r:id="rId6" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{339BAA03-FDD1-4C69-A3C4-A1EE2E23EAD7}"/>
+    <hyperlink ref="E25" r:id="rId7" xr:uid="{5CB6891C-0037-4D8C-A9FB-91674DC7C3E1}"/>
+    <hyperlink ref="E29" r:id="rId8" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{1AB1FE39-2124-4AA9-A3AD-C1A873988D11}"/>
+    <hyperlink ref="E30" r:id="rId9" display="https://www.flaticon.com/free-icon/syringe_1778916?related_id=1778916&amp;origin=search" xr:uid="{53E9D1DE-3D6F-40D6-98C4-EF74613F5C7D}"/>
+    <hyperlink ref="E31" r:id="rId10" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{CE3152C4-A4DF-4962-B92D-1A8473206586}"/>
+    <hyperlink ref="E37" r:id="rId11" xr:uid="{1D947AC2-3B5B-4175-BC31-F2EE7AC75A9E}"/>
+    <hyperlink ref="E39" r:id="rId12" xr:uid="{13E32B7A-5D28-4BFF-8D76-085D66C1CE4A}"/>
+    <hyperlink ref="E40" r:id="rId13" display="https://www.flaticon.com/free-icon/zombie_3249360?related_id=3249360&amp;origin=search" xr:uid="{EA9D244A-0B95-45DF-BE1B-201135F96F6A}"/>
+    <hyperlink ref="E41" r:id="rId14" xr:uid="{E139278C-A8E0-4967-BA8D-FC647AA69112}"/>
+    <hyperlink ref="E43" r:id="rId15" xr:uid="{EDB16083-B881-45D7-83EE-C0085B0E0428}"/>
+    <hyperlink ref="E42" r:id="rId16" display="https://www.flaticon.com/free-icon/cardiology_1863303?term=alive&amp;page=1&amp;position=14&amp;page=1&amp;position=14&amp;related_id=1863303&amp;origin=search" xr:uid="{43FA66B1-405D-455F-B5C8-E786B40A78AA}"/>
+    <hyperlink ref="E46" r:id="rId17" display="https://www.flaticon.com/free-icon/stay-at-home_3096566?term=quarantine&amp;page=1&amp;position=64&amp;page=1&amp;position=64&amp;related_id=3096566&amp;origin=search" xr:uid="{2993A694-58DD-4815-8C4E-B4F395FF4B12}"/>
+    <hyperlink ref="E47" r:id="rId18" display="https://www.flaticon.com/free-icon/plane_8238469?term=airport&amp;page=1&amp;position=58&amp;page=1&amp;position=58&amp;related_id=8238469&amp;origin=search" xr:uid="{4A48EF3E-3034-40E6-BDD5-4475619FE5E7}"/>
+    <hyperlink ref="E48" r:id="rId19" display="https://www.flaticon.com/free-icon/anchor_3001032?related_id=3001032&amp;origin=tag" xr:uid="{EFE78EC9-903A-4171-B530-9CD42E737618}"/>
+    <hyperlink ref="E49" r:id="rId20" display="https://www.flaticon.com/free-icon/close_2997911?term=x&amp;page=1&amp;position=6&amp;page=1&amp;position=6&amp;related_id=2997911&amp;origin=search" xr:uid="{03778FEC-295D-4F80-9F55-85F776B020FB}"/>
+    <hyperlink ref="E52" r:id="rId21" xr:uid="{D11AB1F0-9C43-4266-87A4-780C04576352}"/>
+    <hyperlink ref="E67" r:id="rId22" xr:uid="{7096442D-53A7-4A86-968B-10DD156BF3F2}"/>
+    <hyperlink ref="E65" r:id="rId23" xr:uid="{6E4A20A0-493C-4DB6-9FBB-03550309BABE}"/>
+    <hyperlink ref="E38" r:id="rId24" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{17F7991A-0F39-4AEC-83B0-1FC8BDD34310}"/>
+    <hyperlink ref="E44" r:id="rId25" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{0FBE8103-A710-4ED3-B54A-AB42FC2606C2}"/>
+    <hyperlink ref="E53" r:id="rId26" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BAC3C1C3-8F11-4D30-934D-7B6CAB25519D}"/>
+    <hyperlink ref="E55" r:id="rId27" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{F76D5126-5232-4922-B84A-FC19827B0A25}"/>
+    <hyperlink ref="E54" r:id="rId28" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{D0214770-B410-4C4C-A54B-59C85613B594}"/>
+    <hyperlink ref="E66" r:id="rId29" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{AEA26864-F89D-4D62-8F64-8AD82E664AFC}"/>
+    <hyperlink ref="E141" r:id="rId30" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{9394A10A-4ECA-4D04-815B-016E0A021DE7}"/>
+    <hyperlink ref="E143" r:id="rId31" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{A3E48742-A63C-4F5A-9A0A-E53AFD4551A4}"/>
+    <hyperlink ref="E144" r:id="rId32" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{CD60E30E-7CFA-40B8-952C-3C5E64D24AD8}"/>
+    <hyperlink ref="E138" r:id="rId33" xr:uid="{5B3FE029-7779-4811-AAF5-9AF3BFB03950}"/>
+    <hyperlink ref="E139" r:id="rId34" xr:uid="{E1762F4C-D849-40D7-AEF2-460263AA7905}"/>
+    <hyperlink ref="E140" r:id="rId35" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{B0EE0B84-87D2-49A7-BDF3-164EF26059D9}"/>
+    <hyperlink ref="E142" r:id="rId36" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C8A2F1E0-23BD-45F5-87E3-24C720DB6B5C}"/>
+    <hyperlink ref="E8" r:id="rId37" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{CA9379A2-ED9E-4CA8-92E8-79D606690429}"/>
+    <hyperlink ref="E14" r:id="rId38" display="https://fonts.google.com/specimen/Dosis" xr:uid="{5B160C99-E667-450C-9776-63CB90260332}"/>
+    <hyperlink ref="E27" r:id="rId39" display="https://fonts.google.com/specimen/Dosis" xr:uid="{46AB7665-D4CD-406E-B6E9-A3CD26062F2A}"/>
+    <hyperlink ref="E28" r:id="rId40" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9B167C52-948B-4676-BCD1-AEE7074B97F1}"/>
+    <hyperlink ref="E32" r:id="rId41" display="https://fonts.google.com/specimen/Dosis" xr:uid="{AD798504-8243-48B2-A953-BA851015534E}"/>
+    <hyperlink ref="E34" r:id="rId42" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9596B8AC-08BF-4418-AB3E-A366E713A453}"/>
+    <hyperlink ref="E33" r:id="rId43" display="https://fonts.google.com/specimen/Dosis" xr:uid="{D2F4AFC0-E407-4372-925E-2A10A09C2EA5}"/>
+    <hyperlink ref="E56" r:id="rId44" xr:uid="{24BD5BB7-DE1B-46A3-B879-F0677C3A0182}"/>
+    <hyperlink ref="E80" r:id="rId45" xr:uid="{38F5040E-C625-4BBA-AB1D-2B29C1AB72D9}"/>
+    <hyperlink ref="E79" r:id="rId46" display="https://fonts.google.com/specimen/Dosis" xr:uid="{63DF1793-1A16-441F-A209-CC3DFF05B240}"/>
+    <hyperlink ref="E78" r:id="rId47" xr:uid="{5CA8A5AE-0621-40DE-8C19-569358E5315E}"/>
+    <hyperlink ref="E82" r:id="rId48" xr:uid="{D5FCE6FA-D691-499A-A4B6-FBF11394423A}"/>
+    <hyperlink ref="E85" r:id="rId49" xr:uid="{C26B5F25-9972-4097-9B10-F0920616BEC4}"/>
+    <hyperlink ref="E84" r:id="rId50" xr:uid="{A4C485AB-A26F-4215-9554-B3BE5B09A2F1}"/>
+    <hyperlink ref="E86" r:id="rId51" xr:uid="{136A8BB3-46F8-46C6-A793-449F6C8FBA43}"/>
+    <hyperlink ref="E87" r:id="rId52" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2AA02F48-400A-46DD-9313-5D431FFE4241}"/>
+    <hyperlink ref="E45" r:id="rId53" xr:uid="{0DF28670-E556-4155-9EF1-57CEB74E83DE}"/>
+    <hyperlink ref="E115" r:id="rId54" display="https://fonts.google.com/specimen/Dosis" xr:uid="{CFB7F020-6EC3-48A0-8B28-788F631EAE6B}"/>
+    <hyperlink ref="E117" r:id="rId55" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BD4F4309-2294-4431-8919-4E5E0BA894DA}"/>
+    <hyperlink ref="E121" r:id="rId56" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{8D9F31B9-63CB-4289-9B59-B0F3908BA9C1}"/>
+    <hyperlink ref="E120" r:id="rId57" xr:uid="{FB4943FD-BA78-4CA2-8F96-194C44603173}"/>
+    <hyperlink ref="E119" r:id="rId58" xr:uid="{B230A4D2-52CF-4130-BB9B-849810E27BB6}"/>
+    <hyperlink ref="E116" r:id="rId59" xr:uid="{D083F051-8CF7-40B6-B10C-9D58B2F4BA1E}"/>
+    <hyperlink ref="E114" r:id="rId60" xr:uid="{977D727D-092C-4E77-878B-5F484801E44F}"/>
+    <hyperlink ref="E113" r:id="rId61" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
+    <hyperlink ref="E112" r:id="rId62" xr:uid="{50A778A7-247C-422E-AF51-B818EFE47071}"/>
+    <hyperlink ref="E122" r:id="rId63" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C520BE2B-512C-4A03-B807-EFE0FA080A11}"/>
+    <hyperlink ref="E93" r:id="rId64" xr:uid="{42DE131B-6F33-4CDE-B905-24CFB703E08A}"/>
+    <hyperlink ref="E95" r:id="rId65" xr:uid="{5F95B812-4303-4962-8854-1F626AD025F6}"/>
+    <hyperlink ref="E94" r:id="rId66" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{48631F0D-1A2B-4A58-8EFE-FA1720A44100}"/>
+    <hyperlink ref="E96" r:id="rId67" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{340DBF11-1859-44FB-A5A4-C11048E23AA6}"/>
+    <hyperlink ref="E123" r:id="rId68" xr:uid="{42183E86-07D9-41FE-825C-8D7E49A8D204}"/>
+    <hyperlink ref="E137" r:id="rId69" xr:uid="{CD5188D6-9895-49BC-877E-D406B45D7AC7}"/>
+    <hyperlink ref="E131" r:id="rId70" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{6A21F50C-DF13-4F24-B98A-D31C14680622}"/>
+    <hyperlink ref="E124" r:id="rId71" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{24425278-15BF-44BE-ABD0-E68579922E93}"/>
+    <hyperlink ref="E135" r:id="rId72" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2F7BC736-8CF5-4D6A-82EC-B9DB1088924A}"/>
+    <hyperlink ref="E128" r:id="rId73" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{04A8FDDB-27B5-4519-BB66-A3A2647CFF4B}"/>
+    <hyperlink ref="E134" r:id="rId74" xr:uid="{BC8B4591-D7CF-43AA-92EC-45AD02DEC5F1}"/>
+    <hyperlink ref="E133" r:id="rId75" xr:uid="{ED1C7C56-0124-41AC-944B-BB36277D337F}"/>
+    <hyperlink ref="E130" r:id="rId76" xr:uid="{B8136907-6CDA-4758-827D-AFFF71D7FA6D}"/>
+    <hyperlink ref="E127" r:id="rId77" xr:uid="{CCABC04A-E413-40CB-A65A-55265BDAF4CC}"/>
+    <hyperlink ref="E126" r:id="rId78" xr:uid="{7B0DD3BA-C831-48CC-8EC5-87E799015FA7}"/>
+    <hyperlink ref="E136" r:id="rId79" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{5A9C5EB8-F261-4C96-BD93-DA34F0ECC7B6}"/>
+    <hyperlink ref="E129" r:id="rId80" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{84437805-A63F-4C83-90D5-A2AF927BC26D}"/>
+    <hyperlink ref="E36" r:id="rId81" display="https://www.flaticon.com/free-icon/minus_339879?term=line&amp;page=1&amp;position=26&amp;page=1&amp;position=26&amp;related_id=339879&amp;origin=search" xr:uid="{D2752D53-41F8-4CF5-9D11-EFFF3743F790}"/>
+    <hyperlink ref="E35" r:id="rId82" xr:uid="{1AEDB667-3DB4-450A-9EE8-21993BE9A11F}"/>
+    <hyperlink ref="E155" r:id="rId83" xr:uid="{DC53F1E9-153F-432D-ADF4-B2FD7DFA0018}"/>
+    <hyperlink ref="E157" r:id="rId84" xr:uid="{151448B7-198E-4AA0-A4F7-01911777E3E7}"/>
+    <hyperlink ref="E154" r:id="rId85" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{56CE44B4-2392-412D-844A-C1367F8F3394}"/>
+    <hyperlink ref="E159" r:id="rId86" display="https://fonts.google.com/specimen/Dosis" xr:uid="{07883802-47CB-44AD-BC48-9EE84CF9D379}"/>
+    <hyperlink ref="E15" r:id="rId87" xr:uid="{39FF14D5-DE16-4A03-9B12-299B4F8F402F}"/>
+    <hyperlink ref="E158" r:id="rId88" xr:uid="{7E3377F2-51ED-4E7B-93A3-7D1E3F077B73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId81"/>
-  <drawing r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId89"/>
+  <drawing r:id="rId90"/>
 </worksheet>
 </file>
 
@@ -7550,51 +8295,51 @@
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="50" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="50" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="50" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -7632,21 +8377,21 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -7655,44 +8400,44 @@
     </row>
     <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="48" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="48" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C8" s="48">
         <v>1</v>
@@ -7706,10 +8451,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="48" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C9" s="48">
         <v>2</v>
@@ -7723,10 +8468,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="48" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C10" s="48">
         <v>3</v>
@@ -7740,10 +8485,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>303</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>306</v>
       </c>
       <c r="C11" s="48">
         <v>5</v>
@@ -7757,10 +8502,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="48" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C12" s="48">
         <v>2</v>
@@ -7774,10 +8519,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="48" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C13" s="48">
         <v>3</v>
@@ -7791,10 +8536,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="48" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C14" s="48">
         <v>5</v>
@@ -7808,10 +8553,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="48" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C15" s="48">
         <v>3</v>
@@ -7825,10 +8570,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C16" s="48">
         <v>4</v>
@@ -7842,10 +8587,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="48" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C17" s="48">
         <v>4</v>
@@ -7859,10 +8604,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="48" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C18" s="48">
         <v>5</v>
@@ -7876,10 +8621,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="48" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C19" s="48">
         <v>3</v>
@@ -7893,10 +8638,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="48" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C20" s="48">
         <v>4</v>
@@ -7910,10 +8655,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="48" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C21" s="48">
         <v>2</v>
@@ -7927,10 +8672,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="48" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C22" s="48">
         <v>4</v>
@@ -7971,63 +8716,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>459</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>460</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>460</v>
+        <v>453</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C6" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+        <v>455</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="53" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E8">
         <v>-3</v>
@@ -8035,10 +8780,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CCB6A3-88C6-416A-92BF-091606BD029A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB199DF2-F868-4604-BE0F-9D8D560E905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="497">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,10 +419,6 @@
   </si>
   <si>
     <t>전세계 감염률 그래프의 퍼센테이지 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누르면 누른 나라의 Selected Country 프레임으로 넘어감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1327,10 +1323,6 @@
   </si>
   <si>
     <t>감염률=감염자 수/대륙인구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감염자 수가 0인 대륙은 한 대륙의 감염률이 10%가 넘으면 10%의 확률로 첫 감염자가 생김</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2149,35 +2141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">감염자 수가 0이 아닌 대륙은 전염성 값을 확률로 하여 1초에 한 번씩 계산해서 감염자가 </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1000씩 늚</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인게임 알고리즘 감염자 증가 수 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2248,10 +2211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유전자는 감염률이 +5가 될 때, 새로운 대륙에서 새 감염자가 생길 때(최초 1회)에 유전자를 1씩 얻음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인게임 알고리즘 유전자 획득 방법 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2437,6 +2396,171 @@
   </si>
   <si>
     <t>2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누르면 누른 나라의 Selected Country 프레임으로 넘어감, 세계지도가 아닌 배경을 누르면 Country Selected에서 Default로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Ingame Default 국가정보 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 회색 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI Gen Default, Selected 배경 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">유전자는 감염률이 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1가 될 때, 새로운 대륙에서 새 감염자가 생길 때(최초 1회)에 유전자를 1씩 얻음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 유전자 획득 알고리즘 퍼센트 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 21번행(다른 대륙으로 전염) 퍼센트 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">감염자 수가 0인 대륙은 한 대륙의 감염률이 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5%가 넘으면 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20%의 확률로 첫 감염자가 생김</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">감염자 수가 0이 아닌 대륙은 전염성 값을 확률로 하여 1초에 한 번씩 계산해서 감염자가 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5000씩 늚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 늘어나는 감염자 수 편집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2711,7 +2835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2742,7 +2866,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2755,15 +2879,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -2787,9 +2902,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2805,34 +2917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -2844,43 +2929,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -2889,31 +2938,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
@@ -2928,10 +2965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4142,25 +4176,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="27"/>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="23"/>
     <col min="3" max="3" width="76.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -4183,10 +4217,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="15">
+      <c r="A4" s="5">
         <v>221108</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -4194,380 +4228,419 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
+      <c r="A7" s="5">
         <v>221108</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
+      <c r="A9" s="5">
         <v>221112</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="22">
         <v>1.2</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
+      <c r="A11" s="5">
         <v>221114</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>1.3</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="33" t="s">
-        <v>155</v>
+      <c r="A12" s="5"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="17" t="s">
-        <v>114</v>
+      <c r="A13" s="5"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="17" t="s">
-        <v>113</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="17" t="s">
-        <v>154</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
+      <c r="A16" s="5">
         <v>221119</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="17" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="17" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>221125</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
-        <v>221125</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="15">
+      <c r="A23" s="5">
         <v>221126</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C23" s="17" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="17" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="17" t="s">
-        <v>305</v>
+      <c r="A26" s="5"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="15">
+      <c r="A27" s="5">
         <v>221127</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="15">
+      <c r="A29" s="5">
         <v>221129</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>326</v>
+      <c r="B29" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="17" t="s">
-        <v>339</v>
+      <c r="A30" s="5"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="5" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="17" t="s">
-        <v>340</v>
+      <c r="A31" s="5"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="5" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="15">
+      <c r="A32" s="5">
         <v>221202</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C32" s="17" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="15"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="15"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="15"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="17" t="s">
-        <v>382</v>
+      <c r="A35" s="5"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="5" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="15">
+      <c r="A36" s="5">
         <v>221205</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>387</v>
+      <c r="B36" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="17" t="s">
-        <v>399</v>
+      <c r="A37" s="5"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="15"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="17" t="s">
-        <v>400</v>
+      <c r="A38" s="5"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="5" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="15"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="17" t="s">
-        <v>412</v>
+      <c r="A39" s="5"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="5" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="15"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="17" t="s">
-        <v>413</v>
+      <c r="A40" s="5"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="5" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="15"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="17" t="s">
-        <v>427</v>
+      <c r="A41" s="5"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="5" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="15">
+      <c r="A42" s="5">
         <v>221206</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>436</v>
+      <c r="B42" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="15"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="17" t="s">
-        <v>451</v>
+      <c r="A43" s="5"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="5" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="15"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="17" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
+        <v>221207</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="15">
-        <v>221207</v>
-      </c>
-      <c r="B45" s="26" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="5"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="5">
+        <v>221209</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="5"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="15"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="15"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="15"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="17" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="15"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="17" t="s">
-        <v>488</v>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="5"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="43" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="5"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="43" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="5"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="43" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4658,8 +4731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4791336A-D98C-4D41-919D-44FAB4E982D2}">
   <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4667,7 +4740,7 @@
     <col min="1" max="1" width="158.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.09765625" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
@@ -4680,388 +4753,388 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="E6" s="29" t="s">
         <v>259</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>260</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="39"/>
+      <c r="A7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="E7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="E8" s="37" t="s">
+      <c r="B8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F9" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G9" s="5">
+        <v>-3</v>
+      </c>
+      <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="37">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="E10" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="E11" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="E12" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="E9" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" s="37">
-        <v>-3</v>
-      </c>
-      <c r="H9" s="37">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E13" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="E10" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="37">
-        <v>3</v>
-      </c>
-      <c r="H10" s="37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="E11" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" s="37">
-        <v>2</v>
-      </c>
-      <c r="H11" s="37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="E12" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="G12" s="37">
-        <v>1</v>
-      </c>
-      <c r="H12" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E13" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="G13" s="37">
-        <v>0</v>
-      </c>
-      <c r="H13" s="37">
+      <c r="H13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="E15" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F15" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="5">
+        <v>-2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="E16" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="E17" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="E18" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="E19" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="E20" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="H14" s="37">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="45" t="s">
+      <c r="H21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="E15" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G15" s="37">
-        <v>-2</v>
-      </c>
-      <c r="H15" s="37">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="E16" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="37">
+      <c r="B22" s="5"/>
+      <c r="E22" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G23" s="5">
         <v>3</v>
       </c>
-      <c r="H16" s="37">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="E17" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="37">
-        <v>1</v>
-      </c>
-      <c r="H17" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="E18" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G18" s="37">
-        <v>3</v>
-      </c>
-      <c r="H18" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="E19" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="G19" s="37">
-        <v>2</v>
-      </c>
-      <c r="H19" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="E20" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="37">
-        <v>0</v>
-      </c>
-      <c r="H20" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="G21" s="37">
-        <v>-1</v>
-      </c>
-      <c r="H21" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="E22" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="37">
-        <v>2</v>
-      </c>
-      <c r="H22" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="37">
-        <v>3</v>
-      </c>
-      <c r="H23" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="45"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="B25" s="45"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" s="45"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="45" t="s">
-        <v>462</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>315</v>
+      <c r="A29" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>315</v>
+      <c r="A30" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="17" t="s">
-        <v>464</v>
+      <c r="A31" s="5" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -5075,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44674A58-C654-405A-9502-1E860471AEB6}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5087,7 +5160,7 @@
     <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.5" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="92.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="122.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49" bestFit="1" customWidth="1"/>
   </cols>
@@ -5117,7 +5190,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -5127,7 +5200,7 @@
       <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -5139,7 +5212,7 @@
       <c r="F7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -5153,23 +5226,23 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>61</v>
       </c>
       <c r="I8" s="5">
@@ -5183,18 +5256,18 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -5209,34 +5282,34 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="18" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
@@ -5244,129 +5317,119 @@
       <c r="J11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="41" t="s">
-        <v>384</v>
+      <c r="K11" s="28" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="55" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="31" t="s">
         <v>50</v>
       </c>
       <c r="I12" s="5">
         <v>4</v>
       </c>
-      <c r="J12" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>386</v>
+      <c r="J12" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="43" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="31">
         <v>5</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="62">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="5">
         <v>4</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="D15" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="62" t="s">
-        <v>426</v>
-      </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="62">
+      <c r="G15" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I15" s="5">
         <v>5</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J15" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-    </row>
-    <row r="17" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
         <v>73</v>
       </c>
@@ -5376,1643 +5439,1612 @@
       <c r="F20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="5">
+        <v>6</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="I22" s="5">
+        <v>7</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
+      <c r="C24" s="5">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="5">
+        <v>9</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="15"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="5">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="15"/>
+      <c r="C26" s="5">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="5">
+        <v>11</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="15"/>
+      <c r="C27" s="5">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="5">
+        <v>12</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
+      <c r="C28" s="5">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="5">
+        <v>13</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="15"/>
+      <c r="C29" s="5">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="I29" s="5">
+        <v>14</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="15"/>
+      <c r="C30" s="5">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="I30" s="5">
+        <v>15</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="15"/>
+      <c r="C31" s="5">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="5">
+        <v>16</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="15"/>
+      <c r="C32" s="5">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="5">
+        <v>17</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="15"/>
+      <c r="C33" s="5">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="5">
+        <v>18</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="20">
+        <v>14</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="5">
+        <v>19</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="15"/>
+      <c r="C35" s="5">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="15"/>
+      <c r="C36" s="5">
+        <v>16</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="5">
+        <v>20</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I38" s="5">
+        <v>21</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="5">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="E39" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="25">
+      <c r="G39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="5">
+        <v>22</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="5">
+        <v>9</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="5">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" s="5">
+        <v>23</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="5">
         <v>6</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="C22" s="25">
-        <v>2</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="D42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="5">
+        <v>24</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="5">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="5">
+        <v>25</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="30">
+        <v>8</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I44" s="31">
+        <v>26</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="28">
+        <v>8</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="25">
-        <v>7</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="C23" s="25">
-        <v>3</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="G45" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="I45" s="5">
+        <v>26</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="30">
+        <v>9</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="25">
-        <v>8</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="18"/>
-      <c r="C24" s="25">
-        <v>4</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="G46" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="30">
+        <v>27</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="30">
+        <v>10</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="25">
-        <v>9</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="18"/>
-      <c r="C25" s="25">
-        <v>5</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="25">
-        <v>10</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
-      <c r="C26" s="25">
-        <v>6</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="25">
+      <c r="G47" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="30">
+        <v>28</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="30">
         <v>11</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
-      <c r="C27" s="25">
-        <v>7</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="25">
+      <c r="D48" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="30">
+        <v>29</v>
+      </c>
+      <c r="J48" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48" s="30"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="5">
         <v>12</v>
       </c>
-      <c r="J27" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="C28" s="25">
-        <v>8</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="25">
-        <v>13</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="C29" s="25">
-        <v>9</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="25" t="s">
+      <c r="D49" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="I29" s="25">
-        <v>14</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
-      <c r="C30" s="25">
-        <v>10</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="I30" s="25">
-        <v>15</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="18"/>
-      <c r="C31" s="25">
-        <v>11</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" s="25">
-        <v>16</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="25"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
-      <c r="C32" s="25">
-        <v>12</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" s="25">
-        <v>17</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
-      <c r="C33" s="25">
-        <v>13</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="25">
-        <v>18</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="23">
-        <v>14</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="25">
-        <v>19</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="62">
-        <v>15</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>473</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-    </row>
-    <row r="36" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="62">
-        <v>16</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="F36" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="17">
-        <v>1</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I37" s="25">
-        <v>20</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K37" s="25"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="17">
-        <v>2</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="I38" s="25">
-        <v>21</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="K38" s="41" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="17">
-        <v>3</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="25">
-        <v>22</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K39" s="25"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="17">
-        <v>4</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" s="25">
-        <v>9</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="17">
-        <v>5</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I41" s="17">
-        <v>23</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K41" s="25"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="17">
-        <v>6</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" s="25">
-        <v>24</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="K42" s="25"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="17">
-        <v>7</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" s="25">
-        <v>25</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="K43" s="25"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="56">
-        <v>8</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>391</v>
-      </c>
-      <c r="F44" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" s="55">
-        <v>26</v>
-      </c>
-      <c r="J44" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="K44" s="43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="60">
-        <v>8</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>437</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="60" t="s">
-        <v>438</v>
-      </c>
-      <c r="I45" s="64">
-        <v>26</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="K45" s="41" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="56">
-        <v>9</v>
-      </c>
-      <c r="D46" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" s="43">
-        <v>27</v>
-      </c>
-      <c r="J46" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="K46" s="43"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="56">
-        <v>10</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="I47" s="43">
-        <v>28</v>
-      </c>
-      <c r="J47" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="K47" s="43"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="56">
-        <v>11</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="G48" s="56" t="s">
+      <c r="G49" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="43">
-        <v>29</v>
-      </c>
-      <c r="J48" s="56" t="s">
+      <c r="I49" s="5">
+        <v>30</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K48" s="43"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="17">
-        <v>12</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="25">
-        <v>30</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K49" s="25"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="I50" s="31"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="17">
-        <v>1</v>
-      </c>
-      <c r="D52" s="17" t="s">
+      <c r="E52" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I52" s="27">
+        <v>31</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="K52" s="27"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="27">
+        <v>32</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" s="27">
+        <v>33</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="5">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E55" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I55" s="27">
+        <v>34</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="5">
+        <v>5</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="I52" s="34">
-        <v>31</v>
-      </c>
-      <c r="J52" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="17">
-        <v>2</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I53" s="34">
-        <v>32</v>
-      </c>
-      <c r="J53" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="K53" s="34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="17">
-        <v>3</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="I54" s="34">
-        <v>33</v>
-      </c>
-      <c r="J54" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="K54" s="34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="17">
-        <v>4</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="34">
-        <v>34</v>
-      </c>
-      <c r="J55" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="K55" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="32">
-        <v>5</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="32" t="s">
+      <c r="F56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G56" s="32" t="s">
-        <v>390</v>
+      <c r="G56" s="5" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="32">
-        <v>1</v>
-      </c>
-      <c r="D65" s="32" t="s">
+      <c r="E65" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="I65" s="5">
+        <v>35</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="5">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E66" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="I66" s="5">
+        <v>36</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="5">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G65" s="41" t="s">
-        <v>392</v>
-      </c>
-      <c r="I65" s="32">
-        <v>35</v>
-      </c>
-      <c r="J65" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="K65" s="32"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="32">
-        <v>2</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="F66" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="I66" s="32">
-        <v>36</v>
-      </c>
-      <c r="J66" s="32" t="s">
+      <c r="F67" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I67" s="5">
+        <v>37</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="K66" s="41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="32">
-        <v>3</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" s="32" t="s">
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I67" s="32">
-        <v>37</v>
-      </c>
-      <c r="J67" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="K67" s="32"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-    </row>
-    <row r="78" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="23" t="s">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="50">
+      <c r="B78" s="26"/>
+      <c r="C78" s="5">
         <v>1</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" s="16"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I79" s="5">
+        <v>60</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" s="16"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="5">
+        <v>3</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="16"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="16"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="5">
+        <v>4</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I82" s="5">
+        <v>61</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="16"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="16"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="5">
+        <v>5</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E84" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="G78" s="50" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="19"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="50">
-        <v>2</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E79" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="F79" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G79" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="I79" s="50">
-        <v>60</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="K79" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="19"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="50">
-        <v>3</v>
-      </c>
-      <c r="D80" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="29" t="s">
+      <c r="F84" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I84" s="5">
+        <v>62</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="16"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="5">
+        <v>6</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E85" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="F85" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G80" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50"/>
-    </row>
-    <row r="81" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="19"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-    </row>
-    <row r="82" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="19"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="50">
-        <v>4</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="E82" s="29" t="s">
+      <c r="G85" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="I85" s="5">
+        <v>63</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="16"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="5">
+        <v>7</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E86" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F82" s="50" t="s">
+      <c r="F86" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G82" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="I82" s="50">
-        <v>61</v>
-      </c>
-      <c r="J82" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="K82" s="17" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="19"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-    </row>
-    <row r="84" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="19"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="50">
-        <v>5</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G84" s="50" t="s">
+      <c r="G86" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="I84" s="50">
-        <v>62</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="K84" s="17" t="s">
+      <c r="I86" s="5">
+        <v>64</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="19"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="50">
-        <v>6</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G85" s="50" t="s">
-        <v>425</v>
-      </c>
-      <c r="I85" s="50">
-        <v>63</v>
-      </c>
-      <c r="J85" s="17" t="s">
+      <c r="K86" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="K85" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="19"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="50">
-        <v>7</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="G86" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="I86" s="50">
-        <v>64</v>
-      </c>
-      <c r="J86" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="K86" s="17" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="19"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-    </row>
-    <row r="88" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="19"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-    </row>
-    <row r="89" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="19"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-    </row>
-    <row r="90" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="19"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-    </row>
-    <row r="91" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="19"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="16"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="16"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="16"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="16"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="16"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-    </row>
-    <row r="93" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="23" t="s">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B93" s="26"/>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="16"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="5">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="17">
-        <v>1</v>
-      </c>
-      <c r="D93" s="17" t="s">
+      <c r="E94" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I94" s="5">
+        <v>65</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="16"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="5">
+        <v>3</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E95" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F93" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="19"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="17">
-        <v>2</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="E94" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="I94" s="53">
-        <v>65</v>
-      </c>
-      <c r="J94" s="17" t="s">
+      <c r="F95" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I95" s="5">
+        <v>66</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="K95" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="K94" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="19"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="17">
-        <v>3</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="I95" s="53">
-        <v>66</v>
-      </c>
-      <c r="J95" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="K95" s="17" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="19"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="19"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-    </row>
-    <row r="98" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="19"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-    </row>
-    <row r="99" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="19"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-    </row>
-    <row r="100" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="19"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="53"/>
-    </row>
-    <row r="101" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="19"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="53"/>
-    </row>
-    <row r="102" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="19"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="53"/>
-    </row>
-    <row r="103" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="19"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-    </row>
-    <row r="104" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="19"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-    </row>
-    <row r="105" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="16"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="16"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="16"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="16"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="16"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="16"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="16"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="16"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="16"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="53"/>
-    </row>
-    <row r="106" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="31"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-    </row>
-    <row r="107" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="31"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-    </row>
-    <row r="108" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="31"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-    </row>
-    <row r="109" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+    </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36" t="s">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E111" s="7" t="s">
@@ -7021,977 +7053,967 @@
       <c r="F111" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="G111" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I111" s="36" t="s">
+      <c r="I111" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J111" s="36" t="s">
+      <c r="J111" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K111" s="36" t="s">
+      <c r="K111" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C112" s="36">
+      <c r="C112" s="5">
         <v>1</v>
       </c>
-      <c r="D112" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E112" s="29" t="s">
+      <c r="D112" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I112" s="5">
+        <v>38</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K112" s="5"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="16"/>
+      <c r="C113" s="5">
+        <v>2</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I113" s="5">
+        <v>16</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K113" s="5"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="16"/>
+      <c r="C114" s="5">
+        <v>3</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E114" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F112" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G112" s="36" t="s">
+      <c r="F114" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I114" s="5">
+        <v>39</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K114" s="5"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="16"/>
+      <c r="C115" s="5">
+        <v>4</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I115" s="5">
+        <v>17</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="16"/>
+      <c r="C116" s="5">
+        <v>5</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I112" s="36">
-        <v>38</v>
-      </c>
-      <c r="J112" s="36" t="s">
+      <c r="I116" s="5">
+        <v>40</v>
+      </c>
+      <c r="J116" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K112" s="36"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A113" s="19"/>
-      <c r="C113" s="36">
+      <c r="K116" s="5"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="16"/>
+      <c r="C117" s="5">
+        <v>6</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I117" s="5">
+        <v>41</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="16"/>
+      <c r="C118" s="5">
+        <v>7</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I118" s="5">
+        <v>42</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="16"/>
+      <c r="C119" s="5">
+        <v>8</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I119" s="5">
+        <v>43</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="16"/>
+      <c r="C120" s="5">
+        <v>9</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I120" s="5">
+        <v>44</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K120" s="5"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="16"/>
+      <c r="C121" s="5">
+        <v>10</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I121" s="5">
+        <v>45</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="16"/>
+      <c r="C122" s="5">
+        <v>11</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I122" s="5">
+        <v>46</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A123" s="16"/>
+      <c r="C123" s="30">
+        <v>12</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E123" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H123" s="37"/>
+      <c r="I123" s="30">
+        <v>40</v>
+      </c>
+      <c r="J123" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K123" s="31"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A124" s="16"/>
+      <c r="C124" s="30">
+        <v>13</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="F124" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H124" s="37"/>
+      <c r="I124" s="30">
+        <v>47</v>
+      </c>
+      <c r="J124" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K124" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A125" s="16"/>
+      <c r="C125" s="30">
+        <v>14</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E125" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G125" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H125" s="37"/>
+      <c r="I125" s="30">
+        <v>42</v>
+      </c>
+      <c r="J125" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K125" s="31"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A126" s="16"/>
+      <c r="C126" s="30">
+        <v>15</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E126" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H126" s="37"/>
+      <c r="I126" s="30">
+        <v>43</v>
+      </c>
+      <c r="J126" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K126" s="31"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A127" s="16"/>
+      <c r="C127" s="30">
+        <v>16</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E127" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H127" s="37"/>
+      <c r="I127" s="30">
+        <v>44</v>
+      </c>
+      <c r="J127" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K127" s="31"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A128" s="16"/>
+      <c r="C128" s="30">
+        <v>17</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G128" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H128" s="37"/>
+      <c r="I128" s="30">
+        <v>48</v>
+      </c>
+      <c r="J128" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K128" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A129" s="16"/>
+      <c r="C129" s="30">
+        <v>18</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="H129" s="37"/>
+      <c r="I129" s="30">
+        <v>49</v>
+      </c>
+      <c r="J129" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K129" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A130" s="16"/>
+      <c r="C130" s="30">
+        <v>19</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E130" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F130" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G130" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H130" s="37"/>
+      <c r="I130" s="30">
+        <v>40</v>
+      </c>
+      <c r="J130" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K130" s="31"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A131" s="16"/>
+      <c r="C131" s="30">
+        <v>20</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G131" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H131" s="37"/>
+      <c r="I131" s="30">
+        <v>50</v>
+      </c>
+      <c r="J131" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K131" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A132" s="16"/>
+      <c r="C132" s="30">
+        <v>21</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H132" s="37"/>
+      <c r="I132" s="30">
+        <v>42</v>
+      </c>
+      <c r="J132" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K132" s="31"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A133" s="16"/>
+      <c r="C133" s="30">
+        <v>22</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E133" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H133" s="37"/>
+      <c r="I133" s="30">
+        <v>43</v>
+      </c>
+      <c r="J133" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K133" s="31"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A134" s="16"/>
+      <c r="C134" s="30">
+        <v>23</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E134" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H134" s="37"/>
+      <c r="I134" s="30">
+        <v>44</v>
+      </c>
+      <c r="J134" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K134" s="31"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A135" s="16"/>
+      <c r="C135" s="30">
+        <v>24</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G135" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="H135" s="37"/>
+      <c r="I135" s="30">
+        <v>51</v>
+      </c>
+      <c r="J135" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="K135" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A136" s="16"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="30">
+        <v>25</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F136" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G136" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H136" s="37"/>
+      <c r="I136" s="30">
+        <v>52</v>
+      </c>
+      <c r="J136" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K136" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A137" s="16"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="30">
+        <v>26</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="E137" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F137" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G137" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="H137" s="37"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A138" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B138" s="26"/>
+      <c r="C138" s="5">
+        <v>1</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I138" s="5">
+        <v>53</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="K138" s="5"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A139" s="16"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="5">
         <v>2</v>
       </c>
-      <c r="D113" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E113" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F113" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G113" s="36" t="s">
+      <c r="D139" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G139" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I113" s="36">
-        <v>16</v>
-      </c>
-      <c r="J113" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="K113" s="36"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A114" s="19"/>
-      <c r="C114" s="36">
+      <c r="I139" s="5">
+        <v>54</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="K139" s="5"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A140" s="16"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="5">
         <v>3</v>
       </c>
-      <c r="D114" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F114" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G114" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="I114" s="36">
-        <v>39</v>
-      </c>
-      <c r="J114" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="K114" s="36"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A115" s="19"/>
-      <c r="C115" s="36">
+      <c r="D140" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I140" s="5">
+        <v>55</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A141" s="16"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="5">
         <v>4</v>
       </c>
-      <c r="D115" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F115" s="36" t="s">
+      <c r="D141" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F141" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G115" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="I115" s="36">
-        <v>17</v>
-      </c>
-      <c r="J115" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="K115" s="36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A116" s="19"/>
-      <c r="C116" s="36">
+      <c r="G141" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I141" s="5">
+        <v>56</v>
+      </c>
+      <c r="J141" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A142" s="16"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="5">
         <v>5</v>
       </c>
-      <c r="D116" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F116" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G116" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I116" s="17">
-        <v>40</v>
-      </c>
-      <c r="J116" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="K116" s="36"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A117" s="19"/>
-      <c r="C117" s="36">
+      <c r="D142" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I142" s="5">
+        <v>57</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A143" s="16"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="5">
         <v>6</v>
       </c>
-      <c r="D117" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E117" s="44" t="s">
+      <c r="D143" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E143" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="F117" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G117" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I117" s="17">
-        <v>41</v>
-      </c>
-      <c r="J117" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="K117" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A118" s="19"/>
-      <c r="C118" s="36">
+      <c r="F143" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I143" s="5">
+        <v>58</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A144" s="16"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="5">
         <v>7</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E118" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F118" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="G118" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I118" s="17">
-        <v>42</v>
-      </c>
-      <c r="J118" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="K118" s="36"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A119" s="19"/>
-      <c r="C119" s="36">
-        <v>8</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F119" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G119" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="I119" s="17">
-        <v>43</v>
-      </c>
-      <c r="J119" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="K119" s="36"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A120" s="19"/>
-      <c r="C120" s="36">
-        <v>9</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F120" s="36" t="s">
+      <c r="D144" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G120" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I120" s="17">
-        <v>44</v>
-      </c>
-      <c r="J120" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="K120" s="36"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A121" s="19"/>
-      <c r="C121" s="36">
-        <v>10</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E121" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="F121" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G121" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="I121" s="17">
-        <v>45</v>
-      </c>
-      <c r="J121" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="K121" s="36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A122" s="19"/>
-      <c r="C122" s="36">
-        <v>11</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E122" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="F122" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G122" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="I122" s="17">
-        <v>46</v>
-      </c>
-      <c r="J122" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="K122" s="36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A123" s="19"/>
-      <c r="C123" s="43">
-        <v>12</v>
-      </c>
-      <c r="D123" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="E123" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="F123" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="G123" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H123" s="73"/>
-      <c r="I123" s="56">
-        <v>40</v>
-      </c>
-      <c r="J123" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="K123" s="55"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A124" s="19"/>
-      <c r="C124" s="43">
-        <v>13</v>
-      </c>
-      <c r="D124" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="E124" s="58" t="s">
-        <v>466</v>
-      </c>
-      <c r="F124" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G124" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H124" s="73"/>
-      <c r="I124" s="56">
-        <v>47</v>
-      </c>
-      <c r="J124" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="K124" s="55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A125" s="19"/>
-      <c r="C125" s="43">
-        <v>14</v>
-      </c>
-      <c r="D125" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="F125" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="G125" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="H125" s="73"/>
-      <c r="I125" s="56">
-        <v>42</v>
-      </c>
-      <c r="J125" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="K125" s="55"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A126" s="19"/>
-      <c r="C126" s="43">
-        <v>15</v>
-      </c>
-      <c r="D126" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="E126" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="F126" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G126" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="H126" s="73"/>
-      <c r="I126" s="56">
-        <v>43</v>
-      </c>
-      <c r="J126" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="K126" s="55"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A127" s="19"/>
-      <c r="C127" s="43">
-        <v>16</v>
-      </c>
-      <c r="D127" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="E127" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="F127" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="G127" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="H127" s="73"/>
-      <c r="I127" s="56">
-        <v>44</v>
-      </c>
-      <c r="J127" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="K127" s="55"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A128" s="19"/>
-      <c r="C128" s="43">
-        <v>17</v>
-      </c>
-      <c r="D128" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="E128" s="58" t="s">
-        <v>467</v>
-      </c>
-      <c r="F128" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G128" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="H128" s="73"/>
-      <c r="I128" s="56">
-        <v>48</v>
-      </c>
-      <c r="J128" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="K128" s="55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A129" s="19"/>
-      <c r="C129" s="43">
-        <v>18</v>
-      </c>
-      <c r="D129" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="E129" s="58" t="s">
-        <v>468</v>
-      </c>
-      <c r="F129" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G129" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="H129" s="73"/>
-      <c r="I129" s="56">
-        <v>49</v>
-      </c>
-      <c r="J129" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="K129" s="55" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A130" s="19"/>
-      <c r="C130" s="43">
-        <v>19</v>
-      </c>
-      <c r="D130" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="E130" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="F130" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="G130" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H130" s="73"/>
-      <c r="I130" s="56">
-        <v>40</v>
-      </c>
-      <c r="J130" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="K130" s="55"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A131" s="19"/>
-      <c r="C131" s="43">
-        <v>20</v>
-      </c>
-      <c r="D131" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="E131" s="58" t="s">
-        <v>466</v>
-      </c>
-      <c r="F131" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G131" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H131" s="73"/>
-      <c r="I131" s="56">
-        <v>50</v>
-      </c>
-      <c r="J131" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="K131" s="55" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A132" s="19"/>
-      <c r="C132" s="43">
-        <v>21</v>
-      </c>
-      <c r="D132" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="E132" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="F132" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="G132" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="H132" s="73"/>
-      <c r="I132" s="56">
-        <v>42</v>
-      </c>
-      <c r="J132" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="K132" s="55"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A133" s="19"/>
-      <c r="C133" s="43">
-        <v>22</v>
-      </c>
-      <c r="D133" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="E133" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="F133" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G133" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="H133" s="73"/>
-      <c r="I133" s="56">
-        <v>43</v>
-      </c>
-      <c r="J133" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="K133" s="55"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A134" s="19"/>
-      <c r="C134" s="43">
-        <v>23</v>
-      </c>
-      <c r="D134" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="E134" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="F134" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="G134" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="H134" s="73"/>
-      <c r="I134" s="56">
-        <v>44</v>
-      </c>
-      <c r="J134" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="K134" s="55"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A135" s="19"/>
-      <c r="C135" s="43">
-        <v>24</v>
-      </c>
-      <c r="D135" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="E135" s="58" t="s">
-        <v>467</v>
-      </c>
-      <c r="F135" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G135" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="H135" s="73"/>
-      <c r="I135" s="56">
-        <v>51</v>
-      </c>
-      <c r="J135" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="K135" s="55" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A136" s="19"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="43">
-        <v>25</v>
-      </c>
-      <c r="D136" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="E136" s="58" t="s">
-        <v>468</v>
-      </c>
-      <c r="F136" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G136" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="H136" s="73"/>
-      <c r="I136" s="56">
-        <v>52</v>
-      </c>
-      <c r="J136" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="K136" s="55" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="19"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="43">
-        <v>26</v>
-      </c>
-      <c r="D137" s="56" t="s">
-        <v>397</v>
-      </c>
-      <c r="E137" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="F137" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G137" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="H137" s="73"/>
-      <c r="I137" s="56"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="43"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A138" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B138" s="30"/>
-      <c r="C138" s="17">
-        <v>1</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I138" s="17">
-        <v>53</v>
-      </c>
-      <c r="J138" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="K138" s="36"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A139" s="19"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="17">
-        <v>2</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G139" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I139" s="17">
-        <v>54</v>
-      </c>
-      <c r="J139" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K139" s="36"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A140" s="19"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="17">
-        <v>3</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E140" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="F140" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G140" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="I140" s="17">
-        <v>55</v>
-      </c>
-      <c r="J140" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="K140" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A141" s="19"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="17">
-        <v>4</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E141" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="F141" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G141" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="I141" s="17">
-        <v>56</v>
-      </c>
-      <c r="J141" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K141" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A142" s="19"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="17">
-        <v>5</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E142" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="F142" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G142" s="17" t="s">
+      <c r="G144" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="I142" s="17">
-        <v>57</v>
-      </c>
-      <c r="J142" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K142" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A143" s="19"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="17">
-        <v>6</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E143" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="F143" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G143" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="I143" s="17">
-        <v>58</v>
-      </c>
-      <c r="J143" s="17" t="s">
+      <c r="I144" s="5">
+        <v>59</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K143" s="17" t="s">
+      <c r="K144" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A144" s="19"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="17">
-        <v>7</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E144" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="F144" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G144" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="I144" s="17">
-        <v>59</v>
-      </c>
-      <c r="J144" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="K144" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A145" s="19"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="36"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A146" s="19"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="36"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A147" s="19"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A148" s="19"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="36"/>
-      <c r="G148" s="36"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A149" s="19"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="36"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A152" s="63" t="s">
-        <v>477</v>
-      </c>
-      <c r="B152" s="63"/>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="63"/>
-      <c r="H152" s="63"/>
-      <c r="I152" s="63"/>
-      <c r="J152" s="63"/>
-      <c r="K152" s="63"/>
+      <c r="A152" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A153" s="62" t="s">
+      <c r="A153" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B153" s="62" t="s">
+      <c r="B153" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C153" s="62" t="s">
+      <c r="C153" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D153" s="62" t="s">
+      <c r="D153" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E153" s="7" t="s">
@@ -8000,181 +8022,163 @@
       <c r="F153" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G153" s="17" t="s">
+      <c r="G153" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H153" s="63"/>
-      <c r="I153" s="62" t="s">
+      <c r="I153" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J153" s="62" t="s">
+      <c r="J153" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K153" s="62" t="s">
+      <c r="K153" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B154" s="16"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="I154" s="5">
+        <v>60</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A155" s="16"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I155" s="5">
+        <v>2</v>
+      </c>
+      <c r="J155" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K155" s="5"/>
+    </row>
+    <row r="156" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A157" s="16"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I157" s="5">
+        <v>61</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="K157" s="28" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A158" s="16"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E158" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I158" s="5">
+        <v>5</v>
+      </c>
+      <c r="J158" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B154" s="19"/>
-      <c r="C154" s="62"/>
-      <c r="D154" s="19" t="s">
+      <c r="K158" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="E154" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F154" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G154" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="H154" s="63"/>
-      <c r="I154" s="62">
-        <v>60</v>
-      </c>
-      <c r="J154" s="62" t="s">
-        <v>486</v>
-      </c>
-      <c r="K154" s="62" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="62"/>
-      <c r="D155" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E155" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F155" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G155" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="H155" s="63"/>
-      <c r="I155" s="62">
-        <v>2</v>
-      </c>
-      <c r="J155" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K155" s="62"/>
-    </row>
-    <row r="156" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="62"/>
-      <c r="D156" s="62"/>
-      <c r="E156" s="61"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="62"/>
-      <c r="H156" s="63"/>
-      <c r="I156" s="62"/>
-      <c r="J156" s="62"/>
-      <c r="K156" s="62"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A157" s="19"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="62"/>
-      <c r="D157" s="62" t="s">
-        <v>480</v>
-      </c>
-      <c r="E157" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F157" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G157" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="H157" s="63"/>
-      <c r="I157" s="62">
-        <v>61</v>
-      </c>
-      <c r="J157" s="62" t="s">
-        <v>484</v>
-      </c>
-      <c r="K157" s="41" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A158" s="19"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="62"/>
-      <c r="D158" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="E158" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F158" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="G158" s="62" t="s">
-        <v>426</v>
-      </c>
-      <c r="H158" s="63"/>
-      <c r="I158" s="62">
-        <v>5</v>
-      </c>
-      <c r="J158" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="K158" s="17" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A159" s="19"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="62"/>
-      <c r="D159" s="62"/>
-      <c r="E159" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="F159" s="62"/>
-      <c r="G159" s="62"/>
-      <c r="H159" s="63"/>
-      <c r="I159" s="63"/>
-      <c r="J159" s="63"/>
-      <c r="K159" s="63"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A160" s="19"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="62"/>
-      <c r="D160" s="23"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="63"/>
-      <c r="I160" s="63"/>
-      <c r="J160" s="63"/>
-      <c r="K160" s="63"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A160" s="16"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="62"/>
-      <c r="D161" s="62"/>
-      <c r="E161" s="62"/>
-      <c r="F161" s="62"/>
-      <c r="G161" s="62"/>
-      <c r="H161" s="63"/>
-      <c r="I161" s="63"/>
-      <c r="J161" s="63"/>
-      <c r="K161" s="63"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8216,65 +8220,63 @@
     <hyperlink ref="E143" r:id="rId31" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{A3E48742-A63C-4F5A-9A0A-E53AFD4551A4}"/>
     <hyperlink ref="E144" r:id="rId32" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{CD60E30E-7CFA-40B8-952C-3C5E64D24AD8}"/>
     <hyperlink ref="E138" r:id="rId33" xr:uid="{5B3FE029-7779-4811-AAF5-9AF3BFB03950}"/>
-    <hyperlink ref="E139" r:id="rId34" xr:uid="{E1762F4C-D849-40D7-AEF2-460263AA7905}"/>
-    <hyperlink ref="E140" r:id="rId35" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{B0EE0B84-87D2-49A7-BDF3-164EF26059D9}"/>
-    <hyperlink ref="E142" r:id="rId36" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C8A2F1E0-23BD-45F5-87E3-24C720DB6B5C}"/>
-    <hyperlink ref="E8" r:id="rId37" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{CA9379A2-ED9E-4CA8-92E8-79D606690429}"/>
-    <hyperlink ref="E14" r:id="rId38" display="https://fonts.google.com/specimen/Dosis" xr:uid="{5B160C99-E667-450C-9776-63CB90260332}"/>
-    <hyperlink ref="E27" r:id="rId39" display="https://fonts.google.com/specimen/Dosis" xr:uid="{46AB7665-D4CD-406E-B6E9-A3CD26062F2A}"/>
-    <hyperlink ref="E28" r:id="rId40" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9B167C52-948B-4676-BCD1-AEE7074B97F1}"/>
-    <hyperlink ref="E32" r:id="rId41" display="https://fonts.google.com/specimen/Dosis" xr:uid="{AD798504-8243-48B2-A953-BA851015534E}"/>
-    <hyperlink ref="E34" r:id="rId42" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9596B8AC-08BF-4418-AB3E-A366E713A453}"/>
-    <hyperlink ref="E33" r:id="rId43" display="https://fonts.google.com/specimen/Dosis" xr:uid="{D2F4AFC0-E407-4372-925E-2A10A09C2EA5}"/>
-    <hyperlink ref="E56" r:id="rId44" xr:uid="{24BD5BB7-DE1B-46A3-B879-F0677C3A0182}"/>
-    <hyperlink ref="E80" r:id="rId45" xr:uid="{38F5040E-C625-4BBA-AB1D-2B29C1AB72D9}"/>
-    <hyperlink ref="E79" r:id="rId46" display="https://fonts.google.com/specimen/Dosis" xr:uid="{63DF1793-1A16-441F-A209-CC3DFF05B240}"/>
-    <hyperlink ref="E78" r:id="rId47" xr:uid="{5CA8A5AE-0621-40DE-8C19-569358E5315E}"/>
-    <hyperlink ref="E82" r:id="rId48" xr:uid="{D5FCE6FA-D691-499A-A4B6-FBF11394423A}"/>
-    <hyperlink ref="E85" r:id="rId49" xr:uid="{C26B5F25-9972-4097-9B10-F0920616BEC4}"/>
-    <hyperlink ref="E84" r:id="rId50" xr:uid="{A4C485AB-A26F-4215-9554-B3BE5B09A2F1}"/>
-    <hyperlink ref="E86" r:id="rId51" xr:uid="{136A8BB3-46F8-46C6-A793-449F6C8FBA43}"/>
-    <hyperlink ref="E87" r:id="rId52" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2AA02F48-400A-46DD-9313-5D431FFE4241}"/>
-    <hyperlink ref="E45" r:id="rId53" xr:uid="{0DF28670-E556-4155-9EF1-57CEB74E83DE}"/>
-    <hyperlink ref="E115" r:id="rId54" display="https://fonts.google.com/specimen/Dosis" xr:uid="{CFB7F020-6EC3-48A0-8B28-788F631EAE6B}"/>
-    <hyperlink ref="E117" r:id="rId55" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BD4F4309-2294-4431-8919-4E5E0BA894DA}"/>
-    <hyperlink ref="E121" r:id="rId56" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{8D9F31B9-63CB-4289-9B59-B0F3908BA9C1}"/>
-    <hyperlink ref="E120" r:id="rId57" xr:uid="{FB4943FD-BA78-4CA2-8F96-194C44603173}"/>
-    <hyperlink ref="E119" r:id="rId58" xr:uid="{B230A4D2-52CF-4130-BB9B-849810E27BB6}"/>
-    <hyperlink ref="E116" r:id="rId59" xr:uid="{D083F051-8CF7-40B6-B10C-9D58B2F4BA1E}"/>
-    <hyperlink ref="E114" r:id="rId60" xr:uid="{977D727D-092C-4E77-878B-5F484801E44F}"/>
-    <hyperlink ref="E113" r:id="rId61" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
-    <hyperlink ref="E112" r:id="rId62" xr:uid="{50A778A7-247C-422E-AF51-B818EFE47071}"/>
-    <hyperlink ref="E122" r:id="rId63" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C520BE2B-512C-4A03-B807-EFE0FA080A11}"/>
-    <hyperlink ref="E93" r:id="rId64" xr:uid="{42DE131B-6F33-4CDE-B905-24CFB703E08A}"/>
-    <hyperlink ref="E95" r:id="rId65" xr:uid="{5F95B812-4303-4962-8854-1F626AD025F6}"/>
-    <hyperlink ref="E94" r:id="rId66" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{48631F0D-1A2B-4A58-8EFE-FA1720A44100}"/>
-    <hyperlink ref="E96" r:id="rId67" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{340DBF11-1859-44FB-A5A4-C11048E23AA6}"/>
-    <hyperlink ref="E123" r:id="rId68" xr:uid="{42183E86-07D9-41FE-825C-8D7E49A8D204}"/>
-    <hyperlink ref="E137" r:id="rId69" xr:uid="{CD5188D6-9895-49BC-877E-D406B45D7AC7}"/>
-    <hyperlink ref="E131" r:id="rId70" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{6A21F50C-DF13-4F24-B98A-D31C14680622}"/>
-    <hyperlink ref="E124" r:id="rId71" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{24425278-15BF-44BE-ABD0-E68579922E93}"/>
-    <hyperlink ref="E135" r:id="rId72" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2F7BC736-8CF5-4D6A-82EC-B9DB1088924A}"/>
-    <hyperlink ref="E128" r:id="rId73" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{04A8FDDB-27B5-4519-BB66-A3A2647CFF4B}"/>
-    <hyperlink ref="E134" r:id="rId74" xr:uid="{BC8B4591-D7CF-43AA-92EC-45AD02DEC5F1}"/>
-    <hyperlink ref="E133" r:id="rId75" xr:uid="{ED1C7C56-0124-41AC-944B-BB36277D337F}"/>
-    <hyperlink ref="E130" r:id="rId76" xr:uid="{B8136907-6CDA-4758-827D-AFFF71D7FA6D}"/>
-    <hyperlink ref="E127" r:id="rId77" xr:uid="{CCABC04A-E413-40CB-A65A-55265BDAF4CC}"/>
-    <hyperlink ref="E126" r:id="rId78" xr:uid="{7B0DD3BA-C831-48CC-8EC5-87E799015FA7}"/>
-    <hyperlink ref="E136" r:id="rId79" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{5A9C5EB8-F261-4C96-BD93-DA34F0ECC7B6}"/>
-    <hyperlink ref="E129" r:id="rId80" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{84437805-A63F-4C83-90D5-A2AF927BC26D}"/>
-    <hyperlink ref="E36" r:id="rId81" display="https://www.flaticon.com/free-icon/minus_339879?term=line&amp;page=1&amp;position=26&amp;page=1&amp;position=26&amp;related_id=339879&amp;origin=search" xr:uid="{D2752D53-41F8-4CF5-9D11-EFFF3743F790}"/>
-    <hyperlink ref="E35" r:id="rId82" xr:uid="{1AEDB667-3DB4-450A-9EE8-21993BE9A11F}"/>
-    <hyperlink ref="E155" r:id="rId83" xr:uid="{DC53F1E9-153F-432D-ADF4-B2FD7DFA0018}"/>
-    <hyperlink ref="E157" r:id="rId84" xr:uid="{151448B7-198E-4AA0-A4F7-01911777E3E7}"/>
-    <hyperlink ref="E154" r:id="rId85" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{56CE44B4-2392-412D-844A-C1367F8F3394}"/>
-    <hyperlink ref="E159" r:id="rId86" display="https://fonts.google.com/specimen/Dosis" xr:uid="{07883802-47CB-44AD-BC48-9EE84CF9D379}"/>
-    <hyperlink ref="E15" r:id="rId87" xr:uid="{39FF14D5-DE16-4A03-9B12-299B4F8F402F}"/>
-    <hyperlink ref="E158" r:id="rId88" xr:uid="{7E3377F2-51ED-4E7B-93A3-7D1E3F077B73}"/>
+    <hyperlink ref="E140" r:id="rId34" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{B0EE0B84-87D2-49A7-BDF3-164EF26059D9}"/>
+    <hyperlink ref="E142" r:id="rId35" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C8A2F1E0-23BD-45F5-87E3-24C720DB6B5C}"/>
+    <hyperlink ref="E8" r:id="rId36" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{CA9379A2-ED9E-4CA8-92E8-79D606690429}"/>
+    <hyperlink ref="E14" r:id="rId37" display="https://fonts.google.com/specimen/Dosis" xr:uid="{5B160C99-E667-450C-9776-63CB90260332}"/>
+    <hyperlink ref="E27" r:id="rId38" display="https://fonts.google.com/specimen/Dosis" xr:uid="{46AB7665-D4CD-406E-B6E9-A3CD26062F2A}"/>
+    <hyperlink ref="E28" r:id="rId39" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9B167C52-948B-4676-BCD1-AEE7074B97F1}"/>
+    <hyperlink ref="E32" r:id="rId40" display="https://fonts.google.com/specimen/Dosis" xr:uid="{AD798504-8243-48B2-A953-BA851015534E}"/>
+    <hyperlink ref="E34" r:id="rId41" display="https://fonts.google.com/specimen/Dosis" xr:uid="{9596B8AC-08BF-4418-AB3E-A366E713A453}"/>
+    <hyperlink ref="E33" r:id="rId42" display="https://fonts.google.com/specimen/Dosis" xr:uid="{D2F4AFC0-E407-4372-925E-2A10A09C2EA5}"/>
+    <hyperlink ref="E56" r:id="rId43" xr:uid="{24BD5BB7-DE1B-46A3-B879-F0677C3A0182}"/>
+    <hyperlink ref="E80" r:id="rId44" xr:uid="{38F5040E-C625-4BBA-AB1D-2B29C1AB72D9}"/>
+    <hyperlink ref="E79" r:id="rId45" display="https://fonts.google.com/specimen/Dosis" xr:uid="{63DF1793-1A16-441F-A209-CC3DFF05B240}"/>
+    <hyperlink ref="E78" r:id="rId46" xr:uid="{5CA8A5AE-0621-40DE-8C19-569358E5315E}"/>
+    <hyperlink ref="E82" r:id="rId47" xr:uid="{D5FCE6FA-D691-499A-A4B6-FBF11394423A}"/>
+    <hyperlink ref="E85" r:id="rId48" xr:uid="{C26B5F25-9972-4097-9B10-F0920616BEC4}"/>
+    <hyperlink ref="E84" r:id="rId49" xr:uid="{A4C485AB-A26F-4215-9554-B3BE5B09A2F1}"/>
+    <hyperlink ref="E86" r:id="rId50" xr:uid="{136A8BB3-46F8-46C6-A793-449F6C8FBA43}"/>
+    <hyperlink ref="E87" r:id="rId51" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2AA02F48-400A-46DD-9313-5D431FFE4241}"/>
+    <hyperlink ref="E45" r:id="rId52" xr:uid="{0DF28670-E556-4155-9EF1-57CEB74E83DE}"/>
+    <hyperlink ref="E115" r:id="rId53" display="https://fonts.google.com/specimen/Dosis" xr:uid="{CFB7F020-6EC3-48A0-8B28-788F631EAE6B}"/>
+    <hyperlink ref="E117" r:id="rId54" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{BD4F4309-2294-4431-8919-4E5E0BA894DA}"/>
+    <hyperlink ref="E121" r:id="rId55" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{8D9F31B9-63CB-4289-9B59-B0F3908BA9C1}"/>
+    <hyperlink ref="E120" r:id="rId56" xr:uid="{FB4943FD-BA78-4CA2-8F96-194C44603173}"/>
+    <hyperlink ref="E119" r:id="rId57" xr:uid="{B230A4D2-52CF-4130-BB9B-849810E27BB6}"/>
+    <hyperlink ref="E116" r:id="rId58" xr:uid="{D083F051-8CF7-40B6-B10C-9D58B2F4BA1E}"/>
+    <hyperlink ref="E114" r:id="rId59" xr:uid="{977D727D-092C-4E77-878B-5F484801E44F}"/>
+    <hyperlink ref="E113" r:id="rId60" display="https://www.flaticon.com/free-icon/dna_1694118?term=gene&amp;page=1&amp;position=2&amp;page=1&amp;position=2&amp;related_id=1694118&amp;origin=search" xr:uid="{C5873974-B09D-416E-9160-A73A674C14AA}"/>
+    <hyperlink ref="E122" r:id="rId61" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{C520BE2B-512C-4A03-B807-EFE0FA080A11}"/>
+    <hyperlink ref="E93" r:id="rId62" xr:uid="{42DE131B-6F33-4CDE-B905-24CFB703E08A}"/>
+    <hyperlink ref="E95" r:id="rId63" xr:uid="{5F95B812-4303-4962-8854-1F626AD025F6}"/>
+    <hyperlink ref="E94" r:id="rId64" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{48631F0D-1A2B-4A58-8EFE-FA1720A44100}"/>
+    <hyperlink ref="E96" r:id="rId65" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{340DBF11-1859-44FB-A5A4-C11048E23AA6}"/>
+    <hyperlink ref="E123" r:id="rId66" xr:uid="{42183E86-07D9-41FE-825C-8D7E49A8D204}"/>
+    <hyperlink ref="E137" r:id="rId67" xr:uid="{CD5188D6-9895-49BC-877E-D406B45D7AC7}"/>
+    <hyperlink ref="E131" r:id="rId68" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{6A21F50C-DF13-4F24-B98A-D31C14680622}"/>
+    <hyperlink ref="E124" r:id="rId69" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{24425278-15BF-44BE-ABD0-E68579922E93}"/>
+    <hyperlink ref="E135" r:id="rId70" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{2F7BC736-8CF5-4D6A-82EC-B9DB1088924A}"/>
+    <hyperlink ref="E128" r:id="rId71" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{04A8FDDB-27B5-4519-BB66-A3A2647CFF4B}"/>
+    <hyperlink ref="E134" r:id="rId72" xr:uid="{BC8B4591-D7CF-43AA-92EC-45AD02DEC5F1}"/>
+    <hyperlink ref="E133" r:id="rId73" xr:uid="{ED1C7C56-0124-41AC-944B-BB36277D337F}"/>
+    <hyperlink ref="E130" r:id="rId74" xr:uid="{B8136907-6CDA-4758-827D-AFFF71D7FA6D}"/>
+    <hyperlink ref="E127" r:id="rId75" xr:uid="{CCABC04A-E413-40CB-A65A-55265BDAF4CC}"/>
+    <hyperlink ref="E126" r:id="rId76" xr:uid="{7B0DD3BA-C831-48CC-8EC5-87E799015FA7}"/>
+    <hyperlink ref="E136" r:id="rId77" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{5A9C5EB8-F261-4C96-BD93-DA34F0ECC7B6}"/>
+    <hyperlink ref="E129" r:id="rId78" display="https://www.sandollcloud.com/font/17644.html" xr:uid="{84437805-A63F-4C83-90D5-A2AF927BC26D}"/>
+    <hyperlink ref="E36" r:id="rId79" display="https://www.flaticon.com/free-icon/minus_339879?term=line&amp;page=1&amp;position=26&amp;page=1&amp;position=26&amp;related_id=339879&amp;origin=search" xr:uid="{D2752D53-41F8-4CF5-9D11-EFFF3743F790}"/>
+    <hyperlink ref="E35" r:id="rId80" xr:uid="{1AEDB667-3DB4-450A-9EE8-21993BE9A11F}"/>
+    <hyperlink ref="E155" r:id="rId81" xr:uid="{DC53F1E9-153F-432D-ADF4-B2FD7DFA0018}"/>
+    <hyperlink ref="E157" r:id="rId82" xr:uid="{151448B7-198E-4AA0-A4F7-01911777E3E7}"/>
+    <hyperlink ref="E154" r:id="rId83" display="https://fonts.google.com/specimen/Rubik+Glitch?preview.text=Zombies%20Rule%20the%20World&amp;preview.text_type=custom" xr:uid="{56CE44B4-2392-412D-844A-C1367F8F3394}"/>
+    <hyperlink ref="E159" r:id="rId84" display="https://fonts.google.com/specimen/Dosis" xr:uid="{07883802-47CB-44AD-BC48-9EE84CF9D379}"/>
+    <hyperlink ref="E15" r:id="rId85" xr:uid="{39FF14D5-DE16-4A03-9B12-299B4F8F402F}"/>
+    <hyperlink ref="E158" r:id="rId86" xr:uid="{7E3377F2-51ED-4E7B-93A3-7D1E3F077B73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId89"/>
-  <drawing r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId87"/>
+  <drawing r:id="rId88"/>
 </worksheet>
 </file>
 
@@ -8295,51 +8297,51 @@
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="50" t="s">
+      <c r="C5" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="50" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="B6" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="50" t="s">
+      <c r="B7" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>408</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>409</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>414</v>
+      <c r="B8" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8377,313 +8379,313 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>344</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="D7" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="E7" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="48" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="B8" s="5" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="48" t="s">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B9" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="48">
+      <c r="B10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="48">
-        <v>1</v>
-      </c>
-      <c r="E8" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="48">
+      <c r="E18" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E21" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="48" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="48">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="48">
-        <v>6</v>
-      </c>
-      <c r="E10" s="48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="48">
-        <v>5</v>
-      </c>
-      <c r="D11" s="48">
-        <v>4</v>
-      </c>
-      <c r="E11" s="48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="C12" s="48">
-        <v>2</v>
-      </c>
-      <c r="D12" s="48">
-        <v>3</v>
-      </c>
-      <c r="E12" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="C13" s="48">
-        <v>3</v>
-      </c>
-      <c r="D13" s="48">
-        <v>6</v>
-      </c>
-      <c r="E13" s="48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="C14" s="48">
-        <v>5</v>
-      </c>
-      <c r="D14" s="48">
-        <v>4</v>
-      </c>
-      <c r="E14" s="48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" s="48">
-        <v>3</v>
-      </c>
-      <c r="D15" s="48">
-        <v>4</v>
-      </c>
-      <c r="E15" s="48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="C16" s="48">
-        <v>4</v>
-      </c>
-      <c r="D16" s="48">
-        <v>5</v>
-      </c>
-      <c r="E16" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="C17" s="48">
-        <v>4</v>
-      </c>
-      <c r="D17" s="48">
-        <v>3</v>
-      </c>
-      <c r="E17" s="48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" s="48">
-        <v>5</v>
-      </c>
-      <c r="D18" s="48">
-        <v>1</v>
-      </c>
-      <c r="E18" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="C19" s="48">
-        <v>3</v>
-      </c>
-      <c r="D19" s="48">
-        <v>4</v>
-      </c>
-      <c r="E19" s="48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C20" s="48">
-        <v>4</v>
-      </c>
-      <c r="D20" s="48">
-        <v>3</v>
-      </c>
-      <c r="E20" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="C21" s="48">
-        <v>2</v>
-      </c>
-      <c r="D21" s="48">
-        <v>3</v>
-      </c>
-      <c r="E21" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="C22" s="48">
-        <v>4</v>
-      </c>
-      <c r="D22" s="48">
-        <v>3</v>
-      </c>
-      <c r="E22" s="48">
+      <c r="E22" s="5">
         <v>9</v>
       </c>
     </row>
@@ -8708,71 +8710,70 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.19921875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.19921875" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>453</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="54" t="s">
-        <v>455</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="53" t="s">
+      <c r="C7" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>257</v>
+      <c r="E7" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E8">
         <v>-3</v>
@@ -8780,10 +8781,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB199DF2-F868-4604-BE0F-9D8D560E905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB21514-C428-4F5C-B21C-DEC7F794ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="498">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2416,35 +2416,6 @@
   </si>
   <si>
     <t>2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">유전자는 감염률이 </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +1가 될 때, 새로운 대륙에서 새 감염자가 생길 때(최초 1회)에 유전자를 1씩 얻음</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2508,6 +2479,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>인게임 알고리즘 늘어나는 감염자 수 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">유전자는 최초에 10으로 시작, 전세계감염률이 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1가 될 때, 새로운 대륙에서 새 감염자가 생길 때(최초 1회)에 유전자를 1씩 얻음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">감염자 수가 0이 아닌 대륙은 전염성 값을 확률로 하여 1초에 한 번씩 계산해서 감염자가 </t>
     </r>
@@ -2555,12 +2559,35 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 5000씩 늚</t>
+      <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인게임 알고리즘 늘어나는 감염자 수 편집</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1000씩 늚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 알고리즘 퍼센트 편집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4176,10 +4203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4611,36 +4638,43 @@
       <c r="B52" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="5" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="5"/>
       <c r="B53" s="22"/>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="5" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
       <c r="B54" s="22"/>
-      <c r="C54" s="43" t="s">
-        <v>492</v>
+      <c r="C54" s="5" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="5"/>
       <c r="B55" s="22"/>
-      <c r="C55" s="43" t="s">
-        <v>493</v>
+      <c r="C55" s="5" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="5"/>
       <c r="B56" s="22"/>
-      <c r="C56" s="43" t="s">
-        <v>496</v>
+      <c r="C56" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="43" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4766,7 @@
   <dimension ref="A2:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5026,7 +5060,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>314</v>
@@ -5064,7 +5098,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>320</v>
@@ -5134,7 +5168,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/기획/Design.xlsx
+++ b/기획/Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB21514-C428-4F5C-B21C-DEC7F794ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EEDCC7-C27F-4D6D-9CEA-A4F45B2A3EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{94D0400B-452E-44F4-B9B1-B70E0DA40065}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="496">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,14 +69,6 @@
   </si>
   <si>
     <t>게임 장르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레퍼런스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plague Inc.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4205,7 +4197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CD65E-5386-4580-BCC8-9DD7E4F808AB}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -4218,17 +4210,17 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -4258,14 +4250,14 @@
       <c r="A5" s="5"/>
       <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -4276,14 +4268,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="22"/>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -4294,14 +4286,14 @@
         <v>1.2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="22"/>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -4312,35 +4304,35 @@
         <v>1.3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="22"/>
       <c r="C12" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="22"/>
       <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="22"/>
       <c r="C14" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -4348,24 +4340,24 @@
         <v>221119</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="22"/>
       <c r="C17" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="22"/>
       <c r="C18" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -4373,31 +4365,31 @@
         <v>221125</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="22"/>
       <c r="C20" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="22"/>
       <c r="C21" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="22"/>
       <c r="C22" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -4405,31 +4397,31 @@
         <v>221126</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="22"/>
       <c r="C24" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="22"/>
       <c r="C25" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="22"/>
       <c r="C26" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -4437,17 +4429,17 @@
         <v>221127</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="22"/>
       <c r="C28" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -4455,24 +4447,24 @@
         <v>221129</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="22"/>
       <c r="C30" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="22"/>
       <c r="C31" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -4480,31 +4472,31 @@
         <v>221202</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="5"/>
       <c r="B33" s="22"/>
       <c r="C33" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="22"/>
       <c r="C34" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="5"/>
       <c r="B35" s="22"/>
       <c r="C35" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -4512,45 +4504,45 @@
         <v>221205</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="5"/>
       <c r="B37" s="22"/>
       <c r="C37" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="5"/>
       <c r="B38" s="22"/>
       <c r="C38" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="5"/>
       <c r="B39" s="22"/>
       <c r="C39" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="22"/>
       <c r="C40" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
       <c r="B41" s="22"/>
       <c r="C41" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -4558,24 +4550,24 @@
         <v>221206</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="22"/>
       <c r="C43" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="22"/>
       <c r="C44" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -4583,52 +4575,52 @@
         <v>221207</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="22"/>
       <c r="C46" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="22"/>
       <c r="C47" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="22"/>
       <c r="C48" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="22"/>
       <c r="C49" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="22"/>
       <c r="C50" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
       <c r="B51" s="22"/>
       <c r="C51" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -4636,45 +4628,45 @@
         <v>221209</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="5"/>
       <c r="B53" s="22"/>
       <c r="C53" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="5"/>
       <c r="B54" s="22"/>
       <c r="C54" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="5"/>
       <c r="B55" s="22"/>
       <c r="C55" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="5"/>
       <c r="B56" s="22"/>
       <c r="C56" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="5"/>
       <c r="B57" s="22"/>
       <c r="C57" s="43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -4691,10 +4683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8327FA-0CC1-4EEE-A19D-060C2D4A29DA}">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4710,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -4726,33 +4718,23 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4783,26 +4765,26 @@
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>259</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -4810,32 +4792,32 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B7" s="5"/>
       <c r="E7" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -4846,14 +4828,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G9" s="5">
         <v>-3</v>
@@ -4864,14 +4846,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5"/>
       <c r="E10" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G10" s="5">
         <v>3</v>
@@ -4882,14 +4864,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5"/>
       <c r="E11" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G11" s="5">
         <v>2</v>
@@ -4900,14 +4882,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5"/>
       <c r="E12" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -4918,10 +4900,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E13" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -4932,16 +4914,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -4952,14 +4934,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B15" s="5"/>
       <c r="E15" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G15" s="5">
         <v>-2</v>
@@ -4970,14 +4952,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B16" s="5"/>
       <c r="E16" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G16" s="5">
         <v>3</v>
@@ -4988,14 +4970,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B17" s="5"/>
       <c r="E17" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -5006,14 +4988,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B18" s="5"/>
       <c r="E18" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G18" s="5">
         <v>3</v>
@@ -5024,14 +5006,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B19" s="5"/>
       <c r="E19" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G19" s="5">
         <v>2</v>
@@ -5042,14 +5024,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B20" s="5"/>
       <c r="E20" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -5060,16 +5042,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G21" s="5">
         <v>-1</v>
@@ -5080,14 +5062,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B22" s="5"/>
       <c r="E22" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G22" s="5">
         <v>2</v>
@@ -5098,16 +5080,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G23" s="5">
         <v>3</v>
@@ -5118,57 +5100,57 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -5201,92 +5183,92 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16">
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -5296,22 +5278,22 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -5334,25 +5316,25 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -5360,23 +5342,23 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="5">
         <v>4</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -5384,23 +5366,23 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I13" s="31">
         <v>5</v>
       </c>
       <c r="J13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="30" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -5409,7 +5391,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -5421,25 +5403,25 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I15" s="5">
         <v>5</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -5453,63 +5435,63 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I21" s="5">
         <v>6</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -5519,22 +5501,22 @@
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I22" s="5">
         <v>7</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -5544,22 +5526,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I23" s="5">
         <v>8</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -5569,22 +5551,22 @@
         <v>4</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I24" s="5">
         <v>9</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -5594,22 +5576,22 @@
         <v>5</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I25" s="5">
         <v>10</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K25" s="5"/>
     </row>
@@ -5619,20 +5601,20 @@
         <v>6</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="I26" s="5">
         <v>11</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -5642,25 +5624,25 @@
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I27" s="5">
         <v>12</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -5669,25 +5651,25 @@
         <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I28" s="5">
         <v>13</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -5696,22 +5678,22 @@
         <v>9</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I29" s="5">
         <v>14</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -5721,22 +5703,22 @@
         <v>10</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E30" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="G30" s="28" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I30" s="5">
         <v>15</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K30" s="5"/>
     </row>
@@ -5746,22 +5728,22 @@
         <v>11</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I31" s="5">
         <v>16</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -5771,25 +5753,25 @@
         <v>12</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I32" s="5">
         <v>17</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -5798,25 +5780,25 @@
         <v>13</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I33" s="5">
         <v>18</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -5826,25 +5808,25 @@
         <v>14</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I34" s="5">
         <v>19</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -5853,16 +5835,16 @@
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5874,16 +5856,16 @@
         <v>16</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5891,29 +5873,29 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I37" s="5">
         <v>20</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K37" s="5"/>
     </row>
@@ -5924,25 +5906,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I38" s="5">
         <v>21</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -5952,22 +5934,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I39" s="5">
         <v>22</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K39" s="5"/>
     </row>
@@ -5978,22 +5960,22 @@
         <v>4</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I40" s="5">
         <v>9</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K40" s="5"/>
     </row>
@@ -6004,22 +5986,22 @@
         <v>5</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I41" s="5">
         <v>23</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K41" s="5"/>
     </row>
@@ -6030,22 +6012,22 @@
         <v>6</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I42" s="5">
         <v>24</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K42" s="5"/>
     </row>
@@ -6056,22 +6038,22 @@
         <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I43" s="5">
         <v>25</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K43" s="5"/>
     </row>
@@ -6082,25 +6064,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I44" s="31">
         <v>26</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -6110,25 +6092,25 @@
         <v>8</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I45" s="5">
         <v>26</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -6138,22 +6120,22 @@
         <v>9</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I46" s="30">
         <v>27</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K46" s="30"/>
     </row>
@@ -6164,22 +6146,22 @@
         <v>10</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I47" s="30">
         <v>28</v>
       </c>
       <c r="J47" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K47" s="30"/>
     </row>
@@ -6190,22 +6172,22 @@
         <v>11</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I48" s="30">
         <v>29</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K48" s="30"/>
     </row>
@@ -6216,22 +6198,22 @@
         <v>12</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I49" s="5">
         <v>30</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K49" s="5"/>
     </row>
@@ -6255,29 +6237,29 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="5">
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I52" s="27">
         <v>31</v>
       </c>
       <c r="J52" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K52" s="27"/>
     </row>
@@ -6288,25 +6270,25 @@
         <v>2</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I53" s="27">
         <v>32</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -6316,25 +6298,25 @@
         <v>3</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="I54" s="27">
         <v>33</v>
       </c>
       <c r="J54" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -6344,25 +6326,25 @@
         <v>4</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I55" s="27">
         <v>34</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -6372,16 +6354,16 @@
         <v>5</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -6458,29 +6440,29 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I65" s="5">
         <v>35</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K65" s="5"/>
     </row>
@@ -6491,25 +6473,25 @@
         <v>2</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I66" s="5">
         <v>36</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -6519,22 +6501,22 @@
         <v>3</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I67" s="5">
         <v>37</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K67" s="5"/>
     </row>
@@ -6546,7 +6528,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -6632,23 +6614,23 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="5">
         <v>1</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
@@ -6658,25 +6640,25 @@
         <v>2</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I79" s="5">
         <v>60</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -6686,16 +6668,16 @@
         <v>3</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -6709,7 +6691,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -6722,25 +6704,25 @@
         <v>4</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I82" s="5">
         <v>61</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
@@ -6751,7 +6733,7 @@
       <c r="E83" s="25"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -6764,25 +6746,25 @@
         <v>5</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I84" s="5">
         <v>62</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
@@ -6792,25 +6774,25 @@
         <v>6</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I85" s="5">
         <v>63</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -6820,25 +6802,25 @@
         <v>7</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I86" s="5">
         <v>64</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -6847,7 +6829,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -6899,23 +6881,23 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="5">
         <v>1</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -6925,25 +6907,25 @@
         <v>2</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>443</v>
       </c>
       <c r="I94" s="5">
         <v>65</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
@@ -6953,25 +6935,25 @@
         <v>3</v>
       </c>
       <c r="D95" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="I95" s="5">
         <v>66</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
@@ -6980,7 +6962,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -7067,63 +7049,63 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I111" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K111" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C112" s="5">
         <v>1</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I112" s="5">
         <v>38</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K112" s="5"/>
     </row>
@@ -7133,22 +7115,22 @@
         <v>2</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I113" s="5">
         <v>16</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K113" s="5"/>
     </row>
@@ -7158,22 +7140,22 @@
         <v>3</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I114" s="5">
         <v>39</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K114" s="5"/>
     </row>
@@ -7183,25 +7165,25 @@
         <v>4</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I115" s="5">
         <v>17</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
@@ -7210,22 +7192,22 @@
         <v>5</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I116" s="5">
         <v>40</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K116" s="5"/>
     </row>
@@ -7235,25 +7217,25 @@
         <v>6</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I117" s="5">
         <v>41</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
@@ -7262,22 +7244,22 @@
         <v>7</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I118" s="5">
         <v>42</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K118" s="5"/>
     </row>
@@ -7287,22 +7269,22 @@
         <v>8</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I119" s="5">
         <v>43</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K119" s="5"/>
     </row>
@@ -7312,22 +7294,22 @@
         <v>9</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I120" s="5">
         <v>44</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K120" s="5"/>
     </row>
@@ -7337,25 +7319,25 @@
         <v>10</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I121" s="5">
         <v>45</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
@@ -7364,25 +7346,25 @@
         <v>11</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I122" s="5">
         <v>46</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
@@ -7391,23 +7373,23 @@
         <v>12</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E123" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G123" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H123" s="37"/>
       <c r="I123" s="30">
         <v>40</v>
       </c>
       <c r="J123" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K123" s="31"/>
     </row>
@@ -7417,26 +7399,26 @@
         <v>13</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G124" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H124" s="37"/>
       <c r="I124" s="30">
         <v>47</v>
       </c>
       <c r="J124" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K124" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
@@ -7445,23 +7427,23 @@
         <v>14</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H125" s="37"/>
       <c r="I125" s="30">
         <v>42</v>
       </c>
       <c r="J125" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K125" s="31"/>
     </row>
@@ -7471,23 +7453,23 @@
         <v>15</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E126" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G126" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H126" s="37"/>
       <c r="I126" s="30">
         <v>43</v>
       </c>
       <c r="J126" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K126" s="31"/>
     </row>
@@ -7497,23 +7479,23 @@
         <v>16</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E127" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H127" s="37"/>
       <c r="I127" s="30">
         <v>44</v>
       </c>
       <c r="J127" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K127" s="31"/>
     </row>
@@ -7523,26 +7505,26 @@
         <v>17</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F128" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G128" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H128" s="37"/>
       <c r="I128" s="30">
         <v>48</v>
       </c>
       <c r="J128" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K128" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
@@ -7551,26 +7533,26 @@
         <v>18</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G129" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H129" s="37"/>
       <c r="I129" s="30">
         <v>49</v>
       </c>
       <c r="J129" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K129" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
@@ -7579,23 +7561,23 @@
         <v>19</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E130" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G130" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H130" s="37"/>
       <c r="I130" s="30">
         <v>40</v>
       </c>
       <c r="J130" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K130" s="31"/>
     </row>
@@ -7605,26 +7587,26 @@
         <v>20</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F131" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G131" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H131" s="37"/>
       <c r="I131" s="30">
         <v>50</v>
       </c>
       <c r="J131" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K131" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
@@ -7633,23 +7615,23 @@
         <v>21</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E132" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G132" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H132" s="37"/>
       <c r="I132" s="30">
         <v>42</v>
       </c>
       <c r="J132" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K132" s="31"/>
     </row>
@@ -7659,23 +7641,23 @@
         <v>22</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E133" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G133" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H133" s="37"/>
       <c r="I133" s="30">
         <v>43</v>
       </c>
       <c r="J133" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K133" s="31"/>
     </row>
@@ -7685,23 +7667,23 @@
         <v>23</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E134" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F134" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G134" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H134" s="37"/>
       <c r="I134" s="30">
         <v>44</v>
       </c>
       <c r="J134" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K134" s="31"/>
     </row>
@@ -7711,26 +7693,26 @@
         <v>24</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F135" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G135" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H135" s="37"/>
       <c r="I135" s="30">
         <v>51</v>
       </c>
       <c r="J135" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K135" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
@@ -7740,26 +7722,26 @@
         <v>25</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F136" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G136" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H136" s="37"/>
       <c r="I136" s="30">
         <v>52</v>
       </c>
       <c r="J136" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K136" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
@@ -7769,16 +7751,16 @@
         <v>26</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E137" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F137" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G137" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H137" s="37"/>
       <c r="I137" s="30"/>
@@ -7787,29 +7769,29 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B138" s="26"/>
       <c r="C138" s="5">
         <v>1</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I138" s="5">
         <v>53</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K138" s="5"/>
     </row>
@@ -7820,22 +7802,22 @@
         <v>2</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I139" s="5">
         <v>54</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K139" s="5"/>
     </row>
@@ -7846,25 +7828,25 @@
         <v>3</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I140" s="5">
         <v>55</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
@@ -7874,25 +7856,25 @@
         <v>4</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I141" s="5">
         <v>56</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
@@ -7902,25 +7884,25 @@
         <v>5</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I142" s="5">
         <v>57</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
@@ -7930,25 +7912,25 @@
         <v>6</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I143" s="5">
         <v>58</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
@@ -7958,25 +7940,25 @@
         <v>7</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I144" s="5">
         <v>59</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K144" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
@@ -8034,67 +8016,67 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I153" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K153" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="J153" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B154" s="16"/>
       <c r="C154" s="5"/>
       <c r="D154" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G154" s="16" t="s">
         <v>475</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G154" s="16" t="s">
-        <v>477</v>
       </c>
       <c r="I154" s="5">
         <v>60</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
@@ -8102,22 +8084,22 @@
       <c r="B155" s="16"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I155" s="5">
         <v>2</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K155" s="5"/>
     </row>
@@ -8138,25 +8120,25 @@
       <c r="B157" s="16"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I157" s="5">
         <v>61</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K157" s="28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
@@ -8164,25 +8146,25 @@
       <c r="B158" s="16"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I158" s="5">
         <v>5</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
@@ -8191,7 +8173,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -8331,51 +8313,51 @@
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -8408,13 +8390,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -8431,49 +8413,49 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -8487,10 +8469,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -8504,10 +8486,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
@@ -8521,10 +8503,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
@@ -8538,10 +8520,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -8555,10 +8537,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
@@ -8572,10 +8554,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
@@ -8589,10 +8571,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -8606,10 +8588,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C16" s="5">
         <v>4</v>
@@ -8623,10 +8605,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
@@ -8640,10 +8622,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
@@ -8657,10 +8639,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
@@ -8674,10 +8656,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
@@ -8691,10 +8673,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
@@ -8708,10 +8690,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
@@ -8752,62 +8734,62 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E8">
         <v>-3</v>
@@ -8815,10 +8797,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
